--- a/PID test.xlsx
+++ b/PID test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boldasl\SEUNGHO\Workspace\GitHub\testbench\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0C016B-E294-49EF-A01A-24DB9E4C2E77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8882C0-7BCB-4C7E-A2D9-E0CDB7923CBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" xr2:uid="{7595B44F-885F-4134-BD6E-FF817DDA7BF4}"/>
   </bookViews>
@@ -2148,301 +2148,301 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9850000000000001</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9117299999999999</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7818000000000001</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5965299999999996</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.3573500000000003</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.0658500000000002</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.7236900000000004</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.33263</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.8944999999999999</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.4111899999999995</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.8846000000000007</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.3166799999999999</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.7093900000000009</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.0647</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.384499999999999</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.6707</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.9253</c:v>
+                  <c:v>0.85350000000000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.1502</c:v>
+                  <c:v>0.90349999999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11.347099999999999</c:v>
+                  <c:v>0.85592999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11.517799999999999</c:v>
+                  <c:v>0.90593000000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11.664199999999999</c:v>
+                  <c:v>0.85831100000000005</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11.787800000000001</c:v>
+                  <c:v>0.90831099999999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11.8904</c:v>
+                  <c:v>0.86064499999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>11.9735</c:v>
+                  <c:v>0.91064500000000004</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>12.038500000000001</c:v>
+                  <c:v>0.86293200000000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>12.0871</c:v>
+                  <c:v>0.91293199999999997</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12.1206</c:v>
+                  <c:v>0.865174</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>12.1402</c:v>
+                  <c:v>0.91517400000000004</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12.1473</c:v>
+                  <c:v>0.86736999999999997</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>12.1431</c:v>
+                  <c:v>0.91737000000000002</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>12.1287</c:v>
+                  <c:v>0.86952300000000005</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>12.1052</c:v>
+                  <c:v>0.91952299999999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>12.073700000000001</c:v>
+                  <c:v>0.87163199999999996</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>12.0349</c:v>
+                  <c:v>0.92163200000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>11.99</c:v>
+                  <c:v>0.87370000000000003</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>11.9397</c:v>
+                  <c:v>0.92369999999999997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>11.8847</c:v>
+                  <c:v>0.875726</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>11.825900000000001</c:v>
+                  <c:v>0.92572600000000005</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>11.7639</c:v>
+                  <c:v>0.87771100000000002</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>11.699199999999999</c:v>
+                  <c:v>0.92771099999999995</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>11.6326</c:v>
+                  <c:v>0.87965700000000002</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>11.564500000000001</c:v>
+                  <c:v>0.92965699999999996</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>11.4954</c:v>
+                  <c:v>0.88156400000000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>11.425700000000001</c:v>
+                  <c:v>0.93156399999999995</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>11.3559</c:v>
+                  <c:v>0.88343300000000002</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>11.286300000000001</c:v>
+                  <c:v>0.93343299999999996</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>11.2172</c:v>
+                  <c:v>0.88526400000000005</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>11.148999999999999</c:v>
+                  <c:v>0.93526399999999998</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>11.081799999999999</c:v>
+                  <c:v>0.88705900000000004</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>11.0159</c:v>
+                  <c:v>0.93705899999999998</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>10.951499999999999</c:v>
+                  <c:v>0.88881699999999997</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>10.8887</c:v>
+                  <c:v>0.93881700000000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>10.8278</c:v>
+                  <c:v>0.89054100000000003</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>10.768800000000001</c:v>
+                  <c:v>0.94054099999999996</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>10.7119</c:v>
+                  <c:v>0.89222999999999997</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>10.6571</c:v>
+                  <c:v>0.94223000000000001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>10.6044</c:v>
+                  <c:v>0.89388599999999996</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>10.554</c:v>
+                  <c:v>0.943886</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>10.505800000000001</c:v>
+                  <c:v>0.89550799999999997</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>10.459899999999999</c:v>
+                  <c:v>0.94550800000000002</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>10.4162</c:v>
+                  <c:v>0.89709799999999995</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>10.3748</c:v>
+                  <c:v>0.947098</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>10.335699999999999</c:v>
+                  <c:v>0.89865600000000001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>10.2988</c:v>
+                  <c:v>0.94865600000000005</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>10.263999999999999</c:v>
+                  <c:v>0.90018299999999996</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>10.231400000000001</c:v>
+                  <c:v>0.950183</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>10.200799999999999</c:v>
+                  <c:v>0.90167900000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>10.1723</c:v>
+                  <c:v>0.95167900000000005</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>10.145799999999999</c:v>
+                  <c:v>0.90314499999999998</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>10.1212</c:v>
+                  <c:v>0.95314500000000002</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>10.0984</c:v>
+                  <c:v>0.90458300000000003</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>10.077299999999999</c:v>
+                  <c:v>0.95458299999999996</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>10.058</c:v>
+                  <c:v>0.90599099999999999</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>10.0403</c:v>
+                  <c:v>0.95599100000000004</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>10.0242</c:v>
+                  <c:v>0.90737100000000004</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>10.009499999999999</c:v>
+                  <c:v>0.95737099999999997</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>9.9962300000000006</c:v>
+                  <c:v>0.90872399999999998</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>9.9842899999999997</c:v>
+                  <c:v>0.95872400000000002</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>9.9736200000000004</c:v>
+                  <c:v>0.910049</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9.9641300000000008</c:v>
+                  <c:v>0.96004900000000004</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>9.9557599999999997</c:v>
+                  <c:v>0.91134800000000005</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>9.9484300000000001</c:v>
+                  <c:v>0.96134799999999998</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>9.9420900000000003</c:v>
+                  <c:v>0.91262100000000002</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>9.9366500000000002</c:v>
+                  <c:v>0.96262099999999995</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>9.9320699999999995</c:v>
+                  <c:v>0.91386900000000004</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>9.9282800000000009</c:v>
+                  <c:v>0.96386899999999998</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>9.9252199999999995</c:v>
+                  <c:v>0.91509099999999999</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9.9228299999999994</c:v>
+                  <c:v>0.96509100000000003</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>9.9210600000000007</c:v>
+                  <c:v>0.91629000000000005</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>9.9198599999999999</c:v>
+                  <c:v>0.96628999999999998</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>9.9191699999999994</c:v>
+                  <c:v>0.91746399999999995</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>9.9189500000000006</c:v>
+                  <c:v>0.96746399999999999</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>9.9191500000000001</c:v>
+                  <c:v>0.91861499999999996</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9.9197299999999995</c:v>
+                  <c:v>0.968615</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>9.9206500000000002</c:v>
+                  <c:v>0.91974199999999995</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>9.9218700000000002</c:v>
+                  <c:v>0.96974199999999999</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>9.9233600000000006</c:v>
+                  <c:v>0.92084699999999997</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>9.9250799999999995</c:v>
+                  <c:v>0.97084700000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5299,7 +5299,7 @@
   <dimension ref="B3:AC204"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AG2" sqref="AG2"/>
+      <selection activeCell="AI3" sqref="AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5349,7 +5349,7 @@
         <v>0.05</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.4">
@@ -5363,7 +5363,7 @@
         <v>0.1</v>
       </c>
       <c r="AC7">
-        <v>1.9850000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.4">
@@ -5377,7 +5377,7 @@
         <v>0.15</v>
       </c>
       <c r="AC8">
-        <v>2.9117299999999999</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.4">
@@ -5391,7 +5391,7 @@
         <v>0.2</v>
       </c>
       <c r="AC9">
-        <v>3.7818000000000001</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.4">
@@ -5405,7 +5405,7 @@
         <v>0.25</v>
       </c>
       <c r="AC10">
-        <v>4.5965299999999996</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.4">
@@ -5419,7 +5419,7 @@
         <v>0.3</v>
       </c>
       <c r="AC11">
-        <v>5.3573500000000003</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.4">
@@ -5433,7 +5433,7 @@
         <v>0.35</v>
       </c>
       <c r="AC12">
-        <v>6.0658500000000002</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.4">
@@ -5447,7 +5447,7 @@
         <v>0.4</v>
       </c>
       <c r="AC13">
-        <v>6.7236900000000004</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.4">
@@ -5461,7 +5461,7 @@
         <v>0.45</v>
       </c>
       <c r="AC14">
-        <v>7.33263</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.4">
@@ -5475,7 +5475,7 @@
         <v>0.5</v>
       </c>
       <c r="AC15">
-        <v>7.8944999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.4">
@@ -5489,7 +5489,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="AC16">
-        <v>8.4111899999999995</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.4">
@@ -5503,7 +5503,7 @@
         <v>0.6</v>
       </c>
       <c r="AC17">
-        <v>8.8846000000000007</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.4">
@@ -5517,7 +5517,7 @@
         <v>0.65</v>
       </c>
       <c r="AC18">
-        <v>9.3166799999999999</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.4">
@@ -5531,7 +5531,7 @@
         <v>0.7</v>
       </c>
       <c r="AC19">
-        <v>9.7093900000000009</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.4">
@@ -5545,7 +5545,7 @@
         <v>0.75</v>
       </c>
       <c r="AC20">
-        <v>10.0647</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.4">
@@ -5559,7 +5559,7 @@
         <v>0.8</v>
       </c>
       <c r="AC21">
-        <v>10.384499999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.4">
@@ -5573,7 +5573,7 @@
         <v>0.85</v>
       </c>
       <c r="AC22">
-        <v>10.6707</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.4">
@@ -5587,7 +5587,7 @@
         <v>0.9</v>
       </c>
       <c r="AC23">
-        <v>10.9253</v>
+        <v>0.85350000000000004</v>
       </c>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.4">
@@ -5601,7 +5601,7 @@
         <v>0.95</v>
       </c>
       <c r="AC24">
-        <v>11.1502</v>
+        <v>0.90349999999999997</v>
       </c>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.4">
@@ -5615,7 +5615,7 @@
         <v>1</v>
       </c>
       <c r="AC25">
-        <v>11.347099999999999</v>
+        <v>0.85592999999999997</v>
       </c>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.4">
@@ -5629,7 +5629,7 @@
         <v>1.05</v>
       </c>
       <c r="AC26">
-        <v>11.517799999999999</v>
+        <v>0.90593000000000001</v>
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.4">
@@ -5643,7 +5643,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AC27">
-        <v>11.664199999999999</v>
+        <v>0.85831100000000005</v>
       </c>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.4">
@@ -5657,7 +5657,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="AC28">
-        <v>11.787800000000001</v>
+        <v>0.90831099999999998</v>
       </c>
     </row>
     <row r="29" spans="2:29" x14ac:dyDescent="0.4">
@@ -5671,7 +5671,7 @@
         <v>1.2</v>
       </c>
       <c r="AC29">
-        <v>11.8904</v>
+        <v>0.86064499999999999</v>
       </c>
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.4">
@@ -5685,7 +5685,7 @@
         <v>1.25</v>
       </c>
       <c r="AC30">
-        <v>11.9735</v>
+        <v>0.91064500000000004</v>
       </c>
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.4">
@@ -5699,7 +5699,7 @@
         <v>1.3</v>
       </c>
       <c r="AC31">
-        <v>12.038500000000001</v>
+        <v>0.86293200000000003</v>
       </c>
     </row>
     <row r="32" spans="2:29" x14ac:dyDescent="0.4">
@@ -5713,7 +5713,7 @@
         <v>1.35</v>
       </c>
       <c r="AC32">
-        <v>12.0871</v>
+        <v>0.91293199999999997</v>
       </c>
     </row>
     <row r="33" spans="2:29" x14ac:dyDescent="0.4">
@@ -5727,7 +5727,7 @@
         <v>1.4</v>
       </c>
       <c r="AC33">
-        <v>12.1206</v>
+        <v>0.865174</v>
       </c>
     </row>
     <row r="34" spans="2:29" x14ac:dyDescent="0.4">
@@ -5741,7 +5741,7 @@
         <v>1.45</v>
       </c>
       <c r="AC34">
-        <v>12.1402</v>
+        <v>0.91517400000000004</v>
       </c>
     </row>
     <row r="35" spans="2:29" x14ac:dyDescent="0.4">
@@ -5755,7 +5755,7 @@
         <v>1.5</v>
       </c>
       <c r="AC35">
-        <v>12.1473</v>
+        <v>0.86736999999999997</v>
       </c>
     </row>
     <row r="36" spans="2:29" x14ac:dyDescent="0.4">
@@ -5769,7 +5769,7 @@
         <v>1.55</v>
       </c>
       <c r="AC36">
-        <v>12.1431</v>
+        <v>0.91737000000000002</v>
       </c>
     </row>
     <row r="37" spans="2:29" x14ac:dyDescent="0.4">
@@ -5783,7 +5783,7 @@
         <v>1.6</v>
       </c>
       <c r="AC37">
-        <v>12.1287</v>
+        <v>0.86952300000000005</v>
       </c>
     </row>
     <row r="38" spans="2:29" x14ac:dyDescent="0.4">
@@ -5797,7 +5797,7 @@
         <v>1.65</v>
       </c>
       <c r="AC38">
-        <v>12.1052</v>
+        <v>0.91952299999999998</v>
       </c>
     </row>
     <row r="39" spans="2:29" x14ac:dyDescent="0.4">
@@ -5811,7 +5811,7 @@
         <v>1.7</v>
       </c>
       <c r="AC39">
-        <v>12.073700000000001</v>
+        <v>0.87163199999999996</v>
       </c>
     </row>
     <row r="40" spans="2:29" x14ac:dyDescent="0.4">
@@ -5825,7 +5825,7 @@
         <v>1.75</v>
       </c>
       <c r="AC40">
-        <v>12.0349</v>
+        <v>0.92163200000000001</v>
       </c>
     </row>
     <row r="41" spans="2:29" x14ac:dyDescent="0.4">
@@ -5839,7 +5839,7 @@
         <v>1.8</v>
       </c>
       <c r="AC41">
-        <v>11.99</v>
+        <v>0.87370000000000003</v>
       </c>
     </row>
     <row r="42" spans="2:29" x14ac:dyDescent="0.4">
@@ -5853,7 +5853,7 @@
         <v>1.85</v>
       </c>
       <c r="AC42">
-        <v>11.9397</v>
+        <v>0.92369999999999997</v>
       </c>
     </row>
     <row r="43" spans="2:29" x14ac:dyDescent="0.4">
@@ -5867,7 +5867,7 @@
         <v>1.9</v>
       </c>
       <c r="AC43">
-        <v>11.8847</v>
+        <v>0.875726</v>
       </c>
     </row>
     <row r="44" spans="2:29" x14ac:dyDescent="0.4">
@@ -5881,7 +5881,7 @@
         <v>1.95</v>
       </c>
       <c r="AC44">
-        <v>11.825900000000001</v>
+        <v>0.92572600000000005</v>
       </c>
     </row>
     <row r="45" spans="2:29" x14ac:dyDescent="0.4">
@@ -5895,7 +5895,7 @@
         <v>2</v>
       </c>
       <c r="AC45">
-        <v>11.7639</v>
+        <v>0.87771100000000002</v>
       </c>
     </row>
     <row r="46" spans="2:29" x14ac:dyDescent="0.4">
@@ -5909,7 +5909,7 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="AC46">
-        <v>11.699199999999999</v>
+        <v>0.92771099999999995</v>
       </c>
     </row>
     <row r="47" spans="2:29" x14ac:dyDescent="0.4">
@@ -5923,7 +5923,7 @@
         <v>2.1</v>
       </c>
       <c r="AC47">
-        <v>11.6326</v>
+        <v>0.87965700000000002</v>
       </c>
     </row>
     <row r="48" spans="2:29" x14ac:dyDescent="0.4">
@@ -5937,7 +5937,7 @@
         <v>2.15</v>
       </c>
       <c r="AC48">
-        <v>11.564500000000001</v>
+        <v>0.92965699999999996</v>
       </c>
     </row>
     <row r="49" spans="2:29" x14ac:dyDescent="0.4">
@@ -5951,7 +5951,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="AC49">
-        <v>11.4954</v>
+        <v>0.88156400000000001</v>
       </c>
     </row>
     <row r="50" spans="2:29" x14ac:dyDescent="0.4">
@@ -5965,7 +5965,7 @@
         <v>2.25</v>
       </c>
       <c r="AC50">
-        <v>11.425700000000001</v>
+        <v>0.93156399999999995</v>
       </c>
     </row>
     <row r="51" spans="2:29" x14ac:dyDescent="0.4">
@@ -5979,7 +5979,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="AC51">
-        <v>11.3559</v>
+        <v>0.88343300000000002</v>
       </c>
     </row>
     <row r="52" spans="2:29" x14ac:dyDescent="0.4">
@@ -5993,7 +5993,7 @@
         <v>2.35</v>
       </c>
       <c r="AC52">
-        <v>11.286300000000001</v>
+        <v>0.93343299999999996</v>
       </c>
     </row>
     <row r="53" spans="2:29" x14ac:dyDescent="0.4">
@@ -6007,7 +6007,7 @@
         <v>2.4</v>
       </c>
       <c r="AC53">
-        <v>11.2172</v>
+        <v>0.88526400000000005</v>
       </c>
     </row>
     <row r="54" spans="2:29" x14ac:dyDescent="0.4">
@@ -6021,7 +6021,7 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="AC54">
-        <v>11.148999999999999</v>
+        <v>0.93526399999999998</v>
       </c>
     </row>
     <row r="55" spans="2:29" x14ac:dyDescent="0.4">
@@ -6035,7 +6035,7 @@
         <v>2.5</v>
       </c>
       <c r="AC55">
-        <v>11.081799999999999</v>
+        <v>0.88705900000000004</v>
       </c>
     </row>
     <row r="56" spans="2:29" x14ac:dyDescent="0.4">
@@ -6049,7 +6049,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="AC56">
-        <v>11.0159</v>
+        <v>0.93705899999999998</v>
       </c>
     </row>
     <row r="57" spans="2:29" x14ac:dyDescent="0.4">
@@ -6063,7 +6063,7 @@
         <v>2.6</v>
       </c>
       <c r="AC57">
-        <v>10.951499999999999</v>
+        <v>0.88881699999999997</v>
       </c>
     </row>
     <row r="58" spans="2:29" x14ac:dyDescent="0.4">
@@ -6077,7 +6077,7 @@
         <v>2.65</v>
       </c>
       <c r="AC58">
-        <v>10.8887</v>
+        <v>0.93881700000000001</v>
       </c>
     </row>
     <row r="59" spans="2:29" x14ac:dyDescent="0.4">
@@ -6091,7 +6091,7 @@
         <v>2.7</v>
       </c>
       <c r="AC59">
-        <v>10.8278</v>
+        <v>0.89054100000000003</v>
       </c>
     </row>
     <row r="60" spans="2:29" x14ac:dyDescent="0.4">
@@ -6105,7 +6105,7 @@
         <v>2.75</v>
       </c>
       <c r="AC60">
-        <v>10.768800000000001</v>
+        <v>0.94054099999999996</v>
       </c>
     </row>
     <row r="61" spans="2:29" x14ac:dyDescent="0.4">
@@ -6119,7 +6119,7 @@
         <v>2.8</v>
       </c>
       <c r="AC61">
-        <v>10.7119</v>
+        <v>0.89222999999999997</v>
       </c>
     </row>
     <row r="62" spans="2:29" x14ac:dyDescent="0.4">
@@ -6133,7 +6133,7 @@
         <v>2.85</v>
       </c>
       <c r="AC62">
-        <v>10.6571</v>
+        <v>0.94223000000000001</v>
       </c>
     </row>
     <row r="63" spans="2:29" x14ac:dyDescent="0.4">
@@ -6147,7 +6147,7 @@
         <v>2.9</v>
       </c>
       <c r="AC63">
-        <v>10.6044</v>
+        <v>0.89388599999999996</v>
       </c>
     </row>
     <row r="64" spans="2:29" x14ac:dyDescent="0.4">
@@ -6161,7 +6161,7 @@
         <v>2.95</v>
       </c>
       <c r="AC64">
-        <v>10.554</v>
+        <v>0.943886</v>
       </c>
     </row>
     <row r="65" spans="2:29" x14ac:dyDescent="0.4">
@@ -6175,7 +6175,7 @@
         <v>3</v>
       </c>
       <c r="AC65">
-        <v>10.505800000000001</v>
+        <v>0.89550799999999997</v>
       </c>
     </row>
     <row r="66" spans="2:29" x14ac:dyDescent="0.4">
@@ -6189,7 +6189,7 @@
         <v>3.05</v>
       </c>
       <c r="AC66">
-        <v>10.459899999999999</v>
+        <v>0.94550800000000002</v>
       </c>
     </row>
     <row r="67" spans="2:29" x14ac:dyDescent="0.4">
@@ -6203,7 +6203,7 @@
         <v>3.1</v>
       </c>
       <c r="AC67">
-        <v>10.4162</v>
+        <v>0.89709799999999995</v>
       </c>
     </row>
     <row r="68" spans="2:29" x14ac:dyDescent="0.4">
@@ -6217,7 +6217,7 @@
         <v>3.15</v>
       </c>
       <c r="AC68">
-        <v>10.3748</v>
+        <v>0.947098</v>
       </c>
     </row>
     <row r="69" spans="2:29" x14ac:dyDescent="0.4">
@@ -6231,7 +6231,7 @@
         <v>3.2</v>
       </c>
       <c r="AC69">
-        <v>10.335699999999999</v>
+        <v>0.89865600000000001</v>
       </c>
     </row>
     <row r="70" spans="2:29" x14ac:dyDescent="0.4">
@@ -6245,7 +6245,7 @@
         <v>3.25</v>
       </c>
       <c r="AC70">
-        <v>10.2988</v>
+        <v>0.94865600000000005</v>
       </c>
     </row>
     <row r="71" spans="2:29" x14ac:dyDescent="0.4">
@@ -6259,7 +6259,7 @@
         <v>3.3</v>
       </c>
       <c r="AC71">
-        <v>10.263999999999999</v>
+        <v>0.90018299999999996</v>
       </c>
     </row>
     <row r="72" spans="2:29" x14ac:dyDescent="0.4">
@@ -6273,7 +6273,7 @@
         <v>3.35</v>
       </c>
       <c r="AC72">
-        <v>10.231400000000001</v>
+        <v>0.950183</v>
       </c>
     </row>
     <row r="73" spans="2:29" x14ac:dyDescent="0.4">
@@ -6287,7 +6287,7 @@
         <v>3.4</v>
       </c>
       <c r="AC73">
-        <v>10.200799999999999</v>
+        <v>0.90167900000000001</v>
       </c>
     </row>
     <row r="74" spans="2:29" x14ac:dyDescent="0.4">
@@ -6301,7 +6301,7 @@
         <v>3.45</v>
       </c>
       <c r="AC74">
-        <v>10.1723</v>
+        <v>0.95167900000000005</v>
       </c>
     </row>
     <row r="75" spans="2:29" x14ac:dyDescent="0.4">
@@ -6315,7 +6315,7 @@
         <v>3.5</v>
       </c>
       <c r="AC75">
-        <v>10.145799999999999</v>
+        <v>0.90314499999999998</v>
       </c>
     </row>
     <row r="76" spans="2:29" x14ac:dyDescent="0.4">
@@ -6329,7 +6329,7 @@
         <v>3.55</v>
       </c>
       <c r="AC76">
-        <v>10.1212</v>
+        <v>0.95314500000000002</v>
       </c>
     </row>
     <row r="77" spans="2:29" x14ac:dyDescent="0.4">
@@ -6343,7 +6343,7 @@
         <v>3.6</v>
       </c>
       <c r="AC77">
-        <v>10.0984</v>
+        <v>0.90458300000000003</v>
       </c>
     </row>
     <row r="78" spans="2:29" x14ac:dyDescent="0.4">
@@ -6357,7 +6357,7 @@
         <v>3.65</v>
       </c>
       <c r="AC78">
-        <v>10.077299999999999</v>
+        <v>0.95458299999999996</v>
       </c>
     </row>
     <row r="79" spans="2:29" x14ac:dyDescent="0.4">
@@ -6371,7 +6371,7 @@
         <v>3.7</v>
       </c>
       <c r="AC79">
-        <v>10.058</v>
+        <v>0.90599099999999999</v>
       </c>
     </row>
     <row r="80" spans="2:29" x14ac:dyDescent="0.4">
@@ -6385,7 +6385,7 @@
         <v>3.75</v>
       </c>
       <c r="AC80">
-        <v>10.0403</v>
+        <v>0.95599100000000004</v>
       </c>
     </row>
     <row r="81" spans="2:29" x14ac:dyDescent="0.4">
@@ -6399,7 +6399,7 @@
         <v>3.8</v>
       </c>
       <c r="AC81">
-        <v>10.0242</v>
+        <v>0.90737100000000004</v>
       </c>
     </row>
     <row r="82" spans="2:29" x14ac:dyDescent="0.4">
@@ -6413,7 +6413,7 @@
         <v>3.85</v>
       </c>
       <c r="AC82">
-        <v>10.009499999999999</v>
+        <v>0.95737099999999997</v>
       </c>
     </row>
     <row r="83" spans="2:29" x14ac:dyDescent="0.4">
@@ -6427,7 +6427,7 @@
         <v>3.9</v>
       </c>
       <c r="AC83">
-        <v>9.9962300000000006</v>
+        <v>0.90872399999999998</v>
       </c>
     </row>
     <row r="84" spans="2:29" x14ac:dyDescent="0.4">
@@ -6441,7 +6441,7 @@
         <v>3.95</v>
       </c>
       <c r="AC84">
-        <v>9.9842899999999997</v>
+        <v>0.95872400000000002</v>
       </c>
     </row>
     <row r="85" spans="2:29" x14ac:dyDescent="0.4">
@@ -6455,7 +6455,7 @@
         <v>4</v>
       </c>
       <c r="AC85">
-        <v>9.9736200000000004</v>
+        <v>0.910049</v>
       </c>
     </row>
     <row r="86" spans="2:29" x14ac:dyDescent="0.4">
@@ -6469,7 +6469,7 @@
         <v>4.05</v>
       </c>
       <c r="AC86">
-        <v>9.9641300000000008</v>
+        <v>0.96004900000000004</v>
       </c>
     </row>
     <row r="87" spans="2:29" x14ac:dyDescent="0.4">
@@ -6483,7 +6483,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="AC87">
-        <v>9.9557599999999997</v>
+        <v>0.91134800000000005</v>
       </c>
     </row>
     <row r="88" spans="2:29" x14ac:dyDescent="0.4">
@@ -6497,7 +6497,7 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="AC88">
-        <v>9.9484300000000001</v>
+        <v>0.96134799999999998</v>
       </c>
     </row>
     <row r="89" spans="2:29" x14ac:dyDescent="0.4">
@@ -6511,7 +6511,7 @@
         <v>4.2</v>
       </c>
       <c r="AC89">
-        <v>9.9420900000000003</v>
+        <v>0.91262100000000002</v>
       </c>
     </row>
     <row r="90" spans="2:29" x14ac:dyDescent="0.4">
@@ -6525,7 +6525,7 @@
         <v>4.25</v>
       </c>
       <c r="AC90">
-        <v>9.9366500000000002</v>
+        <v>0.96262099999999995</v>
       </c>
     </row>
     <row r="91" spans="2:29" x14ac:dyDescent="0.4">
@@ -6539,7 +6539,7 @@
         <v>4.3</v>
       </c>
       <c r="AC91">
-        <v>9.9320699999999995</v>
+        <v>0.91386900000000004</v>
       </c>
     </row>
     <row r="92" spans="2:29" x14ac:dyDescent="0.4">
@@ -6553,7 +6553,7 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="AC92">
-        <v>9.9282800000000009</v>
+        <v>0.96386899999999998</v>
       </c>
     </row>
     <row r="93" spans="2:29" x14ac:dyDescent="0.4">
@@ -6567,7 +6567,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AC93">
-        <v>9.9252199999999995</v>
+        <v>0.91509099999999999</v>
       </c>
     </row>
     <row r="94" spans="2:29" x14ac:dyDescent="0.4">
@@ -6581,7 +6581,7 @@
         <v>4.45</v>
       </c>
       <c r="AC94">
-        <v>9.9228299999999994</v>
+        <v>0.96509100000000003</v>
       </c>
     </row>
     <row r="95" spans="2:29" x14ac:dyDescent="0.4">
@@ -6595,7 +6595,7 @@
         <v>4.5</v>
       </c>
       <c r="AC95">
-        <v>9.9210600000000007</v>
+        <v>0.91629000000000005</v>
       </c>
     </row>
     <row r="96" spans="2:29" x14ac:dyDescent="0.4">
@@ -6609,7 +6609,7 @@
         <v>4.55</v>
       </c>
       <c r="AC96">
-        <v>9.9198599999999999</v>
+        <v>0.96628999999999998</v>
       </c>
     </row>
     <row r="97" spans="2:29" x14ac:dyDescent="0.4">
@@ -6623,7 +6623,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="AC97">
-        <v>9.9191699999999994</v>
+        <v>0.91746399999999995</v>
       </c>
     </row>
     <row r="98" spans="2:29" x14ac:dyDescent="0.4">
@@ -6637,7 +6637,7 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="AC98">
-        <v>9.9189500000000006</v>
+        <v>0.96746399999999999</v>
       </c>
     </row>
     <row r="99" spans="2:29" x14ac:dyDescent="0.4">
@@ -6651,7 +6651,7 @@
         <v>4.7</v>
       </c>
       <c r="AC99">
-        <v>9.9191500000000001</v>
+        <v>0.91861499999999996</v>
       </c>
     </row>
     <row r="100" spans="2:29" x14ac:dyDescent="0.4">
@@ -6665,7 +6665,7 @@
         <v>4.75</v>
       </c>
       <c r="AC100">
-        <v>9.9197299999999995</v>
+        <v>0.968615</v>
       </c>
     </row>
     <row r="101" spans="2:29" x14ac:dyDescent="0.4">
@@ -6679,7 +6679,7 @@
         <v>4.8</v>
       </c>
       <c r="AC101">
-        <v>9.9206500000000002</v>
+        <v>0.91974199999999995</v>
       </c>
     </row>
     <row r="102" spans="2:29" x14ac:dyDescent="0.4">
@@ -6693,7 +6693,7 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="AC102">
-        <v>9.9218700000000002</v>
+        <v>0.96974199999999999</v>
       </c>
     </row>
     <row r="103" spans="2:29" x14ac:dyDescent="0.4">
@@ -6707,7 +6707,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="AC103">
-        <v>9.9233600000000006</v>
+        <v>0.92084699999999997</v>
       </c>
     </row>
     <row r="104" spans="2:29" x14ac:dyDescent="0.4">
@@ -6721,7 +6721,7 @@
         <v>4.95</v>
       </c>
       <c r="AC104">
-        <v>9.9250799999999995</v>
+        <v>0.97084700000000002</v>
       </c>
     </row>
     <row r="105" spans="2:29" x14ac:dyDescent="0.4">

--- a/PID test.xlsx
+++ b/PID test.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boldasl\SEUNGHO\Workspace\GitHub\testbench\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8882C0-7BCB-4C7E-A2D9-E0CDB7923CBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0EFE36-222F-469F-ABC9-C2D40132B7AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" xr2:uid="{7595B44F-885F-4134-BD6E-FF817DDA7BF4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" activeTab="1" xr2:uid="{7595B44F-885F-4134-BD6E-FF817DDA7BF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$4:$C$155</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>P control</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +57,50 @@
   </si>
   <si>
     <t>PID control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PID speed 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기울기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y = 1.03x + 0.92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x는 voltage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y는 speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new eq PID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target speed 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target speed 50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max0.05로 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2163,286 +2211,286 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.35</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.4</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.45</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.6</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.65</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.7</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.75</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.8</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.85</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.85350000000000004</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.90349999999999997</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.85592999999999997</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.90593000000000001</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.85831100000000005</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.90831099999999998</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.86064499999999999</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.91064500000000004</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.86293200000000003</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.91293199999999997</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.865174</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.91517400000000004</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.86736999999999997</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.91737000000000002</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.86952300000000005</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.91952299999999998</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.87163199999999996</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.92163200000000001</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.87370000000000003</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.92369999999999997</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.875726</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.92572600000000005</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.87771100000000002</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.92771099999999995</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.87965700000000002</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.92965699999999996</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.88156400000000001</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.93156399999999995</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.88343300000000002</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.93343299999999996</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.88526400000000005</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.93526399999999998</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.88705900000000004</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.93705899999999998</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.88881699999999997</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.93881700000000001</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.89054100000000003</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.94054099999999996</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.89222999999999997</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.94223000000000001</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.89388599999999996</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.943886</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.89550799999999997</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.94550800000000002</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.89709799999999995</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.947098</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.89865600000000001</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.94865600000000005</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.90018299999999996</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.950183</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.90167900000000001</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.95167900000000005</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.90314499999999998</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.95314500000000002</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.90458300000000003</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.95458299999999996</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.90599099999999999</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.95599100000000004</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.90737100000000004</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.95737099999999997</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.90872399999999998</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.95872400000000002</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.910049</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.96004900000000004</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.91134800000000005</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.96134799999999998</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.91262100000000002</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.96262099999999995</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.91386900000000004</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.96386899999999998</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.91509099999999999</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.96509100000000003</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.91629000000000005</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.96628999999999998</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.91746399999999995</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.96746399999999999</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.91861499999999996</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.968615</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.91974199999999995</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.96974199999999999</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.92084699999999997</c:v>
+                  <c:v>0.26050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.97084700000000002</c:v>
+                  <c:v>0.3105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2569,6 +2617,1516 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="390137160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$54:$C$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="67"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E9CB-48A3-B276-EE0F3E196AC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="463785248"/>
+        <c:axId val="463787216"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="463785248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="463787216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="463787216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="463785248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$6:$B$174</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="169"/>
+                <c:pt idx="1">
+                  <c:v>0.278804</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27879100000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1806E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27932899999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27950399999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27900900000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.2133000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.1969999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.20681955555555556</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.10305194444444446</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0305194444444445</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.92818316666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F754-48C7-91D5-6E2C545A8291}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="473817816"/>
+        <c:axId val="473818144"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="473817816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="473818144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="473818144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="473817816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$O$6:$O$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.32688400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33129799999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32839299999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33144299999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.331928</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33146799999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33180799999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33089800000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.33102199999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.33294899999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.33208199999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.33332099999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.332451</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.33284799999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.33249000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.30581599999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.32536599999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.33054</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A3EE-49C7-B390-FA03CE0747D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="475313376"/>
+        <c:axId val="461776640"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="475313376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="461776640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="461776640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475313376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$Q$6:$Q$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.27985500000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31853399999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30208699999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32633299999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32613399999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33008900000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33094400000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33206000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.33362399999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.330017</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.32836700000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.33258399999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.333812</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.33359699999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.33292699999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.33263999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.33356799999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.33226600000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.33422800000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.33386300000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.33288600000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.33357100000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.332347</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.32788400000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.33207199999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.33272499999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.33099600000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.33224900000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.332202</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.32946300000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.33205299999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.33305299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DDCF-4F27-AD05-A9E6715E18E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="465276584"/>
+        <c:axId val="465279208"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="465276584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465279208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="465279208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465276584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$Z$5:$Z$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11688800000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54322400000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60243500000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2789999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.121323</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.55318000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.65195899999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9032E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.116871</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.55360900000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.17749799999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.55372299999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.60713399999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.121031</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.55333100000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0CFB-4A8F-9F81-A1FC07EA1FA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="465286424"/>
+        <c:axId val="465283472"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="465286424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465283472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="465283472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465286424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2784,6 +4342,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4333,6 +6091,2586 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4991,6 +9329,191 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>529590</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B581B16B-4167-4740-821E-48B8A21B3963}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>41910</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="차트 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BCC374E-75C2-4B19-BF20-CE4DC738F042}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>445770</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="차트 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05D151B3-2D87-4C8C-A64C-AEFA435C47A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>453390</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>331470</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="차트 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6243493-3031-4DF2-8ADB-0EAB2613888F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>651510</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="차트 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F89993C0-CDCB-4279-910E-E44C8B097FA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5298,8 +9821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A809C89-33FC-44F7-88A9-C6DFABA9F0C7}">
   <dimension ref="B3:AC204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AI3" sqref="AI3"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5419,7 +9942,7 @@
         <v>0.3</v>
       </c>
       <c r="AC11">
-        <v>0.3</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.4">
@@ -5433,7 +9956,7 @@
         <v>0.35</v>
       </c>
       <c r="AC12">
-        <v>0.35</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.4">
@@ -5447,7 +9970,7 @@
         <v>0.4</v>
       </c>
       <c r="AC13">
-        <v>0.4</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.4">
@@ -5461,7 +9984,7 @@
         <v>0.45</v>
       </c>
       <c r="AC14">
-        <v>0.45</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.4">
@@ -5475,7 +9998,7 @@
         <v>0.5</v>
       </c>
       <c r="AC15">
-        <v>0.5</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.4">
@@ -5489,7 +10012,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="AC16">
-        <v>0.55000000000000004</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.4">
@@ -5503,7 +10026,7 @@
         <v>0.6</v>
       </c>
       <c r="AC17">
-        <v>0.6</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.4">
@@ -5517,7 +10040,7 @@
         <v>0.65</v>
       </c>
       <c r="AC18">
-        <v>0.65</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.4">
@@ -5531,7 +10054,7 @@
         <v>0.7</v>
       </c>
       <c r="AC19">
-        <v>0.7</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.4">
@@ -5545,7 +10068,7 @@
         <v>0.75</v>
       </c>
       <c r="AC20">
-        <v>0.75</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.4">
@@ -5559,7 +10082,7 @@
         <v>0.8</v>
       </c>
       <c r="AC21">
-        <v>0.8</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.4">
@@ -5573,7 +10096,7 @@
         <v>0.85</v>
       </c>
       <c r="AC22">
-        <v>0.85</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.4">
@@ -5587,7 +10110,7 @@
         <v>0.9</v>
       </c>
       <c r="AC23">
-        <v>0.85350000000000004</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.4">
@@ -5601,7 +10124,7 @@
         <v>0.95</v>
       </c>
       <c r="AC24">
-        <v>0.90349999999999997</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.4">
@@ -5615,7 +10138,7 @@
         <v>1</v>
       </c>
       <c r="AC25">
-        <v>0.85592999999999997</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.4">
@@ -5629,7 +10152,7 @@
         <v>1.05</v>
       </c>
       <c r="AC26">
-        <v>0.90593000000000001</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.4">
@@ -5643,7 +10166,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AC27">
-        <v>0.85831100000000005</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.4">
@@ -5657,7 +10180,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="AC28">
-        <v>0.90831099999999998</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="29" spans="2:29" x14ac:dyDescent="0.4">
@@ -5671,7 +10194,7 @@
         <v>1.2</v>
       </c>
       <c r="AC29">
-        <v>0.86064499999999999</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.4">
@@ -5685,7 +10208,7 @@
         <v>1.25</v>
       </c>
       <c r="AC30">
-        <v>0.91064500000000004</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.4">
@@ -5699,7 +10222,7 @@
         <v>1.3</v>
       </c>
       <c r="AC31">
-        <v>0.86293200000000003</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="32" spans="2:29" x14ac:dyDescent="0.4">
@@ -5713,7 +10236,7 @@
         <v>1.35</v>
       </c>
       <c r="AC32">
-        <v>0.91293199999999997</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="33" spans="2:29" x14ac:dyDescent="0.4">
@@ -5727,7 +10250,7 @@
         <v>1.4</v>
       </c>
       <c r="AC33">
-        <v>0.865174</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="34" spans="2:29" x14ac:dyDescent="0.4">
@@ -5741,7 +10264,7 @@
         <v>1.45</v>
       </c>
       <c r="AC34">
-        <v>0.91517400000000004</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="35" spans="2:29" x14ac:dyDescent="0.4">
@@ -5755,7 +10278,7 @@
         <v>1.5</v>
       </c>
       <c r="AC35">
-        <v>0.86736999999999997</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="36" spans="2:29" x14ac:dyDescent="0.4">
@@ -5769,7 +10292,7 @@
         <v>1.55</v>
       </c>
       <c r="AC36">
-        <v>0.91737000000000002</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="37" spans="2:29" x14ac:dyDescent="0.4">
@@ -5783,7 +10306,7 @@
         <v>1.6</v>
       </c>
       <c r="AC37">
-        <v>0.86952300000000005</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="38" spans="2:29" x14ac:dyDescent="0.4">
@@ -5797,7 +10320,7 @@
         <v>1.65</v>
       </c>
       <c r="AC38">
-        <v>0.91952299999999998</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="39" spans="2:29" x14ac:dyDescent="0.4">
@@ -5811,7 +10334,7 @@
         <v>1.7</v>
       </c>
       <c r="AC39">
-        <v>0.87163199999999996</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="40" spans="2:29" x14ac:dyDescent="0.4">
@@ -5825,7 +10348,7 @@
         <v>1.75</v>
       </c>
       <c r="AC40">
-        <v>0.92163200000000001</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="41" spans="2:29" x14ac:dyDescent="0.4">
@@ -5839,7 +10362,7 @@
         <v>1.8</v>
       </c>
       <c r="AC41">
-        <v>0.87370000000000003</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="42" spans="2:29" x14ac:dyDescent="0.4">
@@ -5853,7 +10376,7 @@
         <v>1.85</v>
       </c>
       <c r="AC42">
-        <v>0.92369999999999997</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="43" spans="2:29" x14ac:dyDescent="0.4">
@@ -5867,7 +10390,7 @@
         <v>1.9</v>
       </c>
       <c r="AC43">
-        <v>0.875726</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="44" spans="2:29" x14ac:dyDescent="0.4">
@@ -5881,7 +10404,7 @@
         <v>1.95</v>
       </c>
       <c r="AC44">
-        <v>0.92572600000000005</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="45" spans="2:29" x14ac:dyDescent="0.4">
@@ -5895,7 +10418,7 @@
         <v>2</v>
       </c>
       <c r="AC45">
-        <v>0.87771100000000002</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="46" spans="2:29" x14ac:dyDescent="0.4">
@@ -5909,7 +10432,7 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="AC46">
-        <v>0.92771099999999995</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="47" spans="2:29" x14ac:dyDescent="0.4">
@@ -5923,7 +10446,7 @@
         <v>2.1</v>
       </c>
       <c r="AC47">
-        <v>0.87965700000000002</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="48" spans="2:29" x14ac:dyDescent="0.4">
@@ -5937,7 +10460,7 @@
         <v>2.15</v>
       </c>
       <c r="AC48">
-        <v>0.92965699999999996</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="49" spans="2:29" x14ac:dyDescent="0.4">
@@ -5951,7 +10474,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="AC49">
-        <v>0.88156400000000001</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="50" spans="2:29" x14ac:dyDescent="0.4">
@@ -5965,7 +10488,7 @@
         <v>2.25</v>
       </c>
       <c r="AC50">
-        <v>0.93156399999999995</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="51" spans="2:29" x14ac:dyDescent="0.4">
@@ -5979,7 +10502,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="AC51">
-        <v>0.88343300000000002</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="52" spans="2:29" x14ac:dyDescent="0.4">
@@ -5993,7 +10516,7 @@
         <v>2.35</v>
       </c>
       <c r="AC52">
-        <v>0.93343299999999996</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="53" spans="2:29" x14ac:dyDescent="0.4">
@@ -6007,7 +10530,7 @@
         <v>2.4</v>
       </c>
       <c r="AC53">
-        <v>0.88526400000000005</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="54" spans="2:29" x14ac:dyDescent="0.4">
@@ -6021,7 +10544,7 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="AC54">
-        <v>0.93526399999999998</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="55" spans="2:29" x14ac:dyDescent="0.4">
@@ -6035,7 +10558,7 @@
         <v>2.5</v>
       </c>
       <c r="AC55">
-        <v>0.88705900000000004</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="56" spans="2:29" x14ac:dyDescent="0.4">
@@ -6049,7 +10572,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="AC56">
-        <v>0.93705899999999998</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="57" spans="2:29" x14ac:dyDescent="0.4">
@@ -6063,7 +10586,7 @@
         <v>2.6</v>
       </c>
       <c r="AC57">
-        <v>0.88881699999999997</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="58" spans="2:29" x14ac:dyDescent="0.4">
@@ -6077,7 +10600,7 @@
         <v>2.65</v>
       </c>
       <c r="AC58">
-        <v>0.93881700000000001</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="59" spans="2:29" x14ac:dyDescent="0.4">
@@ -6091,7 +10614,7 @@
         <v>2.7</v>
       </c>
       <c r="AC59">
-        <v>0.89054100000000003</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="60" spans="2:29" x14ac:dyDescent="0.4">
@@ -6105,7 +10628,7 @@
         <v>2.75</v>
       </c>
       <c r="AC60">
-        <v>0.94054099999999996</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="61" spans="2:29" x14ac:dyDescent="0.4">
@@ -6119,7 +10642,7 @@
         <v>2.8</v>
       </c>
       <c r="AC61">
-        <v>0.89222999999999997</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="62" spans="2:29" x14ac:dyDescent="0.4">
@@ -6133,7 +10656,7 @@
         <v>2.85</v>
       </c>
       <c r="AC62">
-        <v>0.94223000000000001</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="63" spans="2:29" x14ac:dyDescent="0.4">
@@ -6147,7 +10670,7 @@
         <v>2.9</v>
       </c>
       <c r="AC63">
-        <v>0.89388599999999996</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="64" spans="2:29" x14ac:dyDescent="0.4">
@@ -6161,7 +10684,7 @@
         <v>2.95</v>
       </c>
       <c r="AC64">
-        <v>0.943886</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="65" spans="2:29" x14ac:dyDescent="0.4">
@@ -6175,7 +10698,7 @@
         <v>3</v>
       </c>
       <c r="AC65">
-        <v>0.89550799999999997</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="66" spans="2:29" x14ac:dyDescent="0.4">
@@ -6189,7 +10712,7 @@
         <v>3.05</v>
       </c>
       <c r="AC66">
-        <v>0.94550800000000002</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="67" spans="2:29" x14ac:dyDescent="0.4">
@@ -6203,7 +10726,7 @@
         <v>3.1</v>
       </c>
       <c r="AC67">
-        <v>0.89709799999999995</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="68" spans="2:29" x14ac:dyDescent="0.4">
@@ -6217,7 +10740,7 @@
         <v>3.15</v>
       </c>
       <c r="AC68">
-        <v>0.947098</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="69" spans="2:29" x14ac:dyDescent="0.4">
@@ -6231,7 +10754,7 @@
         <v>3.2</v>
       </c>
       <c r="AC69">
-        <v>0.89865600000000001</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="70" spans="2:29" x14ac:dyDescent="0.4">
@@ -6245,7 +10768,7 @@
         <v>3.25</v>
       </c>
       <c r="AC70">
-        <v>0.94865600000000005</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="71" spans="2:29" x14ac:dyDescent="0.4">
@@ -6259,7 +10782,7 @@
         <v>3.3</v>
       </c>
       <c r="AC71">
-        <v>0.90018299999999996</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="72" spans="2:29" x14ac:dyDescent="0.4">
@@ -6273,7 +10796,7 @@
         <v>3.35</v>
       </c>
       <c r="AC72">
-        <v>0.950183</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="73" spans="2:29" x14ac:dyDescent="0.4">
@@ -6287,7 +10810,7 @@
         <v>3.4</v>
       </c>
       <c r="AC73">
-        <v>0.90167900000000001</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="74" spans="2:29" x14ac:dyDescent="0.4">
@@ -6301,7 +10824,7 @@
         <v>3.45</v>
       </c>
       <c r="AC74">
-        <v>0.95167900000000005</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="75" spans="2:29" x14ac:dyDescent="0.4">
@@ -6315,7 +10838,7 @@
         <v>3.5</v>
       </c>
       <c r="AC75">
-        <v>0.90314499999999998</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="76" spans="2:29" x14ac:dyDescent="0.4">
@@ -6329,7 +10852,7 @@
         <v>3.55</v>
       </c>
       <c r="AC76">
-        <v>0.95314500000000002</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="77" spans="2:29" x14ac:dyDescent="0.4">
@@ -6343,7 +10866,7 @@
         <v>3.6</v>
       </c>
       <c r="AC77">
-        <v>0.90458300000000003</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="78" spans="2:29" x14ac:dyDescent="0.4">
@@ -6357,7 +10880,7 @@
         <v>3.65</v>
       </c>
       <c r="AC78">
-        <v>0.95458299999999996</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="79" spans="2:29" x14ac:dyDescent="0.4">
@@ -6371,7 +10894,7 @@
         <v>3.7</v>
       </c>
       <c r="AC79">
-        <v>0.90599099999999999</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="80" spans="2:29" x14ac:dyDescent="0.4">
@@ -6385,7 +10908,7 @@
         <v>3.75</v>
       </c>
       <c r="AC80">
-        <v>0.95599100000000004</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="81" spans="2:29" x14ac:dyDescent="0.4">
@@ -6399,7 +10922,7 @@
         <v>3.8</v>
       </c>
       <c r="AC81">
-        <v>0.90737100000000004</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="82" spans="2:29" x14ac:dyDescent="0.4">
@@ -6413,7 +10936,7 @@
         <v>3.85</v>
       </c>
       <c r="AC82">
-        <v>0.95737099999999997</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="83" spans="2:29" x14ac:dyDescent="0.4">
@@ -6427,7 +10950,7 @@
         <v>3.9</v>
       </c>
       <c r="AC83">
-        <v>0.90872399999999998</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="84" spans="2:29" x14ac:dyDescent="0.4">
@@ -6441,7 +10964,7 @@
         <v>3.95</v>
       </c>
       <c r="AC84">
-        <v>0.95872400000000002</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="85" spans="2:29" x14ac:dyDescent="0.4">
@@ -6455,7 +10978,7 @@
         <v>4</v>
       </c>
       <c r="AC85">
-        <v>0.910049</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="86" spans="2:29" x14ac:dyDescent="0.4">
@@ -6469,7 +10992,7 @@
         <v>4.05</v>
       </c>
       <c r="AC86">
-        <v>0.96004900000000004</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="87" spans="2:29" x14ac:dyDescent="0.4">
@@ -6483,7 +11006,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="AC87">
-        <v>0.91134800000000005</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="88" spans="2:29" x14ac:dyDescent="0.4">
@@ -6497,7 +11020,7 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="AC88">
-        <v>0.96134799999999998</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="89" spans="2:29" x14ac:dyDescent="0.4">
@@ -6511,7 +11034,7 @@
         <v>4.2</v>
       </c>
       <c r="AC89">
-        <v>0.91262100000000002</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="90" spans="2:29" x14ac:dyDescent="0.4">
@@ -6525,7 +11048,7 @@
         <v>4.25</v>
       </c>
       <c r="AC90">
-        <v>0.96262099999999995</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="91" spans="2:29" x14ac:dyDescent="0.4">
@@ -6539,7 +11062,7 @@
         <v>4.3</v>
       </c>
       <c r="AC91">
-        <v>0.91386900000000004</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="92" spans="2:29" x14ac:dyDescent="0.4">
@@ -6553,7 +11076,7 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="AC92">
-        <v>0.96386899999999998</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="93" spans="2:29" x14ac:dyDescent="0.4">
@@ -6567,7 +11090,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AC93">
-        <v>0.91509099999999999</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="94" spans="2:29" x14ac:dyDescent="0.4">
@@ -6581,7 +11104,7 @@
         <v>4.45</v>
       </c>
       <c r="AC94">
-        <v>0.96509100000000003</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="95" spans="2:29" x14ac:dyDescent="0.4">
@@ -6595,7 +11118,7 @@
         <v>4.5</v>
       </c>
       <c r="AC95">
-        <v>0.91629000000000005</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="96" spans="2:29" x14ac:dyDescent="0.4">
@@ -6609,7 +11132,7 @@
         <v>4.55</v>
       </c>
       <c r="AC96">
-        <v>0.96628999999999998</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="97" spans="2:29" x14ac:dyDescent="0.4">
@@ -6623,7 +11146,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="AC97">
-        <v>0.91746399999999995</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="98" spans="2:29" x14ac:dyDescent="0.4">
@@ -6637,7 +11160,7 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="AC98">
-        <v>0.96746399999999999</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="99" spans="2:29" x14ac:dyDescent="0.4">
@@ -6651,7 +11174,7 @@
         <v>4.7</v>
       </c>
       <c r="AC99">
-        <v>0.91861499999999996</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="100" spans="2:29" x14ac:dyDescent="0.4">
@@ -6665,7 +11188,7 @@
         <v>4.75</v>
       </c>
       <c r="AC100">
-        <v>0.968615</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="101" spans="2:29" x14ac:dyDescent="0.4">
@@ -6679,7 +11202,7 @@
         <v>4.8</v>
       </c>
       <c r="AC101">
-        <v>0.91974199999999995</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="102" spans="2:29" x14ac:dyDescent="0.4">
@@ -6693,7 +11216,7 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="AC102">
-        <v>0.96974199999999999</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="103" spans="2:29" x14ac:dyDescent="0.4">
@@ -6707,7 +11230,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="AC103">
-        <v>0.92084699999999997</v>
+        <v>0.26050000000000001</v>
       </c>
     </row>
     <row r="104" spans="2:29" x14ac:dyDescent="0.4">
@@ -6721,7 +11244,7 @@
         <v>4.95</v>
       </c>
       <c r="AC104">
-        <v>0.97084700000000002</v>
+        <v>0.3105</v>
       </c>
     </row>
     <row r="105" spans="2:29" x14ac:dyDescent="0.4">
@@ -7230,4 +11753,554 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3088CE40-7DB2-4ECA-90A2-509A8D811816}">
+  <dimension ref="A4:Z155"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="V23" sqref="V23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="16.19921875" customWidth="1"/>
+    <col min="15" max="15" width="16.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="O4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B5">
+        <v>-0.7</v>
+      </c>
+      <c r="C5">
+        <v>-0.6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="O6">
+        <v>0.32688400000000001</v>
+      </c>
+      <c r="Q6">
+        <v>0.27985500000000002</v>
+      </c>
+      <c r="Z6">
+        <v>0.11688800000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <v>0.278804</v>
+      </c>
+      <c r="C7">
+        <v>0.29453400000000002</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0.33129799999999998</v>
+      </c>
+      <c r="Q7">
+        <v>0.31853399999999998</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>0.27879100000000001</v>
+      </c>
+      <c r="C8">
+        <v>0.32095600000000002</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0.32839299999999999</v>
+      </c>
+      <c r="Q8">
+        <v>0.30208699999999999</v>
+      </c>
+      <c r="Z8">
+        <v>0.54322400000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <v>6.1806E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.32550200000000001</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0.33144299999999999</v>
+      </c>
+      <c r="Q9">
+        <v>0.32633299999999998</v>
+      </c>
+      <c r="Z9">
+        <v>0.60243500000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>0.27932899999999999</v>
+      </c>
+      <c r="C10">
+        <v>0.29687200000000002</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0.331928</v>
+      </c>
+      <c r="Q10">
+        <v>0.32613399999999998</v>
+      </c>
+      <c r="Z10">
+        <v>8.2789999999999999E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <v>0.27950399999999997</v>
+      </c>
+      <c r="C11">
+        <v>0.32542399999999999</v>
+      </c>
+      <c r="E11">
+        <v>0.27253899999999998</v>
+      </c>
+      <c r="O11">
+        <v>0.33146799999999998</v>
+      </c>
+      <c r="Q11">
+        <v>0.33008900000000002</v>
+      </c>
+      <c r="Z11">
+        <v>0.121323</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <v>0.27900900000000001</v>
+      </c>
+      <c r="C12">
+        <v>0.29594100000000001</v>
+      </c>
+      <c r="E12">
+        <v>4.3402000000000003E-2</v>
+      </c>
+      <c r="O12">
+        <v>0.33180799999999999</v>
+      </c>
+      <c r="Q12">
+        <v>0.33094400000000002</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <v>6.2133000000000001E-2</v>
+      </c>
+      <c r="E13">
+        <v>0.27871699999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.33089800000000003</v>
+      </c>
+      <c r="Q13">
+        <v>0.33206000000000002</v>
+      </c>
+      <c r="Z13">
+        <v>0.55318000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B14">
+        <v>0.28003</v>
+      </c>
+      <c r="E14">
+        <v>1.8436000000000001E-2</v>
+      </c>
+      <c r="O14">
+        <v>0.33102199999999998</v>
+      </c>
+      <c r="Q14">
+        <v>0.33362399999999998</v>
+      </c>
+      <c r="Z14">
+        <v>0.65195899999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B15">
+        <v>6.1969999999999997E-2</v>
+      </c>
+      <c r="E15">
+        <v>0.27891700000000003</v>
+      </c>
+      <c r="O15">
+        <v>0.33294899999999999</v>
+      </c>
+      <c r="Q15">
+        <v>0.330017</v>
+      </c>
+      <c r="Z15">
+        <v>1.9032E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="E16">
+        <v>2.0565E-2</v>
+      </c>
+      <c r="O16">
+        <v>0.33208199999999999</v>
+      </c>
+      <c r="Q16">
+        <v>0.32836700000000002</v>
+      </c>
+      <c r="Z16">
+        <v>0.116871</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="B17">
+        <f>AVERAGE(B7:B15)</f>
+        <v>0.20681955555555556</v>
+      </c>
+      <c r="C17">
+        <f>AVERAGE(C7:C12)</f>
+        <v>0.30987150000000002</v>
+      </c>
+      <c r="E17">
+        <v>6.4796000000000006E-2</v>
+      </c>
+      <c r="O17">
+        <v>0.33332099999999998</v>
+      </c>
+      <c r="Q17">
+        <v>0.33258399999999999</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <f>C17-B17</f>
+        <v>0.10305194444444446</v>
+      </c>
+      <c r="E18">
+        <v>0.27902300000000002</v>
+      </c>
+      <c r="O18">
+        <v>0.332451</v>
+      </c>
+      <c r="Q18">
+        <v>0.333812</v>
+      </c>
+      <c r="Z18">
+        <v>0.55360900000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <f>B18/0.1</f>
+        <v>1.0305194444444445</v>
+      </c>
+      <c r="C19">
+        <f>B19*B5</f>
+        <v>-0.72136361111111114</v>
+      </c>
+      <c r="E19">
+        <v>2.0792999999999999E-2</v>
+      </c>
+      <c r="O19">
+        <v>0.33284799999999998</v>
+      </c>
+      <c r="Q19">
+        <v>0.33359699999999998</v>
+      </c>
+      <c r="Z19">
+        <v>0.17749799999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <f>B17-C19</f>
+        <v>0.92818316666666667</v>
+      </c>
+      <c r="E20">
+        <v>0.27965000000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.33249000000000001</v>
+      </c>
+      <c r="Q20">
+        <v>0.33292699999999997</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>2.1145000000000001E-2</v>
+      </c>
+      <c r="O21">
+        <v>0.30581599999999998</v>
+      </c>
+      <c r="Q21">
+        <v>0.33263999999999999</v>
+      </c>
+      <c r="Z21">
+        <v>0.55372299999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>6.2520000000000006E-2</v>
+      </c>
+      <c r="O22">
+        <v>0.32536599999999999</v>
+      </c>
+      <c r="Q22">
+        <v>0.33356799999999998</v>
+      </c>
+      <c r="Z22">
+        <v>0.60713399999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23">
+        <v>6.2266000000000002E-2</v>
+      </c>
+      <c r="O23">
+        <v>0.33054</v>
+      </c>
+      <c r="Q23">
+        <v>0.33226600000000001</v>
+      </c>
+      <c r="Z23">
+        <v>1.2699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="E24">
+        <v>0.28035900000000002</v>
+      </c>
+      <c r="O24">
+        <v>2.9020329999999999</v>
+      </c>
+      <c r="Q24">
+        <v>0.33422800000000003</v>
+      </c>
+      <c r="Z24">
+        <v>0.121031</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="E25">
+        <v>1.8803E-2</v>
+      </c>
+      <c r="O25">
+        <v>2.902873</v>
+      </c>
+      <c r="Q25">
+        <v>0.33386300000000002</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="E26">
+        <v>0.30532999999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.75237100000000001</v>
+      </c>
+      <c r="Q26">
+        <v>0.33288600000000002</v>
+      </c>
+      <c r="Z26">
+        <v>0.55333100000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="E27">
+        <v>2.1267999999999999E-2</v>
+      </c>
+      <c r="O27">
+        <v>0.110053</v>
+      </c>
+      <c r="Q27">
+        <v>0.33357100000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="E28">
+        <v>0.28010299999999999</v>
+      </c>
+      <c r="O28">
+        <v>2.6667160000000001</v>
+      </c>
+      <c r="Q28">
+        <v>0.332347</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="E29">
+        <v>4.5595999999999998E-2</v>
+      </c>
+      <c r="O29">
+        <v>2.6797249999999999</v>
+      </c>
+      <c r="Q29">
+        <v>0.32788400000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="E30">
+        <v>6.5574999999999994E-2</v>
+      </c>
+      <c r="O30">
+        <v>8.6674000000000001E-2</v>
+      </c>
+      <c r="Q30">
+        <v>0.33207199999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="O31">
+        <v>3.1989990000000001</v>
+      </c>
+      <c r="Q31">
+        <v>0.33272499999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="O32">
+        <v>2.7585069999999998</v>
+      </c>
+      <c r="Q32">
+        <v>0.33099600000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="15:17" x14ac:dyDescent="0.4">
+      <c r="O33">
+        <v>2.558427</v>
+      </c>
+      <c r="Q33">
+        <v>0.33224900000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="15:17" x14ac:dyDescent="0.4">
+      <c r="O34">
+        <v>2.8210899999999999</v>
+      </c>
+      <c r="Q34">
+        <v>0.332202</v>
+      </c>
+    </row>
+    <row r="35" spans="15:17" x14ac:dyDescent="0.4">
+      <c r="O35">
+        <v>3.0457390000000002</v>
+      </c>
+      <c r="Q35">
+        <v>0.32946300000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="15:17" x14ac:dyDescent="0.4">
+      <c r="O36">
+        <v>0.72003300000000003</v>
+      </c>
+      <c r="Q36">
+        <v>0.33205299999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="15:17" x14ac:dyDescent="0.4">
+      <c r="O37">
+        <v>0.34073500000000001</v>
+      </c>
+      <c r="Q37">
+        <v>0.33305299999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="15:17" x14ac:dyDescent="0.4">
+      <c r="O38">
+        <v>0.81532700000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="15:17" x14ac:dyDescent="0.4">
+      <c r="O39">
+        <v>3.0353720000000002</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C154" t="e">
+        <f>AVERAGE(B154:B158)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C155" t="e">
+        <f>AVERAGE(B154:B163)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B4:C155" xr:uid="{1BC6CCDB-CF23-415C-A3F5-462552C8CD17}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/PID test.xlsx
+++ b/PID test.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boldasl\SEUNGHO\Workspace\GitHub\testbench\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\testbench\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0EFE36-222F-469F-ABC9-C2D40132B7AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" activeTab="1" xr2:uid="{7595B44F-885F-4134-BD6E-FF817DDA7BF4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8970" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="PID test(visual)" sheetId="1" r:id="rId1"/>
+    <sheet name="air condition test" sheetId="2" r:id="rId2"/>
+    <sheet name="실제 측정 velocity" sheetId="3" r:id="rId3"/>
+    <sheet name="detail condition" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$4:$C$155</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'air condition test'!$B$4:$C$155</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'실제 측정 velocity'!$B$5:$F$139</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>P control</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>y = 1.03x + 0.92</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>x는 voltage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,11 +101,36 @@
     <t>max0.05로 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>vol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>difference between
+on road and air</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y = 0.306x + 0.494</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -147,15 +170,129 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -235,7 +372,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$104</c:f>
+              <c:f>'PID test(visual)'!$B$5:$B$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -677,6 +814,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -684,6 +822,553 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'detail condition'!$B$2:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32979999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32979999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32979999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.31856000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36856</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35420400000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.40420400000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.38628400000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.43628400000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.415155</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.46515499999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.44113999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.49114000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.46452599999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.51452600000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.48557299999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.53557299999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.50451599999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.55451600000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.52156400000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.57156399999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.53690800000000005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.58690799999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.55071700000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.60071699999999995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.56314500000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.61314500000000005</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.57433100000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.62433099999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.58439799999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.63439800000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.59345800000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.64345799999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.60161200000000004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.65161199999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.60895100000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.65895099999999995</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.61555599999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.66555600000000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.62150000000000005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.67149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.62685000000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.67684999999999995</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.63166500000000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.68166499999999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.63599899999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.68599900000000003</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.639899</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.68989900000000004</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.64340900000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.69340900000000005</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.64656800000000003</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.69656799999999996</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.64941099999999996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.699411</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.65197000000000005</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.70196999999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.65427299999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.70427300000000004</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.65634599999999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.70634600000000003</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65821099999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.70821100000000003</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.65988999999999998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.70989000000000002</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.66140100000000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.71140099999999995</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.66276100000000004</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.71276099999999998</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.66398500000000005</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.71398499999999998</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.66508599999999996</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.715086</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.66607799999999995</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.71607799999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.66696999999999995</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.71697</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.66777299999999995</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.71777299999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.66849599999999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.71849600000000002</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.66914600000000002</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.71914599999999995</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.66973199999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.71973200000000004</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.67025800000000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.72025799999999995</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.67073300000000002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.72073299999999996</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.67115899999999995</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.72115899999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.671543</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.72154300000000005</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.67188899999999996</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.721889</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.67220000000000002</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.72219999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4C3C-4A9C-9CA4-539D3F7472A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="292712672"/>
+        <c:axId val="292713656"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="292712672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292713656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="292713656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292712672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -786,7 +1471,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$5:$K$204</c:f>
+              <c:f>'PID test(visual)'!$K$5:$K$204</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
@@ -1528,6 +2213,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1535,7 +2221,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1585,6 +2270,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1637,7 +2323,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$5:$T$104</c:f>
+              <c:f>'PID test(visual)'!$T$5:$T$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -2079,6 +2765,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2086,7 +2773,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2136,6 +2822,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2188,309 +2875,309 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AC$5:$AC$104</c:f>
+              <c:f>'PID test(visual)'!$AC$5:$AC$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.3105</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2630,6 +3317,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2637,7 +3325,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2739,7 +3426,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$54:$C$120</c:f>
+              <c:f>'air condition test'!$C$54:$C$120</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="67"/>
@@ -2881,6 +3568,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2888,7 +3576,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2990,7 +3677,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$6:$B$174</c:f>
+              <c:f>'air condition test'!$B$6:$B$174</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="169"/>
@@ -3000,9 +3687,6 @@
                 <c:pt idx="2">
                   <c:v>0.27879100000000001</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.1806E-2</c:v>
-                </c:pt>
                 <c:pt idx="4">
                   <c:v>0.27932899999999999</c:v>
                 </c:pt>
@@ -3012,26 +3696,29 @@
                 <c:pt idx="6">
                   <c:v>0.27900900000000001</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.2133000000000001E-2</c:v>
-                </c:pt>
                 <c:pt idx="8">
                   <c:v>0.28003</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.1969999999999997E-2</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.20681955555555556</c:v>
+                  <c:v>0.27924450000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.10305194444444446</c:v>
+                  <c:v>3.0627000000000015E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0305194444444445</c:v>
+                  <c:v>0.30627000000000015</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.92818316666666667</c:v>
+                  <c:v>0.49363350000000011</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.26253930357142852</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.54178380357142852</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3171,6 +3858,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3178,7 +3866,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3228,6 +3915,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3280,7 +3968,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$O$6:$O$23</c:f>
+              <c:f>'air condition test'!$O$6:$O$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -3476,6 +4164,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3483,7 +4172,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3533,6 +4221,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3585,7 +4274,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$Q$6:$Q$37</c:f>
+              <c:f>'air condition test'!$Q$6:$Q$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -3823,6 +4512,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3830,7 +4520,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3880,6 +4569,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3932,7 +4622,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$Z$5:$Z$26</c:f>
+              <c:f>'air condition test'!$Z$5:$Z$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -4140,6 +4830,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4147,7 +4838,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4183,6 +4873,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5058,6 +5788,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -9522,6 +10768,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -9818,16 +11099,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A809C89-33FC-44F7-88A9-C6DFABA9F0C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AC204"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AD5" sqref="AD5"/>
+      <selection activeCell="AG22" sqref="AG22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -9847,7 +11128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>0</v>
       </c>
@@ -9858,10 +11139,10 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>0.5</v>
       </c>
@@ -9872,10 +11153,10 @@
         <v>0.05</v>
       </c>
       <c r="AC6">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="7" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>0.97499999999999998</v>
       </c>
@@ -9886,10 +11167,10 @@
         <v>0.1</v>
       </c>
       <c r="AC7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>1.42625</v>
       </c>
@@ -9900,10 +11181,10 @@
         <v>0.15</v>
       </c>
       <c r="AC8">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>1.85494</v>
       </c>
@@ -9914,10 +11195,10 @@
         <v>0.2</v>
       </c>
       <c r="AC9">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>2.2621899999999999</v>
       </c>
@@ -9928,10 +11209,10 @@
         <v>0.25</v>
       </c>
       <c r="AC10">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="11" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>2.6490800000000001</v>
       </c>
@@ -9942,10 +11223,10 @@
         <v>0.3</v>
       </c>
       <c r="AC11">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>3.0166300000000001</v>
       </c>
@@ -9956,10 +11237,10 @@
         <v>0.35</v>
       </c>
       <c r="AC12">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="13" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>3.3658000000000001</v>
       </c>
@@ -9970,10 +11251,10 @@
         <v>0.4</v>
       </c>
       <c r="AC13">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="14" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>3.6975099999999999</v>
       </c>
@@ -9984,10 +11265,10 @@
         <v>0.45</v>
       </c>
       <c r="AC14">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="15" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>4.0126299999999997</v>
       </c>
@@ -9998,10 +11279,10 @@
         <v>0.5</v>
       </c>
       <c r="AC15">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="16" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>4.3120000000000003</v>
       </c>
@@ -10012,10 +11293,10 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="AC16">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>4.5964</v>
       </c>
@@ -10026,10 +11307,10 @@
         <v>0.6</v>
       </c>
       <c r="AC17">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>4.8665799999999999</v>
       </c>
@@ -10040,10 +11321,10 @@
         <v>0.65</v>
       </c>
       <c r="AC18">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>5.1232499999999996</v>
       </c>
@@ -10054,10 +11335,10 @@
         <v>0.7</v>
       </c>
       <c r="AC19">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>5.3670900000000001</v>
       </c>
@@ -10068,10 +11349,10 @@
         <v>0.75</v>
       </c>
       <c r="AC20">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>5.5987299999999998</v>
       </c>
@@ -10082,10 +11363,10 @@
         <v>0.8</v>
       </c>
       <c r="AC21">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>5.8188000000000004</v>
       </c>
@@ -10096,10 +11377,10 @@
         <v>0.85</v>
       </c>
       <c r="AC22">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>6.0278600000000004</v>
       </c>
@@ -10110,10 +11391,10 @@
         <v>0.9</v>
       </c>
       <c r="AC23">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="24" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>6.2264600000000003</v>
       </c>
@@ -10124,10 +11405,10 @@
         <v>0.95</v>
       </c>
       <c r="AC24">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="25" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>6.4151400000000001</v>
       </c>
@@ -10138,10 +11419,10 @@
         <v>1</v>
       </c>
       <c r="AC25">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>6.5943800000000001</v>
       </c>
@@ -10152,10 +11433,10 @@
         <v>1.05</v>
       </c>
       <c r="AC26">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>6.7646600000000001</v>
       </c>
@@ -10166,10 +11447,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AC27">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>6.9264299999999999</v>
       </c>
@@ -10180,10 +11461,10 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="AC28">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="29" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>7.0801100000000003</v>
       </c>
@@ -10194,10 +11475,10 @@
         <v>1.2</v>
       </c>
       <c r="AC29">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="30" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>7.2260999999999997</v>
       </c>
@@ -10208,10 +11489,10 @@
         <v>1.25</v>
       </c>
       <c r="AC30">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="31" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>7.3647999999999998</v>
       </c>
@@ -10222,10 +11503,10 @@
         <v>1.3</v>
       </c>
       <c r="AC31">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="32" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>7.4965599999999997</v>
       </c>
@@ -10236,10 +11517,10 @@
         <v>1.35</v>
       </c>
       <c r="AC32">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>7.6217300000000003</v>
       </c>
@@ -10250,10 +11531,10 @@
         <v>1.4</v>
       </c>
       <c r="AC33">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>7.74064</v>
       </c>
@@ -10264,10 +11545,10 @@
         <v>1.45</v>
       </c>
       <c r="AC34">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>7.8536099999999998</v>
       </c>
@@ -10278,10 +11559,10 @@
         <v>1.5</v>
       </c>
       <c r="AC35">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="36" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>7.9609300000000003</v>
       </c>
@@ -10292,10 +11573,10 @@
         <v>1.55</v>
       </c>
       <c r="AC36">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>8.0628899999999994</v>
       </c>
@@ -10306,10 +11587,10 @@
         <v>1.6</v>
       </c>
       <c r="AC37">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="38" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>8.1597399999999993</v>
       </c>
@@ -10320,10 +11601,10 @@
         <v>1.65</v>
       </c>
       <c r="AC38">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>8.2517499999999995</v>
       </c>
@@ -10334,10 +11615,10 @@
         <v>1.7</v>
       </c>
       <c r="AC39">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>8.3391699999999993</v>
       </c>
@@ -10348,10 +11629,10 @@
         <v>1.75</v>
       </c>
       <c r="AC40">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>8.4222099999999998</v>
       </c>
@@ -10362,10 +11643,10 @@
         <v>1.8</v>
       </c>
       <c r="AC41">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>8.5010999999999992</v>
       </c>
@@ -10376,10 +11657,10 @@
         <v>1.85</v>
       </c>
       <c r="AC42">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>8.5760400000000008</v>
       </c>
@@ -10390,10 +11671,10 @@
         <v>1.9</v>
       </c>
       <c r="AC43">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>8.64724</v>
       </c>
@@ -10404,10 +11685,10 @@
         <v>1.95</v>
       </c>
       <c r="AC44">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>8.7148800000000008</v>
       </c>
@@ -10418,10 +11699,10 @@
         <v>2</v>
       </c>
       <c r="AC45">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>8.7791300000000003</v>
       </c>
@@ -10432,10 +11713,10 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="AC46">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>8.8401800000000001</v>
       </c>
@@ -10446,10 +11727,10 @@
         <v>2.1</v>
       </c>
       <c r="AC47">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>8.8981700000000004</v>
       </c>
@@ -10460,10 +11741,10 @@
         <v>2.15</v>
       </c>
       <c r="AC48">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="49" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="49" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>8.9532600000000002</v>
       </c>
@@ -10474,10 +11755,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="AC49">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="50" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>9.0055999999999994</v>
       </c>
@@ -10488,10 +11769,10 @@
         <v>2.25</v>
       </c>
       <c r="AC50">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="51" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="51" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>9.05532</v>
       </c>
@@ -10502,10 +11783,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="AC51">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="52" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>9.1025500000000008</v>
       </c>
@@ -10516,10 +11797,10 @@
         <v>2.35</v>
       </c>
       <c r="AC52">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="53" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="53" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>9.1474200000000003</v>
       </c>
@@ -10530,10 +11811,10 @@
         <v>2.4</v>
       </c>
       <c r="AC53">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="54" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>9.1900499999999994</v>
       </c>
@@ -10544,10 +11825,10 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="AC54">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="55" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="55" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>9.2305499999999991</v>
       </c>
@@ -10558,10 +11839,10 @@
         <v>2.5</v>
       </c>
       <c r="AC55">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="56" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>9.0190199999999994</v>
       </c>
@@ -10572,10 +11853,10 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="AC56">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="57" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="57" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>8.8180700000000005</v>
       </c>
@@ -10586,10 +11867,10 @@
         <v>2.6</v>
       </c>
       <c r="AC57">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="58" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>8.6271699999999996</v>
       </c>
@@ -10600,10 +11881,10 @@
         <v>2.65</v>
       </c>
       <c r="AC58">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="59" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="59" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>8.4458099999999998</v>
       </c>
@@ -10614,10 +11895,10 @@
         <v>2.7</v>
       </c>
       <c r="AC59">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="60" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>8.2735199999999995</v>
       </c>
@@ -10628,10 +11909,10 @@
         <v>2.75</v>
       </c>
       <c r="AC60">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="61" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="61" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>8.1098400000000002</v>
       </c>
@@ -10642,10 +11923,10 @@
         <v>2.8</v>
       </c>
       <c r="AC61">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="62" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="62" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>7.9543499999999998</v>
       </c>
@@ -10656,10 +11937,10 @@
         <v>2.85</v>
       </c>
       <c r="AC62">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="63" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="63" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>7.8066300000000002</v>
       </c>
@@ -10670,10 +11951,10 @@
         <v>2.9</v>
       </c>
       <c r="AC63">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="64" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>7.6662999999999997</v>
       </c>
@@ -10684,10 +11965,10 @@
         <v>2.95</v>
       </c>
       <c r="AC64">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B65">
         <v>7.5329899999999999</v>
       </c>
@@ -10698,10 +11979,10 @@
         <v>3</v>
       </c>
       <c r="AC65">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>7.4063400000000001</v>
       </c>
@@ -10712,10 +11993,10 @@
         <v>3.05</v>
       </c>
       <c r="AC66">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>7.2860199999999997</v>
       </c>
@@ -10726,10 +12007,10 @@
         <v>3.1</v>
       </c>
       <c r="AC67">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>7.1717199999999997</v>
       </c>
@@ -10740,10 +12021,10 @@
         <v>3.15</v>
       </c>
       <c r="AC68">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>7.0631300000000001</v>
       </c>
@@ -10754,10 +12035,10 @@
         <v>3.2</v>
       </c>
       <c r="AC69">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B70">
         <v>6.9599799999999998</v>
       </c>
@@ -10768,10 +12049,10 @@
         <v>3.25</v>
       </c>
       <c r="AC70">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B71">
         <v>6.86198</v>
       </c>
@@ -10782,10 +12063,10 @@
         <v>3.3</v>
       </c>
       <c r="AC71">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B72">
         <v>6.7688800000000002</v>
       </c>
@@ -10796,10 +12077,10 @@
         <v>3.35</v>
       </c>
       <c r="AC72">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>6.6804399999999999</v>
       </c>
@@ -10810,10 +12091,10 @@
         <v>3.4</v>
       </c>
       <c r="AC73">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>6.5964099999999997</v>
       </c>
@@ -10824,10 +12105,10 @@
         <v>3.45</v>
       </c>
       <c r="AC74">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>6.5165899999999999</v>
       </c>
@@ -10838,10 +12119,10 @@
         <v>3.5</v>
       </c>
       <c r="AC75">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>6.44076</v>
       </c>
@@ -10852,10 +12133,10 @@
         <v>3.55</v>
       </c>
       <c r="AC76">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B77">
         <v>6.3687199999999997</v>
       </c>
@@ -10866,10 +12147,10 @@
         <v>3.6</v>
       </c>
       <c r="AC77">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="78" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B78">
         <v>6.3002900000000004</v>
       </c>
@@ -10880,10 +12161,10 @@
         <v>3.65</v>
       </c>
       <c r="AC78">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B79">
         <v>6.2352699999999999</v>
       </c>
@@ -10894,10 +12175,10 @@
         <v>3.7</v>
       </c>
       <c r="AC79">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="80" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B80">
         <v>6.1735100000000003</v>
       </c>
@@ -10908,10 +12189,10 @@
         <v>3.75</v>
       </c>
       <c r="AC80">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="81" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="81" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B81">
         <v>6.1148400000000001</v>
       </c>
@@ -10922,10 +12203,10 @@
         <v>3.8</v>
       </c>
       <c r="AC81">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="82" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="82" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B82">
         <v>6.0590900000000003</v>
       </c>
@@ -10936,10 +12217,10 @@
         <v>3.85</v>
       </c>
       <c r="AC82">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="83" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="83" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B83">
         <v>6.0061400000000003</v>
       </c>
@@ -10950,10 +12231,10 @@
         <v>3.9</v>
       </c>
       <c r="AC83">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="84" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="84" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B84">
         <v>5.9558299999999997</v>
       </c>
@@ -10964,10 +12245,10 @@
         <v>3.95</v>
       </c>
       <c r="AC84">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="85" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="85" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B85">
         <v>5.9080399999999997</v>
       </c>
@@ -10978,10 +12259,10 @@
         <v>4</v>
       </c>
       <c r="AC85">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="86" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B86">
         <v>5.8626399999999999</v>
       </c>
@@ -10992,10 +12273,10 @@
         <v>4.05</v>
       </c>
       <c r="AC86">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="87" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="87" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B87">
         <v>5.8195100000000002</v>
       </c>
@@ -11006,10 +12287,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="AC87">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="88" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="88" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B88">
         <v>5.7785299999999999</v>
       </c>
@@ -11020,10 +12301,10 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="AC88">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="89" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="89" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B89">
         <v>5.7396000000000003</v>
       </c>
@@ -11034,10 +12315,10 @@
         <v>4.2</v>
       </c>
       <c r="AC89">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="90" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="90" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B90">
         <v>5.7026199999999996</v>
       </c>
@@ -11048,10 +12329,10 @@
         <v>4.25</v>
       </c>
       <c r="AC90">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="91" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="91" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B91">
         <v>5.6674899999999999</v>
       </c>
@@ -11062,10 +12343,10 @@
         <v>4.3</v>
       </c>
       <c r="AC91">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="92" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="92" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B92">
         <v>5.6341200000000002</v>
       </c>
@@ -11076,10 +12357,10 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="AC92">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="93" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="93" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B93">
         <v>5.6024099999999999</v>
       </c>
@@ -11090,10 +12371,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AC93">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="94" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="94" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B94">
         <v>5.5722899999999997</v>
       </c>
@@ -11104,10 +12385,10 @@
         <v>4.45</v>
       </c>
       <c r="AC94">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="95" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="95" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B95">
         <v>5.5436800000000002</v>
       </c>
@@ -11118,10 +12399,10 @@
         <v>4.5</v>
       </c>
       <c r="AC95">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="96" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="96" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B96">
         <v>5.5164900000000001</v>
       </c>
@@ -11132,10 +12413,10 @@
         <v>4.55</v>
       </c>
       <c r="AC96">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="97" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="97" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B97">
         <v>5.4906699999999997</v>
       </c>
@@ -11146,10 +12427,10 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="AC97">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="98" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="98" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B98">
         <v>5.4661400000000002</v>
       </c>
@@ -11160,10 +12441,10 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="AC98">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="99" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="99" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B99">
         <v>5.4428299999999998</v>
       </c>
@@ -11174,10 +12455,10 @@
         <v>4.7</v>
       </c>
       <c r="AC99">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="100" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="100" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B100">
         <v>5.4206899999999996</v>
       </c>
@@ -11188,10 +12469,10 @@
         <v>4.75</v>
       </c>
       <c r="AC100">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="101" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="101" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B101">
         <v>5.3996500000000003</v>
       </c>
@@ -11202,10 +12483,10 @@
         <v>4.8</v>
       </c>
       <c r="AC101">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="102" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="102" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B102">
         <v>5.37967</v>
       </c>
@@ -11216,10 +12497,10 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="AC102">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="103" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="103" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B103">
         <v>5.36069</v>
       </c>
@@ -11230,10 +12511,10 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="AC103">
-        <v>0.26050000000000001</v>
-      </c>
-    </row>
-    <row r="104" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="104" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B104">
         <v>5.3426499999999999</v>
       </c>
@@ -11244,505 +12525,505 @@
         <v>4.95</v>
       </c>
       <c r="AC104">
-        <v>0.3105</v>
-      </c>
-    </row>
-    <row r="105" spans="2:29" x14ac:dyDescent="0.4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="105" spans="2:29" x14ac:dyDescent="0.3">
       <c r="K105">
         <v>0.30326799999999998</v>
       </c>
     </row>
-    <row r="106" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:29" x14ac:dyDescent="0.3">
       <c r="K106">
         <v>0.30174800000000002</v>
       </c>
     </row>
-    <row r="107" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:29" x14ac:dyDescent="0.3">
       <c r="K107">
         <v>0.30023499999999997</v>
       </c>
     </row>
-    <row r="108" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:29" x14ac:dyDescent="0.3">
       <c r="K108">
         <v>0.29873</v>
       </c>
     </row>
-    <row r="109" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:29" x14ac:dyDescent="0.3">
       <c r="K109">
         <v>0.29723300000000002</v>
       </c>
     </row>
-    <row r="110" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:29" x14ac:dyDescent="0.3">
       <c r="K110">
         <v>0.29574299999999998</v>
       </c>
     </row>
-    <row r="111" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:29" x14ac:dyDescent="0.3">
       <c r="K111">
         <v>0.29426099999999999</v>
       </c>
     </row>
-    <row r="112" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:29" x14ac:dyDescent="0.3">
       <c r="K112">
         <v>0.29278500000000002</v>
       </c>
     </row>
-    <row r="113" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="113" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K113">
         <v>0.29131800000000002</v>
       </c>
     </row>
-    <row r="114" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="114" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K114">
         <v>0.289858</v>
       </c>
     </row>
-    <row r="115" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="115" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K115">
         <v>0.28840500000000002</v>
       </c>
     </row>
-    <row r="116" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="116" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K116">
         <v>0.28695900000000002</v>
       </c>
     </row>
-    <row r="117" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="117" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K117">
         <v>0.28552100000000002</v>
       </c>
     </row>
-    <row r="118" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="118" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K118">
         <v>0.28408899999999998</v>
       </c>
     </row>
-    <row r="119" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="119" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K119">
         <v>0.282665</v>
       </c>
     </row>
-    <row r="120" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="120" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K120">
         <v>0.28124900000000003</v>
       </c>
     </row>
-    <row r="121" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="121" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K121">
         <v>0.279839</v>
       </c>
     </row>
-    <row r="122" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="122" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K122">
         <v>0.27843600000000002</v>
       </c>
     </row>
-    <row r="123" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="123" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K123">
         <v>0.27704000000000001</v>
       </c>
     </row>
-    <row r="124" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="124" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K124">
         <v>0.27565200000000001</v>
       </c>
     </row>
-    <row r="125" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="125" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K125">
         <v>0.27427000000000001</v>
       </c>
     </row>
-    <row r="126" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="126" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K126">
         <v>0.272895</v>
       </c>
     </row>
-    <row r="127" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="127" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K127">
         <v>0.27152700000000002</v>
       </c>
     </row>
-    <row r="128" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="128" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K128">
         <v>0.27016600000000002</v>
       </c>
     </row>
-    <row r="129" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="129" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K129">
         <v>0.268812</v>
       </c>
     </row>
-    <row r="130" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="130" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K130">
         <v>0.26746399999999998</v>
       </c>
     </row>
-    <row r="131" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="131" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K131">
         <v>0.26612400000000003</v>
       </c>
     </row>
-    <row r="132" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="132" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K132">
         <v>0.26479000000000003</v>
       </c>
     </row>
-    <row r="133" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="133" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K133">
         <v>0.26346199999999997</v>
       </c>
     </row>
-    <row r="134" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="134" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K134">
         <v>0.26214199999999999</v>
       </c>
     </row>
-    <row r="135" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="135" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K135">
         <v>0.260828</v>
       </c>
     </row>
-    <row r="136" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="136" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K136">
         <v>0.25951999999999997</v>
       </c>
     </row>
-    <row r="137" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="137" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K137">
         <v>0.25822000000000001</v>
       </c>
     </row>
-    <row r="138" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="138" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K138">
         <v>0.25692500000000001</v>
       </c>
     </row>
-    <row r="139" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="139" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K139">
         <v>0.255637</v>
       </c>
     </row>
-    <row r="140" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="140" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K140">
         <v>0.25435600000000003</v>
       </c>
     </row>
-    <row r="141" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="141" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K141">
         <v>0.253081</v>
       </c>
     </row>
-    <row r="142" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="142" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K142">
         <v>0.25181199999999998</v>
       </c>
     </row>
-    <row r="143" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="143" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K143">
         <v>0.25054999999999999</v>
       </c>
     </row>
-    <row r="144" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="144" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K144">
         <v>0.24929399999999999</v>
       </c>
     </row>
-    <row r="145" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="145" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K145">
         <v>0.24804499999999999</v>
       </c>
     </row>
-    <row r="146" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="146" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K146">
         <v>0.24680099999999999</v>
       </c>
     </row>
-    <row r="147" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="147" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K147">
         <v>0.245564</v>
       </c>
     </row>
-    <row r="148" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="148" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K148">
         <v>0.24433299999999999</v>
       </c>
     </row>
-    <row r="149" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="149" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K149">
         <v>0.24310799999999999</v>
       </c>
     </row>
-    <row r="150" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="150" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K150">
         <v>0.24188999999999999</v>
       </c>
     </row>
-    <row r="151" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="151" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K151">
         <v>0.240677</v>
       </c>
     </row>
-    <row r="152" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="152" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K152">
         <v>0.23947099999999999</v>
       </c>
     </row>
-    <row r="153" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="153" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K153">
         <v>0.23827000000000001</v>
       </c>
     </row>
-    <row r="154" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="154" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K154">
         <v>0.23707600000000001</v>
       </c>
     </row>
-    <row r="155" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="155" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K155">
         <v>0.23588799999999999</v>
       </c>
     </row>
-    <row r="156" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="156" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K156">
         <v>0.234705</v>
       </c>
     </row>
-    <row r="157" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="157" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K157">
         <v>0.23352899999999999</v>
       </c>
     </row>
-    <row r="158" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="158" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K158">
         <v>0.23235800000000001</v>
       </c>
     </row>
-    <row r="159" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="159" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K159">
         <v>0.23119400000000001</v>
       </c>
     </row>
-    <row r="160" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="160" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K160">
         <v>0.23003499999999999</v>
       </c>
     </row>
-    <row r="161" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="161" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K161">
         <v>0.228882</v>
       </c>
     </row>
-    <row r="162" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="162" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K162">
         <v>0.22773399999999999</v>
       </c>
     </row>
-    <row r="163" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="163" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K163">
         <v>0.22659299999999999</v>
       </c>
     </row>
-    <row r="164" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="164" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K164">
         <v>0.22545699999999999</v>
       </c>
     </row>
-    <row r="165" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="165" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K165">
         <v>0.224327</v>
       </c>
     </row>
-    <row r="166" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="166" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K166">
         <v>0.22320200000000001</v>
       </c>
     </row>
-    <row r="167" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="167" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K167">
         <v>0.222084</v>
       </c>
     </row>
-    <row r="168" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="168" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K168">
         <v>0.22097</v>
       </c>
     </row>
-    <row r="169" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="169" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K169">
         <v>0.219863</v>
       </c>
     </row>
-    <row r="170" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="170" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K170">
         <v>0.21876100000000001</v>
       </c>
     </row>
-    <row r="171" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="171" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K171">
         <v>0.217664</v>
       </c>
     </row>
-    <row r="172" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="172" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K172">
         <v>0.21657299999999999</v>
       </c>
     </row>
-    <row r="173" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="173" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K173">
         <v>0.21548700000000001</v>
       </c>
     </row>
-    <row r="174" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="174" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K174">
         <v>0.21440699999999999</v>
       </c>
     </row>
-    <row r="175" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="175" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K175">
         <v>0.21333299999999999</v>
       </c>
     </row>
-    <row r="176" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="176" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K176">
         <v>0.21226300000000001</v>
       </c>
     </row>
-    <row r="177" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="177" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K177">
         <v>0.211199</v>
       </c>
     </row>
-    <row r="178" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="178" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K178">
         <v>0.21014099999999999</v>
       </c>
     </row>
-    <row r="179" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="179" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K179">
         <v>0.209087</v>
       </c>
     </row>
-    <row r="180" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="180" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K180">
         <v>0.208039</v>
       </c>
     </row>
-    <row r="181" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="181" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K181">
         <v>0.20699600000000001</v>
       </c>
     </row>
-    <row r="182" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="182" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K182">
         <v>0.205959</v>
       </c>
     </row>
-    <row r="183" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="183" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K183">
         <v>0.204926</v>
       </c>
     </row>
-    <row r="184" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="184" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K184">
         <v>0.203899</v>
       </c>
     </row>
-    <row r="185" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="185" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K185">
         <v>0.202877</v>
       </c>
     </row>
-    <row r="186" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="186" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K186">
         <v>0.20186000000000001</v>
       </c>
     </row>
-    <row r="187" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="187" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K187">
         <v>0.200848</v>
       </c>
     </row>
-    <row r="188" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="188" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K188">
         <v>0.19984099999999999</v>
       </c>
     </row>
-    <row r="189" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="189" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K189">
         <v>0.19883999999999999</v>
       </c>
     </row>
-    <row r="190" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="190" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K190">
         <v>0.19784299999999999</v>
       </c>
     </row>
-    <row r="191" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="191" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K191">
         <v>0.196851</v>
       </c>
     </row>
-    <row r="192" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="192" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K192">
         <v>0.19586500000000001</v>
       </c>
     </row>
-    <row r="193" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="193" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K193">
         <v>0.194883</v>
       </c>
     </row>
-    <row r="194" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="194" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K194">
         <v>0.193906</v>
       </c>
     </row>
-    <row r="195" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="195" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K195">
         <v>0.19293399999999999</v>
       </c>
     </row>
-    <row r="196" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="196" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K196">
         <v>0.191967</v>
       </c>
     </row>
-    <row r="197" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="197" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K197">
         <v>0.19100500000000001</v>
       </c>
     </row>
-    <row r="198" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="198" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K198">
         <v>0.19004699999999999</v>
       </c>
     </row>
-    <row r="199" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="199" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K199">
         <v>0.18909500000000001</v>
       </c>
     </row>
-    <row r="200" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="200" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K200">
         <v>0.18814700000000001</v>
       </c>
     </row>
-    <row r="201" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="201" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K201">
         <v>0.18720400000000001</v>
       </c>
     </row>
-    <row r="202" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="202" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K202">
         <v>0.18626500000000001</v>
       </c>
     </row>
-    <row r="203" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="203" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K203">
         <v>0.185332</v>
       </c>
     </row>
-    <row r="204" spans="11:11" x14ac:dyDescent="0.4">
+    <row r="204" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K204">
         <v>0.18440300000000001</v>
       </c>
@@ -11756,31 +13037,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3088CE40-7DB2-4ECA-90A2-509A8D811816}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:Z155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.19921875" customWidth="1"/>
-    <col min="15" max="15" width="16.69921875" customWidth="1"/>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
+    <col min="15" max="15" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:26" x14ac:dyDescent="0.3">
       <c r="O4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Z4" t="s">
         <v>15</v>
       </c>
-      <c r="Z4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>-0.7</v>
       </c>
@@ -11791,13 +13072,13 @@
         <v>6</v>
       </c>
       <c r="O5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.3">
       <c r="O6">
         <v>0.32688400000000001</v>
       </c>
@@ -11808,7 +13089,7 @@
         <v>0.11688800000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>0.278804</v>
       </c>
@@ -11828,7 +13109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>0.27879100000000001</v>
       </c>
@@ -11848,10 +13129,7 @@
         <v>0.54322400000000004</v>
       </c>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B9">
-        <v>6.1806E-2</v>
-      </c>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>0.32550200000000001</v>
       </c>
@@ -11868,7 +13146,7 @@
         <v>0.60243500000000005</v>
       </c>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>0.27932899999999999</v>
       </c>
@@ -11888,7 +13166,7 @@
         <v>8.2789999999999999E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>0.27950399999999997</v>
       </c>
@@ -11908,7 +13186,7 @@
         <v>0.121323</v>
       </c>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>0.27900900000000001</v>
       </c>
@@ -11928,10 +13206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B13">
-        <v>6.2133000000000001E-2</v>
-      </c>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.3">
       <c r="E13">
         <v>0.27871699999999999</v>
       </c>
@@ -11945,10 +13220,14 @@
         <v>0.55318000000000001</v>
       </c>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>0.28003</v>
       </c>
+      <c r="C14">
+        <f>AVERAGE(C7:C12)</f>
+        <v>0.30987150000000002</v>
+      </c>
       <c r="E14">
         <v>1.8436000000000001E-2</v>
       </c>
@@ -11962,10 +13241,7 @@
         <v>0.65195899999999996</v>
       </c>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B15">
-        <v>6.1969999999999997E-2</v>
-      </c>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.3">
       <c r="E15">
         <v>0.27891700000000003</v>
       </c>
@@ -11979,7 +13255,7 @@
         <v>1.9032E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.3">
       <c r="E16">
         <v>2.0565E-2</v>
       </c>
@@ -11993,10 +13269,10 @@
         <v>0.116871</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B17">
         <f>AVERAGE(B7:B15)</f>
-        <v>0.20681955555555556</v>
+        <v>0.27924450000000001</v>
       </c>
       <c r="C17">
         <f>AVERAGE(C7:C12)</f>
@@ -12015,13 +13291,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18">
         <f>C17-B17</f>
-        <v>0.10305194444444446</v>
+        <v>3.0627000000000015E-2</v>
       </c>
       <c r="E18">
         <v>0.27902300000000002</v>
@@ -12036,17 +13312,17 @@
         <v>0.55360900000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
       <c r="B19">
         <f>B18/0.1</f>
-        <v>1.0305194444444445</v>
+        <v>0.30627000000000015</v>
       </c>
       <c r="C19">
         <f>B19*B5</f>
-        <v>-0.72136361111111114</v>
+        <v>-0.21438900000000011</v>
       </c>
       <c r="E19">
         <v>2.0792999999999999E-2</v>
@@ -12061,13 +13337,13 @@
         <v>0.17749799999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
       <c r="B20">
         <f>B17-C19</f>
-        <v>0.92818316666666667</v>
+        <v>0.49363350000000011</v>
       </c>
       <c r="E20">
         <v>0.27965000000000001</v>
@@ -12082,9 +13358,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>2.1145000000000001E-2</v>
@@ -12099,9 +13375,9 @@
         <v>0.55372299999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22">
         <v>6.2520000000000006E-2</v>
@@ -12116,9 +13392,9 @@
         <v>0.60713399999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23">
         <v>6.2266000000000002E-2</v>
@@ -12133,7 +13409,7 @@
         <v>1.2699999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E24">
         <v>0.28035900000000002</v>
       </c>
@@ -12147,7 +13423,7 @@
         <v>0.121031</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E25">
         <v>1.8803E-2</v>
       </c>
@@ -12161,7 +13437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E26">
         <v>0.30532999999999999</v>
       </c>
@@ -12175,7 +13451,7 @@
         <v>0.55333100000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E27">
         <v>2.1267999999999999E-2</v>
       </c>
@@ -12186,7 +13462,7 @@
         <v>0.33357100000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E28">
         <v>0.28010299999999999</v>
       </c>
@@ -12197,7 +13473,18 @@
         <v>0.332347</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:26" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <f>B33-B17</f>
+        <v>0.26253930357142852</v>
+      </c>
+      <c r="C29">
+        <f>C33-C17</f>
+        <v>0.43381405072463758</v>
+      </c>
       <c r="E29">
         <v>4.5595999999999998E-2</v>
       </c>
@@ -12208,7 +13495,7 @@
         <v>0.32788400000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E30">
         <v>6.5574999999999994E-2</v>
       </c>
@@ -12219,7 +13506,7 @@
         <v>0.33207199999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="O31">
         <v>3.1989990000000001</v>
       </c>
@@ -12227,7 +13514,25 @@
         <v>0.33272499999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32">
+        <v>-0.7</v>
+      </c>
+      <c r="C32">
+        <v>-0.6</v>
+      </c>
+      <c r="D32">
+        <v>-0.5</v>
+      </c>
+      <c r="E32">
+        <v>-0.4</v>
+      </c>
+      <c r="F32">
+        <v>-0.3</v>
+      </c>
       <c r="O32">
         <v>2.7585069999999998</v>
       </c>
@@ -12235,7 +13540,25 @@
         <v>0.33099600000000001</v>
       </c>
     </row>
-    <row r="33" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33">
+        <v>0.54178380357142852</v>
+      </c>
+      <c r="C33">
+        <v>0.7436855507246376</v>
+      </c>
+      <c r="D33">
+        <v>1.332816674418605</v>
+      </c>
+      <c r="E33">
+        <v>1.3761409310344825</v>
+      </c>
+      <c r="F33">
+        <v>1.4028019642857146</v>
+      </c>
       <c r="O33">
         <v>2.558427</v>
       </c>
@@ -12243,7 +13566,7 @@
         <v>0.33224900000000002</v>
       </c>
     </row>
-    <row r="34" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O34">
         <v>2.8210899999999999</v>
       </c>
@@ -12251,7 +13574,7 @@
         <v>0.332202</v>
       </c>
     </row>
-    <row r="35" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O35">
         <v>3.0457390000000002</v>
       </c>
@@ -12259,7 +13582,7 @@
         <v>0.32946300000000001</v>
       </c>
     </row>
-    <row r="36" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O36">
         <v>0.72003300000000003</v>
       </c>
@@ -12267,7 +13590,7 @@
         <v>0.33205299999999999</v>
       </c>
     </row>
-    <row r="37" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O37">
         <v>0.34073500000000001</v>
       </c>
@@ -12275,30 +13598,3224 @@
         <v>0.33305299999999999</v>
       </c>
     </row>
-    <row r="38" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O38">
         <v>0.81532700000000002</v>
       </c>
     </row>
-    <row r="39" spans="15:17" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O39">
         <v>3.0353720000000002</v>
       </c>
     </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="154" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C154" t="e">
         <f>AVERAGE(B154:B158)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="155" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C155" t="e">
         <f>AVERAGE(B154:B163)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B4:C155" xr:uid="{1BC6CCDB-CF23-415C-A3F5-462552C8CD17}"/>
+  <autoFilter ref="B4:C155"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:M141"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>-0.7</v>
+      </c>
+      <c r="C3">
+        <v>-0.6</v>
+      </c>
+      <c r="D3">
+        <v>-0.5</v>
+      </c>
+      <c r="E3">
+        <v>-0.4</v>
+      </c>
+      <c r="F3">
+        <v>-0.3</v>
+      </c>
+      <c r="H3">
+        <v>-0.7</v>
+      </c>
+      <c r="I3">
+        <v>-0.6</v>
+      </c>
+      <c r="J3">
+        <v>-0.5</v>
+      </c>
+      <c r="K3">
+        <v>-0.4</v>
+      </c>
+      <c r="L3">
+        <v>-0.3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <f>AVERAGE(H6:H61)</f>
+        <v>0.54178380357142852</v>
+      </c>
+      <c r="I4">
+        <f>AVERAGE(I6:I74)</f>
+        <v>0.7436855507246376</v>
+      </c>
+      <c r="J4">
+        <f>AVERAGE(J6:J48)</f>
+        <v>1.332816674418605</v>
+      </c>
+      <c r="K4">
+        <f>AVERAGE(K6:K34)</f>
+        <v>1.3761409310344825</v>
+      </c>
+      <c r="L4">
+        <f>AVERAGE(L6:L33)</f>
+        <v>1.4028019642857146</v>
+      </c>
+      <c r="M4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>1.92E-4</v>
+      </c>
+      <c r="C5">
+        <v>5.5538999999999998E-2</v>
+      </c>
+      <c r="D5">
+        <v>2.3851000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>5.5751000000000002E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.493118</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>5.2542999999999999E-2</v>
+      </c>
+      <c r="C6">
+        <v>8.1476999999999994E-2</v>
+      </c>
+      <c r="D6">
+        <v>8.0074999999999993E-2</v>
+      </c>
+      <c r="E6">
+        <v>1.4937000000000001E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.508216</v>
+      </c>
+      <c r="H6">
+        <v>0.52600800000000003</v>
+      </c>
+      <c r="I6">
+        <v>0.57546799999999998</v>
+      </c>
+      <c r="J6">
+        <v>1.0277609999999999</v>
+      </c>
+      <c r="K6">
+        <v>1.0447660000000001</v>
+      </c>
+      <c r="L6">
+        <v>1.0657760000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>2.5368999999999999E-2</v>
+      </c>
+      <c r="C7">
+        <v>3.552E-3</v>
+      </c>
+      <c r="D7">
+        <v>5.5469999999999998E-2</v>
+      </c>
+      <c r="E7">
+        <v>2.3556000000000001E-2</v>
+      </c>
+      <c r="F7">
+        <v>4.3013999999999997E-2</v>
+      </c>
+      <c r="H7">
+        <v>0.50334100000000004</v>
+      </c>
+      <c r="I7">
+        <v>0.59499800000000003</v>
+      </c>
+      <c r="J7">
+        <v>1.0704579999999999</v>
+      </c>
+      <c r="K7">
+        <v>1.126358</v>
+      </c>
+      <c r="L7">
+        <v>1.043463</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>0.52600800000000003</v>
+      </c>
+      <c r="C8">
+        <v>2.4863E-2</v>
+      </c>
+      <c r="D8">
+        <v>4.6017000000000002E-2</v>
+      </c>
+      <c r="E8">
+        <v>6.1032999999999997E-2</v>
+      </c>
+      <c r="F8">
+        <v>5.7508999999999998E-2</v>
+      </c>
+      <c r="H8">
+        <v>0.51756000000000002</v>
+      </c>
+      <c r="I8">
+        <v>0.60547700000000004</v>
+      </c>
+      <c r="J8">
+        <v>1.0939270000000001</v>
+      </c>
+      <c r="K8">
+        <v>1.038575</v>
+      </c>
+      <c r="L8">
+        <v>1.0909679999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>3.8671999999999998E-2</v>
+      </c>
+      <c r="C9">
+        <v>4.3145000000000003E-2</v>
+      </c>
+      <c r="D9">
+        <v>3.7935000000000003E-2</v>
+      </c>
+      <c r="E9">
+        <v>4.9174000000000002E-2</v>
+      </c>
+      <c r="F9">
+        <v>0.56106100000000003</v>
+      </c>
+      <c r="H9">
+        <v>0.50310999999999995</v>
+      </c>
+      <c r="I9">
+        <v>0.60372199999999998</v>
+      </c>
+      <c r="J9">
+        <v>1.0684279999999999</v>
+      </c>
+      <c r="K9">
+        <v>1.0631520000000001</v>
+      </c>
+      <c r="L9">
+        <v>1.0754410000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>3.8446000000000001E-2</v>
+      </c>
+      <c r="C10">
+        <v>1.7680999999999999E-2</v>
+      </c>
+      <c r="D10">
+        <v>8.7275000000000005E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.109543</v>
+      </c>
+      <c r="F10">
+        <v>1.0657760000000001</v>
+      </c>
+      <c r="H10">
+        <v>0.52444199999999996</v>
+      </c>
+      <c r="I10">
+        <v>1.0707089999999999</v>
+      </c>
+      <c r="J10">
+        <v>1.0489139999999999</v>
+      </c>
+      <c r="K10">
+        <v>1.091269</v>
+      </c>
+      <c r="L10">
+        <v>1.0446150000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>4.3742000000000003E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.11271299999999999</v>
+      </c>
+      <c r="D11">
+        <v>1.7458999999999999E-2</v>
+      </c>
+      <c r="E11">
+        <v>0.59616800000000003</v>
+      </c>
+      <c r="F11">
+        <v>1.043463</v>
+      </c>
+      <c r="H11">
+        <v>0.53924499999999997</v>
+      </c>
+      <c r="I11">
+        <v>1.078362</v>
+      </c>
+      <c r="J11">
+        <v>1.088676</v>
+      </c>
+      <c r="K11">
+        <v>1.607232</v>
+      </c>
+      <c r="L11">
+        <v>1.0888640000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>4.4444999999999998E-2</v>
+      </c>
+      <c r="C12">
+        <v>4.8349000000000003E-2</v>
+      </c>
+      <c r="D12">
+        <v>0.10353999999999999</v>
+      </c>
+      <c r="E12">
+        <v>1.0447660000000001</v>
+      </c>
+      <c r="F12">
+        <v>1.0909679999999999</v>
+      </c>
+      <c r="H12">
+        <v>0.48603800000000003</v>
+      </c>
+      <c r="I12">
+        <v>0.57372100000000004</v>
+      </c>
+      <c r="J12">
+        <v>1.138012</v>
+      </c>
+      <c r="K12">
+        <v>1.5832740000000001</v>
+      </c>
+      <c r="L12">
+        <v>1.610719</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>0.50334100000000004</v>
+      </c>
+      <c r="C13">
+        <v>3.5303000000000001E-2</v>
+      </c>
+      <c r="D13">
+        <v>3.9940999999999997E-2</v>
+      </c>
+      <c r="E13">
+        <v>0.60806700000000002</v>
+      </c>
+      <c r="F13">
+        <v>1.0754410000000001</v>
+      </c>
+      <c r="H13">
+        <v>0.53198900000000005</v>
+      </c>
+      <c r="I13">
+        <v>0.65001699999999996</v>
+      </c>
+      <c r="J13">
+        <v>1.0952489999999999</v>
+      </c>
+      <c r="K13">
+        <v>1.63314</v>
+      </c>
+      <c r="L13">
+        <v>1.63344</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>2.776E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.11505700000000001</v>
+      </c>
+      <c r="D14">
+        <v>0.55859800000000004</v>
+      </c>
+      <c r="E14">
+        <v>0.63069299999999995</v>
+      </c>
+      <c r="F14">
+        <v>1.0446150000000001</v>
+      </c>
+      <c r="H14">
+        <v>0.51737999999999995</v>
+      </c>
+      <c r="I14">
+        <v>0.62054299999999996</v>
+      </c>
+      <c r="J14">
+        <v>1.1118650000000001</v>
+      </c>
+      <c r="K14">
+        <v>1.589296</v>
+      </c>
+      <c r="L14">
+        <v>1.6433120000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>1.3127E-2</v>
+      </c>
+      <c r="C15">
+        <v>2.4833000000000001E-2</v>
+      </c>
+      <c r="D15">
+        <v>1.0277609999999999</v>
+      </c>
+      <c r="E15">
+        <v>0.63179799999999997</v>
+      </c>
+      <c r="F15">
+        <v>1.0888640000000001</v>
+      </c>
+      <c r="H15">
+        <v>0.52753399999999995</v>
+      </c>
+      <c r="I15">
+        <v>1.0273099999999999</v>
+      </c>
+      <c r="J15">
+        <v>1.115634</v>
+      </c>
+      <c r="K15">
+        <v>1.628161</v>
+      </c>
+      <c r="L15">
+        <v>1.5890329999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>4.8806000000000002E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.53081400000000001</v>
+      </c>
+      <c r="D16">
+        <v>1.0704579999999999</v>
+      </c>
+      <c r="E16">
+        <v>0.65417999999999998</v>
+      </c>
+      <c r="F16">
+        <v>0.65056599999999998</v>
+      </c>
+      <c r="H16">
+        <v>0.53970499999999999</v>
+      </c>
+      <c r="I16">
+        <v>1.047361</v>
+      </c>
+      <c r="J16">
+        <v>1.118814</v>
+      </c>
+      <c r="K16">
+        <v>1.581907</v>
+      </c>
+      <c r="L16">
+        <v>1.6342730000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>0.51756000000000002</v>
+      </c>
+      <c r="C17">
+        <v>6.2309999999999997E-2</v>
+      </c>
+      <c r="D17">
+        <v>0.56895799999999996</v>
+      </c>
+      <c r="E17">
+        <v>0.64647399999999999</v>
+      </c>
+      <c r="F17">
+        <v>1.610719</v>
+      </c>
+      <c r="H17">
+        <v>0.53356700000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.59369300000000003</v>
+      </c>
+      <c r="J17">
+        <v>1.6501250000000001</v>
+      </c>
+      <c r="K17">
+        <v>1.6794290000000001</v>
+      </c>
+      <c r="L17">
+        <v>1.658334</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>5.8326000000000003E-2</v>
+      </c>
+      <c r="C18">
+        <v>0.50559500000000002</v>
+      </c>
+      <c r="D18">
+        <v>0.62786299999999995</v>
+      </c>
+      <c r="E18">
+        <v>1.126358</v>
+      </c>
+      <c r="F18">
+        <v>1.63344</v>
+      </c>
+      <c r="H18">
+        <v>0.51321600000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.63822699999999999</v>
+      </c>
+      <c r="J18">
+        <v>1.580373</v>
+      </c>
+      <c r="K18">
+        <v>1.1537170000000001</v>
+      </c>
+      <c r="L18">
+        <v>1.6004830000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>1.4607999999999999E-2</v>
+      </c>
+      <c r="C19">
+        <v>4.4858000000000002E-2</v>
+      </c>
+      <c r="D19">
+        <v>0.65137500000000004</v>
+      </c>
+      <c r="E19">
+        <v>1.038575</v>
+      </c>
+      <c r="F19">
+        <v>1.6433120000000001</v>
+      </c>
+      <c r="H19">
+        <v>0.53077300000000005</v>
+      </c>
+      <c r="I19">
+        <v>0.61894000000000005</v>
+      </c>
+      <c r="J19">
+        <v>1.150639</v>
+      </c>
+      <c r="K19">
+        <v>1.664704</v>
+      </c>
+      <c r="L19">
+        <v>1.6565129999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>0.50310999999999995</v>
+      </c>
+      <c r="C20">
+        <v>0.54317599999999999</v>
+      </c>
+      <c r="D20">
+        <v>0.64625699999999997</v>
+      </c>
+      <c r="E20">
+        <v>1.0631520000000001</v>
+      </c>
+      <c r="F20">
+        <v>1.5890329999999999</v>
+      </c>
+      <c r="H20">
+        <v>0.50426499999999996</v>
+      </c>
+      <c r="I20">
+        <v>0.65558700000000003</v>
+      </c>
+      <c r="J20">
+        <v>1.6542539999999999</v>
+      </c>
+      <c r="K20">
+        <v>1.66856</v>
+      </c>
+      <c r="L20">
+        <v>1.6859789999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>1.2501999999999999E-2</v>
+      </c>
+      <c r="C21">
+        <v>3.7619E-2</v>
+      </c>
+      <c r="D21">
+        <v>0.60215399999999997</v>
+      </c>
+      <c r="E21">
+        <v>1.091269</v>
+      </c>
+      <c r="F21">
+        <v>1.6342730000000001</v>
+      </c>
+      <c r="H21">
+        <v>0.49837100000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.64500800000000003</v>
+      </c>
+      <c r="J21">
+        <v>1.614109</v>
+      </c>
+      <c r="K21">
+        <v>1.2025779999999999</v>
+      </c>
+      <c r="L21">
+        <v>1.642984</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>3.7962999999999997E-2</v>
+      </c>
+      <c r="C22">
+        <v>7.6891000000000001E-2</v>
+      </c>
+      <c r="D22">
+        <v>0.62577400000000005</v>
+      </c>
+      <c r="E22">
+        <v>1.607232</v>
+      </c>
+      <c r="F22">
+        <v>1.658334</v>
+      </c>
+      <c r="H22">
+        <v>0.542578</v>
+      </c>
+      <c r="I22">
+        <v>1.0361880000000001</v>
+      </c>
+      <c r="J22">
+        <v>1.627842</v>
+      </c>
+      <c r="K22">
+        <v>1.63948</v>
+      </c>
+      <c r="L22">
+        <v>1.6740930000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>0.52444199999999996</v>
+      </c>
+      <c r="C23">
+        <v>0.49979000000000001</v>
+      </c>
+      <c r="D23">
+        <v>0.65234599999999998</v>
+      </c>
+      <c r="E23">
+        <v>1.5832740000000001</v>
+      </c>
+      <c r="F23">
+        <v>1.6004830000000001</v>
+      </c>
+      <c r="H23">
+        <v>0.51149599999999995</v>
+      </c>
+      <c r="I23">
+        <v>0.59018999999999999</v>
+      </c>
+      <c r="J23">
+        <v>1.619402</v>
+      </c>
+      <c r="K23">
+        <v>1.67777</v>
+      </c>
+      <c r="L23">
+        <v>1.4498500000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>1.4408000000000001E-2</v>
+      </c>
+      <c r="C24">
+        <v>0.107361</v>
+      </c>
+      <c r="D24">
+        <v>0.60746800000000001</v>
+      </c>
+      <c r="E24">
+        <v>1.63314</v>
+      </c>
+      <c r="F24">
+        <v>1.6565129999999999</v>
+      </c>
+      <c r="H24">
+        <v>0.50575800000000004</v>
+      </c>
+      <c r="I24">
+        <v>0.58062899999999995</v>
+      </c>
+      <c r="J24">
+        <v>1.145869</v>
+      </c>
+      <c r="K24">
+        <v>1.6743250000000001</v>
+      </c>
+      <c r="L24">
+        <v>1.4762439999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>1.9889E-2</v>
+      </c>
+      <c r="C25">
+        <v>0.57546799999999998</v>
+      </c>
+      <c r="D25">
+        <v>0.62151500000000004</v>
+      </c>
+      <c r="E25">
+        <v>1.589296</v>
+      </c>
+      <c r="F25">
+        <v>1.6859789999999999</v>
+      </c>
+      <c r="H25">
+        <v>0.542354</v>
+      </c>
+      <c r="I25">
+        <v>0.60213399999999995</v>
+      </c>
+      <c r="J25">
+        <v>1.641119</v>
+      </c>
+      <c r="K25">
+        <v>1.5843719999999999</v>
+      </c>
+      <c r="L25">
+        <v>1.6284449999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>8.5411000000000001E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.59499800000000003</v>
+      </c>
+      <c r="D26">
+        <v>0.65710400000000002</v>
+      </c>
+      <c r="E26">
+        <v>1.628161</v>
+      </c>
+      <c r="F26">
+        <v>1.642984</v>
+      </c>
+      <c r="H26">
+        <v>0.54636200000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.64829099999999995</v>
+      </c>
+      <c r="J26">
+        <v>1.178439</v>
+      </c>
+      <c r="K26">
+        <v>1.6320939999999999</v>
+      </c>
+      <c r="L26">
+        <v>1.615537</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>5.2664000000000002E-2</v>
+      </c>
+      <c r="C27">
+        <v>0.60547700000000004</v>
+      </c>
+      <c r="D27">
+        <v>1.0939270000000001</v>
+      </c>
+      <c r="E27">
+        <v>1.581907</v>
+      </c>
+      <c r="F27">
+        <v>1.6740930000000001</v>
+      </c>
+      <c r="H27">
+        <v>0.55051300000000003</v>
+      </c>
+      <c r="I27">
+        <v>0.64228399999999997</v>
+      </c>
+      <c r="J27">
+        <v>1.645076</v>
+      </c>
+      <c r="K27">
+        <v>1.6668160000000001</v>
+      </c>
+      <c r="L27">
+        <v>1.634125</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>9.6876000000000004E-2</v>
+      </c>
+      <c r="C28">
+        <v>0.60372199999999998</v>
+      </c>
+      <c r="D28">
+        <v>1.0684279999999999</v>
+      </c>
+      <c r="E28">
+        <v>1.6794290000000001</v>
+      </c>
+      <c r="F28">
+        <v>0.19250600000000001</v>
+      </c>
+      <c r="H28">
+        <v>0.54732599999999998</v>
+      </c>
+      <c r="I28">
+        <v>0.62964600000000004</v>
+      </c>
+      <c r="J28">
+        <v>1.158123</v>
+      </c>
+      <c r="K28">
+        <v>1.1376470000000001</v>
+      </c>
+      <c r="L28">
+        <v>1.1500840000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>6.2010999999999997E-2</v>
+      </c>
+      <c r="C29">
+        <v>1.0707089999999999</v>
+      </c>
+      <c r="D29">
+        <v>1.0489139999999999</v>
+      </c>
+      <c r="E29">
+        <v>1.1537170000000001</v>
+      </c>
+      <c r="F29">
+        <v>3.8413000000000003E-2</v>
+      </c>
+      <c r="H29">
+        <v>0.57917200000000002</v>
+      </c>
+      <c r="I29">
+        <v>0.65321200000000001</v>
+      </c>
+      <c r="J29">
+        <v>1.661886</v>
+      </c>
+      <c r="K29">
+        <v>1.094489</v>
+      </c>
+      <c r="L29">
+        <v>1.6287929999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>0.10913299999999999</v>
+      </c>
+      <c r="C30">
+        <v>1.078362</v>
+      </c>
+      <c r="D30">
+        <v>1.088676</v>
+      </c>
+      <c r="E30">
+        <v>1.664704</v>
+      </c>
+      <c r="F30">
+        <v>1.4498500000000001</v>
+      </c>
+      <c r="H30">
+        <v>0.58844099999999999</v>
+      </c>
+      <c r="I30">
+        <v>0.60663199999999995</v>
+      </c>
+      <c r="J30">
+        <v>1.186272</v>
+      </c>
+      <c r="K30">
+        <v>1.135583</v>
+      </c>
+      <c r="L30">
+        <v>1.1039909999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>5.4843000000000003E-2</v>
+      </c>
+      <c r="C31">
+        <v>0.57372100000000004</v>
+      </c>
+      <c r="D31">
+        <v>0.61345799999999995</v>
+      </c>
+      <c r="E31">
+        <v>1.66856</v>
+      </c>
+      <c r="F31">
+        <v>5.0699000000000001E-2</v>
+      </c>
+      <c r="H31">
+        <v>0.54549999999999998</v>
+      </c>
+      <c r="I31">
+        <v>0.65419000000000005</v>
+      </c>
+      <c r="J31">
+        <v>1.6396649999999999</v>
+      </c>
+      <c r="K31">
+        <v>1.0745579999999999</v>
+      </c>
+      <c r="L31">
+        <v>1.0589930000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>0.53924499999999997</v>
+      </c>
+      <c r="C32">
+        <v>0.65001699999999996</v>
+      </c>
+      <c r="D32">
+        <v>1.138012</v>
+      </c>
+      <c r="E32">
+        <v>1.2025779999999999</v>
+      </c>
+      <c r="F32">
+        <v>5.2252E-2</v>
+      </c>
+      <c r="H32">
+        <v>0.55787200000000003</v>
+      </c>
+      <c r="I32">
+        <v>0.62250399999999995</v>
+      </c>
+      <c r="J32">
+        <v>1.2060249999999999</v>
+      </c>
+      <c r="K32">
+        <v>1.0685739999999999</v>
+      </c>
+      <c r="L32">
+        <v>1.041955</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>5.0036999999999998E-2</v>
+      </c>
+      <c r="C33">
+        <v>0.62054299999999996</v>
+      </c>
+      <c r="D33">
+        <v>1.0952489999999999</v>
+      </c>
+      <c r="E33">
+        <v>1.63948</v>
+      </c>
+      <c r="F33">
+        <v>5.0514000000000003E-2</v>
+      </c>
+      <c r="H33">
+        <v>0.494062</v>
+      </c>
+      <c r="I33">
+        <v>0.64383100000000004</v>
+      </c>
+      <c r="J33">
+        <v>1.67557</v>
+      </c>
+      <c r="K33">
+        <v>1.0780609999999999</v>
+      </c>
+      <c r="L33">
+        <v>1.0521480000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>0.48603800000000003</v>
+      </c>
+      <c r="C34">
+        <v>1.0273099999999999</v>
+      </c>
+      <c r="D34">
+        <v>1.1118650000000001</v>
+      </c>
+      <c r="E34">
+        <v>1.67777</v>
+      </c>
+      <c r="F34">
+        <v>1.4762439999999999</v>
+      </c>
+      <c r="H34">
+        <v>0.53819399999999995</v>
+      </c>
+      <c r="I34">
+        <v>0.61861900000000003</v>
+      </c>
+      <c r="J34">
+        <v>1.152882</v>
+      </c>
+      <c r="K34">
+        <v>1.0882000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>2.4603E-2</v>
+      </c>
+      <c r="C35">
+        <v>1.047361</v>
+      </c>
+      <c r="D35">
+        <v>0.65521700000000005</v>
+      </c>
+      <c r="E35">
+        <v>1.6743250000000001</v>
+      </c>
+      <c r="F35">
+        <v>1.6284449999999999</v>
+      </c>
+      <c r="H35">
+        <v>0.55415099999999995</v>
+      </c>
+      <c r="I35">
+        <v>0.62668100000000004</v>
+      </c>
+      <c r="J35">
+        <v>1.624682</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>0.53198900000000005</v>
+      </c>
+      <c r="C36">
+        <v>0.59369300000000003</v>
+      </c>
+      <c r="D36">
+        <v>1.115634</v>
+      </c>
+      <c r="E36">
+        <v>1.5843719999999999</v>
+      </c>
+      <c r="F36">
+        <v>1.615537</v>
+      </c>
+      <c r="H36">
+        <v>0.57434200000000002</v>
+      </c>
+      <c r="I36">
+        <v>0.609653</v>
+      </c>
+      <c r="J36">
+        <v>1.680094</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>1.8075999999999998E-2</v>
+      </c>
+      <c r="C37">
+        <v>0.63822699999999999</v>
+      </c>
+      <c r="D37">
+        <v>1.118814</v>
+      </c>
+      <c r="E37">
+        <v>1.6320939999999999</v>
+      </c>
+      <c r="F37">
+        <v>1.634125</v>
+      </c>
+      <c r="H37">
+        <v>0.555728</v>
+      </c>
+      <c r="I37">
+        <v>0.64260700000000004</v>
+      </c>
+      <c r="J37">
+        <v>1.627667</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>0.51737999999999995</v>
+      </c>
+      <c r="C38">
+        <v>0.61894000000000005</v>
+      </c>
+      <c r="D38">
+        <v>1.6501250000000001</v>
+      </c>
+      <c r="E38">
+        <v>0.64786999999999995</v>
+      </c>
+      <c r="F38">
+        <v>1.1500840000000001</v>
+      </c>
+      <c r="H38">
+        <v>0.58264000000000005</v>
+      </c>
+      <c r="I38">
+        <v>0.60253199999999996</v>
+      </c>
+      <c r="J38">
+        <v>1.633251</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>2.8724E-2</v>
+      </c>
+      <c r="C39">
+        <v>0.65558700000000003</v>
+      </c>
+      <c r="D39">
+        <v>1.580373</v>
+      </c>
+      <c r="E39">
+        <v>1.6668160000000001</v>
+      </c>
+      <c r="F39">
+        <v>1.6287929999999999</v>
+      </c>
+      <c r="H39">
+        <v>0.54375799999999996</v>
+      </c>
+      <c r="I39">
+        <v>0.63933799999999996</v>
+      </c>
+      <c r="J39">
+        <v>1.5939289999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>0.52753399999999995</v>
+      </c>
+      <c r="C40">
+        <v>0.64500800000000003</v>
+      </c>
+      <c r="D40">
+        <v>1.150639</v>
+      </c>
+      <c r="E40">
+        <v>1.1376470000000001</v>
+      </c>
+      <c r="F40">
+        <v>0.70895399999999997</v>
+      </c>
+      <c r="H40">
+        <v>0.51264600000000005</v>
+      </c>
+      <c r="I40">
+        <v>0.63750700000000005</v>
+      </c>
+      <c r="J40">
+        <v>1.6397219999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>3.4333000000000002E-2</v>
+      </c>
+      <c r="C41">
+        <v>1.0361880000000001</v>
+      </c>
+      <c r="D41">
+        <v>1.6542539999999999</v>
+      </c>
+      <c r="E41">
+        <v>1.094489</v>
+      </c>
+      <c r="F41">
+        <v>0.60607100000000003</v>
+      </c>
+      <c r="H41">
+        <v>0.54724700000000004</v>
+      </c>
+      <c r="I41">
+        <v>0.63234000000000001</v>
+      </c>
+      <c r="J41">
+        <v>1.1612020000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>0.109416</v>
+      </c>
+      <c r="C42">
+        <v>0.59018999999999999</v>
+      </c>
+      <c r="D42">
+        <v>1.614109</v>
+      </c>
+      <c r="E42">
+        <v>1.135583</v>
+      </c>
+      <c r="F42">
+        <v>1.1039909999999999</v>
+      </c>
+      <c r="H42">
+        <v>0.58755000000000002</v>
+      </c>
+      <c r="I42">
+        <v>0.64283500000000005</v>
+      </c>
+      <c r="J42">
+        <v>1.6288149999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>5.2970000000000003E-2</v>
+      </c>
+      <c r="C43">
+        <v>0.58062899999999995</v>
+      </c>
+      <c r="D43">
+        <v>1.627842</v>
+      </c>
+      <c r="E43">
+        <v>1.0745579999999999</v>
+      </c>
+      <c r="F43">
+        <v>1.0589930000000001</v>
+      </c>
+      <c r="H43">
+        <v>0.55338399999999999</v>
+      </c>
+      <c r="I43">
+        <v>0.63679699999999995</v>
+      </c>
+      <c r="J43">
+        <v>1.1689309999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>9.7546999999999995E-2</v>
+      </c>
+      <c r="C44">
+        <v>0.60213399999999995</v>
+      </c>
+      <c r="D44">
+        <v>1.619402</v>
+      </c>
+      <c r="E44">
+        <v>1.0685739999999999</v>
+      </c>
+      <c r="F44">
+        <v>1.041955</v>
+      </c>
+      <c r="H44">
+        <v>0.54605400000000004</v>
+      </c>
+      <c r="I44">
+        <v>0.61538099999999996</v>
+      </c>
+      <c r="J44">
+        <v>1.159978</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>1.6773E-2</v>
+      </c>
+      <c r="C45">
+        <v>0.64829099999999995</v>
+      </c>
+      <c r="D45">
+        <v>1.145869</v>
+      </c>
+      <c r="E45">
+        <v>1.0780609999999999</v>
+      </c>
+      <c r="F45">
+        <v>1.0521480000000001</v>
+      </c>
+      <c r="H45">
+        <v>0.52298999999999995</v>
+      </c>
+      <c r="I45">
+        <v>0.65454400000000001</v>
+      </c>
+      <c r="J45">
+        <v>1.042969</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>0.100202</v>
+      </c>
+      <c r="C46">
+        <v>0.64228399999999997</v>
+      </c>
+      <c r="D46">
+        <v>1.641119</v>
+      </c>
+      <c r="E46">
+        <v>1.0882000000000001</v>
+      </c>
+      <c r="F46">
+        <v>0.58440300000000001</v>
+      </c>
+      <c r="H46">
+        <v>0.52547500000000003</v>
+      </c>
+      <c r="I46">
+        <v>1.1023099999999999</v>
+      </c>
+      <c r="J46">
+        <v>1.0590310000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>0.53970499999999999</v>
+      </c>
+      <c r="C47">
+        <v>0.62964600000000004</v>
+      </c>
+      <c r="D47">
+        <v>1.178439</v>
+      </c>
+      <c r="E47">
+        <v>0.56688400000000005</v>
+      </c>
+      <c r="F47">
+        <v>0.62206799999999995</v>
+      </c>
+      <c r="H47">
+        <v>0.55683700000000003</v>
+      </c>
+      <c r="I47">
+        <v>1.093172</v>
+      </c>
+      <c r="J47">
+        <v>1.094144</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>1.7749999999999998E-2</v>
+      </c>
+      <c r="C48">
+        <v>0.65321200000000001</v>
+      </c>
+      <c r="D48">
+        <v>1.645076</v>
+      </c>
+      <c r="E48">
+        <v>0.62281200000000003</v>
+      </c>
+      <c r="F48">
+        <v>0.62521099999999996</v>
+      </c>
+      <c r="H48">
+        <v>0.58269000000000004</v>
+      </c>
+      <c r="I48">
+        <v>1.0890899999999999</v>
+      </c>
+      <c r="J48">
+        <v>1.0312939999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>0.53356700000000001</v>
+      </c>
+      <c r="C49">
+        <v>0.60663199999999995</v>
+      </c>
+      <c r="D49">
+        <v>1.158123</v>
+      </c>
+      <c r="E49">
+        <v>0.65733200000000003</v>
+      </c>
+      <c r="F49">
+        <v>0.59599500000000005</v>
+      </c>
+      <c r="H49">
+        <v>0.55002399999999996</v>
+      </c>
+      <c r="I49">
+        <v>1.0362229999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>3.3288999999999999E-2</v>
+      </c>
+      <c r="C50">
+        <v>0.65419000000000005</v>
+      </c>
+      <c r="D50">
+        <v>1.661886</v>
+      </c>
+      <c r="E50">
+        <v>0.55330800000000002</v>
+      </c>
+      <c r="F50">
+        <v>6.3534999999999994E-2</v>
+      </c>
+      <c r="H50">
+        <v>0.58174999999999999</v>
+      </c>
+      <c r="I50">
+        <v>1.0401499999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>6.5395999999999996E-2</v>
+      </c>
+      <c r="C51">
+        <v>0.62250399999999995</v>
+      </c>
+      <c r="D51">
+        <v>1.186272</v>
+      </c>
+      <c r="E51">
+        <v>3.9687E-2</v>
+      </c>
+      <c r="F51">
+        <v>0.50815399999999999</v>
+      </c>
+      <c r="H51">
+        <v>0.54498800000000003</v>
+      </c>
+      <c r="I51">
+        <v>1.0503990000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>4.1723999999999997E-2</v>
+      </c>
+      <c r="C52">
+        <v>0.64383100000000004</v>
+      </c>
+      <c r="D52">
+        <v>1.6396649999999999</v>
+      </c>
+      <c r="E52">
+        <v>0.52824800000000005</v>
+      </c>
+      <c r="F52">
+        <v>4.6616999999999999E-2</v>
+      </c>
+      <c r="H52">
+        <v>0.58104999999999996</v>
+      </c>
+      <c r="I52">
+        <v>1.082822</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>7.1345000000000006E-2</v>
+      </c>
+      <c r="C53">
+        <v>0.61861900000000003</v>
+      </c>
+      <c r="D53">
+        <v>1.2060249999999999</v>
+      </c>
+      <c r="E53">
+        <v>2.5353000000000001E-2</v>
+      </c>
+      <c r="H53">
+        <v>0.56649899999999997</v>
+      </c>
+      <c r="I53">
+        <v>1.064683</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>0.51321600000000001</v>
+      </c>
+      <c r="C54">
+        <v>0.62668100000000004</v>
+      </c>
+      <c r="D54">
+        <v>1.67557</v>
+      </c>
+      <c r="E54">
+        <v>0.50373299999999999</v>
+      </c>
+      <c r="H54">
+        <v>0.56443600000000005</v>
+      </c>
+      <c r="I54">
+        <v>1.065512</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>4.1021000000000002E-2</v>
+      </c>
+      <c r="C55">
+        <v>0.609653</v>
+      </c>
+      <c r="D55">
+        <v>1.152882</v>
+      </c>
+      <c r="E55">
+        <v>6.0269000000000003E-2</v>
+      </c>
+      <c r="H55">
+        <v>0.56480300000000006</v>
+      </c>
+      <c r="I55">
+        <v>1.062648</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>5.6474000000000003E-2</v>
+      </c>
+      <c r="C56">
+        <v>0.64260700000000004</v>
+      </c>
+      <c r="D56">
+        <v>1.624682</v>
+      </c>
+      <c r="E56">
+        <v>3.5666999999999997E-2</v>
+      </c>
+      <c r="H56">
+        <v>0.59755499999999995</v>
+      </c>
+      <c r="I56">
+        <v>1.0367029999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>3.8100000000000002E-2</v>
+      </c>
+      <c r="C57">
+        <v>0.60253199999999996</v>
+      </c>
+      <c r="D57">
+        <v>1.680094</v>
+      </c>
+      <c r="E57">
+        <v>9.4146999999999995E-2</v>
+      </c>
+      <c r="H57">
+        <v>0.55187799999999998</v>
+      </c>
+      <c r="I57">
+        <v>1.0666690000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>5.9766E-2</v>
+      </c>
+      <c r="C58">
+        <v>0.63933799999999996</v>
+      </c>
+      <c r="D58">
+        <v>1.627667</v>
+      </c>
+      <c r="E58">
+        <v>2.6686000000000001E-2</v>
+      </c>
+      <c r="H58">
+        <v>0.58053299999999997</v>
+      </c>
+      <c r="I58">
+        <v>1.0594840000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>0.53077300000000005</v>
+      </c>
+      <c r="C59">
+        <v>0.63750700000000005</v>
+      </c>
+      <c r="D59">
+        <v>1.633251</v>
+      </c>
+      <c r="E59">
+        <v>5.8935000000000001E-2</v>
+      </c>
+      <c r="H59">
+        <v>0.55045100000000002</v>
+      </c>
+      <c r="I59">
+        <v>1.0554269999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>2.2055999999999999E-2</v>
+      </c>
+      <c r="C60">
+        <v>0.63234000000000001</v>
+      </c>
+      <c r="D60">
+        <v>1.5939289999999999</v>
+      </c>
+      <c r="E60">
+        <v>0.51995899999999995</v>
+      </c>
+      <c r="H60">
+        <v>0.50580499999999995</v>
+      </c>
+      <c r="I60">
+        <v>0.589588</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>0.50426499999999996</v>
+      </c>
+      <c r="C61">
+        <v>0.64283500000000005</v>
+      </c>
+      <c r="D61">
+        <v>1.6397219999999999</v>
+      </c>
+      <c r="E61">
+        <v>5.7570999999999997E-2</v>
+      </c>
+      <c r="H61">
+        <v>0.50845700000000005</v>
+      </c>
+      <c r="I61">
+        <v>0.65364100000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>0.49837100000000001</v>
+      </c>
+      <c r="C62">
+        <v>0.63679699999999995</v>
+      </c>
+      <c r="D62">
+        <v>1.1612020000000001</v>
+      </c>
+      <c r="E62">
+        <v>8.3020000000000004E-3</v>
+      </c>
+      <c r="I62">
+        <v>0.60582000000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>9.5298999999999995E-2</v>
+      </c>
+      <c r="C63">
+        <v>0.61538099999999996</v>
+      </c>
+      <c r="D63">
+        <v>1.6288149999999999</v>
+      </c>
+      <c r="E63">
+        <v>3.8302000000000003E-2</v>
+      </c>
+      <c r="I63">
+        <v>0.59891399999999995</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>0.542578</v>
+      </c>
+      <c r="C64">
+        <v>0.65454400000000001</v>
+      </c>
+      <c r="D64">
+        <v>1.1689309999999999</v>
+      </c>
+      <c r="E64">
+        <v>2.7425999999999999E-2</v>
+      </c>
+      <c r="I64">
+        <v>0.65621099999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>3.8034999999999999E-2</v>
+      </c>
+      <c r="C65">
+        <v>1.1023099999999999</v>
+      </c>
+      <c r="D65">
+        <v>1.159978</v>
+      </c>
+      <c r="I65">
+        <v>0.64982899999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>9.9445000000000006E-2</v>
+      </c>
+      <c r="C66">
+        <v>1.093172</v>
+      </c>
+      <c r="D66">
+        <v>1.042969</v>
+      </c>
+      <c r="I66">
+        <v>0.65410500000000005</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>4.1764999999999997E-2</v>
+      </c>
+      <c r="C67">
+        <v>1.0890899999999999</v>
+      </c>
+      <c r="D67">
+        <v>1.0590310000000001</v>
+      </c>
+      <c r="I67">
+        <v>0.62901099999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>0.11199199999999999</v>
+      </c>
+      <c r="C68">
+        <v>1.0362229999999999</v>
+      </c>
+      <c r="D68">
+        <v>0.66504700000000005</v>
+      </c>
+      <c r="I68">
+        <v>0.61658400000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>0.51149599999999995</v>
+      </c>
+      <c r="C69">
+        <v>1.0401499999999999</v>
+      </c>
+      <c r="D69">
+        <v>0.62185599999999996</v>
+      </c>
+      <c r="I69">
+        <v>0.61185599999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>0.50575800000000004</v>
+      </c>
+      <c r="C70">
+        <v>1.0503990000000001</v>
+      </c>
+      <c r="D70">
+        <v>1.094144</v>
+      </c>
+      <c r="I70">
+        <v>0.65528500000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>0.542354</v>
+      </c>
+      <c r="C71">
+        <v>1.082822</v>
+      </c>
+      <c r="D71">
+        <v>1.0312939999999999</v>
+      </c>
+      <c r="I71">
+        <v>0.62254900000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>0.54636200000000001</v>
+      </c>
+      <c r="C72">
+        <v>1.064683</v>
+      </c>
+      <c r="D72">
+        <v>0.56724799999999997</v>
+      </c>
+      <c r="I72">
+        <v>0.57283799999999996</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>0.11564199999999999</v>
+      </c>
+      <c r="C73">
+        <v>1.065512</v>
+      </c>
+      <c r="D73">
+        <v>0.62511700000000003</v>
+      </c>
+      <c r="I73">
+        <v>0.622363</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>0.55051300000000003</v>
+      </c>
+      <c r="C74">
+        <v>1.062648</v>
+      </c>
+      <c r="D74">
+        <v>0.63711399999999996</v>
+      </c>
+      <c r="I74">
+        <v>0.60270900000000005</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>0.54732599999999998</v>
+      </c>
+      <c r="C75">
+        <v>1.0367029999999999</v>
+      </c>
+      <c r="D75">
+        <v>0.59953699999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>5.8587E-2</v>
+      </c>
+      <c r="C76">
+        <v>1.0666690000000001</v>
+      </c>
+      <c r="D76">
+        <v>0.56506999999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>0.57917200000000002</v>
+      </c>
+      <c r="C77">
+        <v>1.0594840000000001</v>
+      </c>
+      <c r="D77">
+        <v>2.7730000000000001E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>6.6499000000000003E-2</v>
+      </c>
+      <c r="C78">
+        <v>1.0554269999999999</v>
+      </c>
+      <c r="D78">
+        <v>0.53187899999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>9.9533999999999997E-2</v>
+      </c>
+      <c r="C79">
+        <v>0.589588</v>
+      </c>
+      <c r="D79">
+        <v>2.2282E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>0.58844099999999999</v>
+      </c>
+      <c r="C80">
+        <v>0.65364100000000003</v>
+      </c>
+      <c r="D80">
+        <v>0.505054</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>0.116603</v>
+      </c>
+      <c r="C81">
+        <v>0.60582000000000003</v>
+      </c>
+      <c r="D81">
+        <v>3.8766000000000002E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>0.54549999999999998</v>
+      </c>
+      <c r="C82">
+        <v>0.59891399999999995</v>
+      </c>
+      <c r="D82">
+        <v>3.2499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>0.55787200000000003</v>
+      </c>
+      <c r="C83">
+        <v>0.65621099999999999</v>
+      </c>
+      <c r="D83">
+        <v>7.7299999999999994E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>0.494062</v>
+      </c>
+      <c r="C84">
+        <v>0.64982899999999999</v>
+      </c>
+      <c r="D84">
+        <v>5.9885000000000001E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>0.11564199999999999</v>
+      </c>
+      <c r="C85">
+        <v>0.65410500000000005</v>
+      </c>
+      <c r="D85">
+        <v>2.6641999999999999E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>0.53819399999999995</v>
+      </c>
+      <c r="C86">
+        <v>0.62901099999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>0.115357</v>
+      </c>
+      <c r="C87">
+        <v>0.61658400000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>0.106696</v>
+      </c>
+      <c r="C88">
+        <v>0.61185599999999996</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>0.55415099999999995</v>
+      </c>
+      <c r="C89">
+        <v>0.65528500000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>0.116378</v>
+      </c>
+      <c r="C90">
+        <v>0.62254900000000002</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>0.57434200000000002</v>
+      </c>
+      <c r="C91">
+        <v>0.57283799999999996</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>0.555728</v>
+      </c>
+      <c r="C92">
+        <v>0.52927000000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>0.58264000000000005</v>
+      </c>
+      <c r="C93">
+        <v>0.622363</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>0.54375799999999996</v>
+      </c>
+      <c r="C94">
+        <v>0.60270900000000005</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>0.51264600000000005</v>
+      </c>
+      <c r="C95">
+        <v>9.8080000000000007E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>0.104015</v>
+      </c>
+      <c r="C96">
+        <v>6.9696999999999995E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>0.54724700000000004</v>
+      </c>
+      <c r="C97">
+        <v>5.6427999999999999E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>5.1472999999999998E-2</v>
+      </c>
+      <c r="C98">
+        <v>0.526223</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>9.3713000000000005E-2</v>
+      </c>
+      <c r="C99">
+        <v>3.1380999999999999E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>0.58755000000000002</v>
+      </c>
+      <c r="C100">
+        <v>3.8989000000000003E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <v>0.55338399999999999</v>
+      </c>
+      <c r="C101">
+        <v>0.48383999999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B102">
+        <v>9.0190000000000006E-2</v>
+      </c>
+      <c r="C102">
+        <v>3.8345999999999998E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <v>0.54605400000000004</v>
+      </c>
+      <c r="C103">
+        <v>2.5519E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <v>3.3117000000000001E-2</v>
+      </c>
+      <c r="C104">
+        <v>3.6706999999999997E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B105">
+        <v>0.52298999999999995</v>
+      </c>
+      <c r="C105">
+        <v>4.8259000000000003E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B106">
+        <v>4.4928999999999997E-2</v>
+      </c>
+      <c r="C106">
+        <v>4.5893999999999997E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B107">
+        <v>7.8437000000000007E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B108">
+        <v>0.52547500000000003</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B109">
+        <v>5.3858000000000003E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B110">
+        <v>0.55683700000000003</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B111">
+        <v>6.8484000000000003E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B112">
+        <v>0.58269000000000004</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113">
+        <v>0.55002399999999996</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114">
+        <v>0.58174999999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B115">
+        <v>0.54498800000000003</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B116">
+        <v>0.58104999999999996</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117">
+        <v>0.56649899999999997</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B118">
+        <v>0.56443600000000005</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B119">
+        <v>0.56480300000000006</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B120">
+        <v>0.59755499999999995</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B121">
+        <v>0.55187799999999998</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B122">
+        <v>0.58053299999999997</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B123">
+        <v>0.55045100000000002</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B124">
+        <v>4.7973000000000002E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B125">
+        <v>0.50580499999999995</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B126">
+        <v>2.3220999999999999E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B127">
+        <v>0.50845700000000005</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B128">
+        <v>2.3585999999999999E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B129">
+        <v>8.7469999999999996E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B130">
+        <v>8.0093999999999999E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B131">
+        <v>3.4617000000000002E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B132">
+        <v>1.9480000000000001E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B133">
+        <v>9.4121999999999997E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B134">
+        <v>1.0402E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B135">
+        <v>4.3321999999999999E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B136">
+        <v>3.0033000000000001E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B137">
+        <v>3.1890000000000002E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B138">
+        <v>3.7543E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B139">
+        <v>3.0533000000000001E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B141">
+        <f>AVERAGE(B5:B139)</f>
+        <v>0.25705543703703726</v>
+      </c>
+      <c r="C141">
+        <f>AVERAGE(C5:C106)</f>
+        <v>0.55123127450980391</v>
+      </c>
+      <c r="D141">
+        <f>AVERAGE(D5:D85)</f>
+        <v>0.88227832098765457</v>
+      </c>
+      <c r="E141">
+        <f t="shared" ref="E141:F141" si="0">AVERAGE(E5:E139)</f>
+        <v>0.81769919999999985</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="0"/>
+        <v>0.96536106250000009</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B5:F139"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B140:B141 C141:F141">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F52">
+    <cfRule type="top10" dxfId="10" priority="11" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E64">
+    <cfRule type="top10" dxfId="9" priority="10" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D85">
+    <cfRule type="top10" dxfId="8" priority="9" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C106">
+    <cfRule type="top10" dxfId="7" priority="8" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B139">
+    <cfRule type="top10" dxfId="6" priority="7" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H61">
+    <cfRule type="top10" dxfId="5" priority="6" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6:I74">
+    <cfRule type="top10" dxfId="4" priority="5" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6:J48">
+    <cfRule type="top10" dxfId="3" priority="4" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:K34">
+    <cfRule type="top10" dxfId="2" priority="3" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6:L33">
+    <cfRule type="top10" dxfId="1" priority="2" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="top10" dxfId="0" priority="1" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>0.27979999999999999</v>
+      </c>
+      <c r="C3">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>0.32979999999999998</v>
+      </c>
+      <c r="C4">
+        <v>-0.53660099999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>0.27979999999999999</v>
+      </c>
+      <c r="C5">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>0.32979999999999998</v>
+      </c>
+      <c r="C6">
+        <v>-0.53660099999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>0.27979999999999999</v>
+      </c>
+      <c r="C7">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>0.32979999999999998</v>
+      </c>
+      <c r="C8">
+        <v>-0.53660099999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>0.31856000000000001</v>
+      </c>
+      <c r="C9">
+        <v>-0.57333299999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>0.36856</v>
+      </c>
+      <c r="C10">
+        <v>-0.40993499999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>0.35420400000000002</v>
+      </c>
+      <c r="C11">
+        <v>-0.45684999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>0.40420400000000001</v>
+      </c>
+      <c r="C12">
+        <v>-0.29345100000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>0.38628400000000002</v>
+      </c>
+      <c r="C13">
+        <v>-0.35201399999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>0.43628400000000001</v>
+      </c>
+      <c r="C14">
+        <v>-0.18861600000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>0.415155</v>
+      </c>
+      <c r="C15">
+        <v>-0.25766299999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>0.46515499999999999</v>
+      </c>
+      <c r="C16">
+        <v>-9.4263899999999998E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>0.44113999999999998</v>
+      </c>
+      <c r="C17">
+        <v>-0.17274600000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>0.49114000000000002</v>
+      </c>
+      <c r="C18">
+        <v>-9.3473299999999992E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>0.46452599999999999</v>
+      </c>
+      <c r="C19">
+        <v>-9.6321100000000007E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>0.51452600000000004</v>
+      </c>
+      <c r="C20">
+        <v>6.7077600000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>0.48557299999999998</v>
+      </c>
+      <c r="C21">
+        <v>-2.7538699999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>0.53557299999999997</v>
+      </c>
+      <c r="C22">
+        <v>0.13586000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>0.50451599999999996</v>
+      </c>
+      <c r="C23">
+        <v>3.43655E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>0.55451600000000001</v>
+      </c>
+      <c r="C24">
+        <v>0.197764</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>0.52156400000000003</v>
+      </c>
+      <c r="C25">
+        <v>9.0079300000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>0.57156399999999996</v>
+      </c>
+      <c r="C26">
+        <v>0.25347799999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>0.53690800000000005</v>
+      </c>
+      <c r="C27">
+        <v>0.14022200000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>0.58690799999999999</v>
+      </c>
+      <c r="C28">
+        <v>0.30362</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>0.55071700000000001</v>
+      </c>
+      <c r="C29">
+        <v>0.18534999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>0.60071699999999995</v>
+      </c>
+      <c r="C30">
+        <v>0.34874899999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>0.56314500000000001</v>
+      </c>
+      <c r="C31">
+        <v>0.225965</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>0.61314500000000005</v>
+      </c>
+      <c r="C32">
+        <v>0.38936399999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>0.57433100000000004</v>
+      </c>
+      <c r="C33">
+        <v>0.262519</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>0.62433099999999997</v>
+      </c>
+      <c r="C34">
+        <v>0.42591800000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>0.58439799999999997</v>
+      </c>
+      <c r="C35">
+        <v>0.29541699999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>0.63439800000000002</v>
+      </c>
+      <c r="C36">
+        <v>0.458816</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>0.59345800000000004</v>
+      </c>
+      <c r="C37">
+        <v>0.32502599999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>0.64345799999999997</v>
+      </c>
+      <c r="C38">
+        <v>0.488425</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>0.60161200000000004</v>
+      </c>
+      <c r="C39">
+        <v>0.35167399999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>0.65161199999999997</v>
+      </c>
+      <c r="C40">
+        <v>0.51507199999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>0.60895100000000002</v>
+      </c>
+      <c r="C41">
+        <v>0.37565700000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>0.65895099999999995</v>
+      </c>
+      <c r="C42">
+        <v>0.53905499999999995</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>0.61555599999999999</v>
+      </c>
+      <c r="C43">
+        <v>0.39724100000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>0.66555600000000004</v>
+      </c>
+      <c r="C44">
+        <v>0.56064000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>0.62150000000000005</v>
+      </c>
+      <c r="C45">
+        <v>0.41666799999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>0.67149999999999999</v>
+      </c>
+      <c r="C46">
+        <v>0.58006599999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>0.62685000000000002</v>
+      </c>
+      <c r="C47">
+        <v>0.43415100000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>0.67684999999999995</v>
+      </c>
+      <c r="C48">
+        <v>0.59755000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>0.63166500000000003</v>
+      </c>
+      <c r="C49">
+        <v>0.44988600000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>0.68166499999999997</v>
+      </c>
+      <c r="C50">
+        <v>0.61328499999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>0.63599899999999998</v>
+      </c>
+      <c r="C51">
+        <v>0.46404800000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>0.68599900000000003</v>
+      </c>
+      <c r="C52">
+        <v>0.62744699999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>0.639899</v>
+      </c>
+      <c r="C53">
+        <v>0.476794</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>0.68989900000000004</v>
+      </c>
+      <c r="C54">
+        <v>0.64019199999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>0.64340900000000001</v>
+      </c>
+      <c r="C55">
+        <v>0.488265</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>0.69340900000000005</v>
+      </c>
+      <c r="C56">
+        <v>0.65166299999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>0.64656800000000003</v>
+      </c>
+      <c r="C57">
+        <v>0.49858799999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>0.69656799999999996</v>
+      </c>
+      <c r="C58">
+        <v>0.66198699999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>0.64941099999999996</v>
+      </c>
+      <c r="C59">
+        <v>0.50788</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>0.699411</v>
+      </c>
+      <c r="C60">
+        <v>0.67127899999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>0.65197000000000005</v>
+      </c>
+      <c r="C61">
+        <v>0.51624199999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>0.70196999999999998</v>
+      </c>
+      <c r="C62">
+        <v>0.67964100000000005</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>0.65427299999999999</v>
+      </c>
+      <c r="C63">
+        <v>0.52376800000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>0.70427300000000004</v>
+      </c>
+      <c r="C64">
+        <v>0.68716699999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>0.65634599999999998</v>
+      </c>
+      <c r="C65">
+        <v>0.53054199999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>0.70634600000000003</v>
+      </c>
+      <c r="C66">
+        <v>0.69394100000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>0.65821099999999999</v>
+      </c>
+      <c r="C67">
+        <v>0.53663799999999995</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>0.70821100000000003</v>
+      </c>
+      <c r="C68">
+        <v>0.70003700000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>0.65988999999999998</v>
+      </c>
+      <c r="C69">
+        <v>0.54212400000000005</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>0.70989000000000002</v>
+      </c>
+      <c r="C70">
+        <v>0.70552300000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>0.66140100000000002</v>
+      </c>
+      <c r="C71">
+        <v>0.54706200000000005</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>0.71140099999999995</v>
+      </c>
+      <c r="C72">
+        <v>0.71046100000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>0.66276100000000004</v>
+      </c>
+      <c r="C73">
+        <v>0.55150600000000005</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>0.71276099999999998</v>
+      </c>
+      <c r="C74">
+        <v>0.71490500000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>0.66398500000000005</v>
+      </c>
+      <c r="C75">
+        <v>0.55550600000000006</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>0.71398499999999998</v>
+      </c>
+      <c r="C76">
+        <v>0.71890500000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>0.66508599999999996</v>
+      </c>
+      <c r="C77">
+        <v>0.55910599999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>0.715086</v>
+      </c>
+      <c r="C78">
+        <v>0.72250499999999995</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>0.66607799999999995</v>
+      </c>
+      <c r="C79">
+        <v>0.56234600000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>0.71607799999999999</v>
+      </c>
+      <c r="C80">
+        <v>0.72574399999999994</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>0.66696999999999995</v>
+      </c>
+      <c r="C81">
+        <v>0.56526100000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>0.71697</v>
+      </c>
+      <c r="C82">
+        <v>0.72865999999999997</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>0.66777299999999995</v>
+      </c>
+      <c r="C83">
+        <v>0.567886</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>0.71777299999999999</v>
+      </c>
+      <c r="C84">
+        <v>0.73128400000000005</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>0.66849599999999998</v>
+      </c>
+      <c r="C85">
+        <v>0.57024699999999995</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>0.71849600000000002</v>
+      </c>
+      <c r="C86">
+        <v>0.73364600000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>0.66914600000000002</v>
+      </c>
+      <c r="C87">
+        <v>0.57237300000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>0.71914599999999995</v>
+      </c>
+      <c r="C88">
+        <v>0.73577199999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>0.66973199999999999</v>
+      </c>
+      <c r="C89">
+        <v>0.57428599999999996</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>0.71973200000000004</v>
+      </c>
+      <c r="C90">
+        <v>0.73768500000000004</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>0.67025800000000002</v>
+      </c>
+      <c r="C91">
+        <v>0.57600799999999996</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>0.72025799999999995</v>
+      </c>
+      <c r="C92">
+        <v>0.73940600000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>0.67073300000000002</v>
+      </c>
+      <c r="C93">
+        <v>0.57755699999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>0.72073299999999996</v>
+      </c>
+      <c r="C94">
+        <v>0.74095599999999995</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>0.67115899999999995</v>
+      </c>
+      <c r="C95">
+        <v>0.57895200000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>0.72115899999999999</v>
+      </c>
+      <c r="C96">
+        <v>0.74235099999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>0.671543</v>
+      </c>
+      <c r="C97">
+        <v>0.58020700000000003</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>0.72154300000000005</v>
+      </c>
+      <c r="C98">
+        <v>0.74360599999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>0.67188899999999996</v>
+      </c>
+      <c r="C99">
+        <v>0.58133699999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>0.721889</v>
+      </c>
+      <c r="C100">
+        <v>0.74473500000000004</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <v>0.67220000000000002</v>
+      </c>
+      <c r="C101">
+        <v>0.58235300000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B102">
+        <v>0.72219999999999995</v>
+      </c>
+      <c r="C102">
+        <v>0.74575199999999997</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/PID test.xlsx
+++ b/PID test.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\testbench\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boldasl\SEUNGHO\Workspace\GitHub\testbench\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EFCE4B-AEE5-4158-9944-663D842822B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8970" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PID test(visual)" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'air condition test'!$B$4:$C$155</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'실제 측정 velocity'!$B$5:$F$139</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -130,7 +131,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -814,7 +815,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -822,6 +822,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -871,7 +872,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -924,312 +924,75 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'detail condition'!$B$2:$B$102</c:f>
+              <c:f>'detail condition'!$B$3:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>90.821617000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27979999999999999</c:v>
+                  <c:v>85.834755000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32979999999999998</c:v>
+                  <c:v>91.245307999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27979999999999999</c:v>
+                  <c:v>85.744620999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32979999999999998</c:v>
+                  <c:v>102.555832</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.27979999999999999</c:v>
+                  <c:v>85.762146000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.32979999999999998</c:v>
+                  <c:v>93.140113999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.31856000000000001</c:v>
+                  <c:v>88.760422000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.36856</c:v>
+                  <c:v>89.089072999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.35420400000000002</c:v>
+                  <c:v>88.242690999999994</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.40420400000000001</c:v>
+                  <c:v>91.270995999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.38628400000000002</c:v>
+                  <c:v>84.880889999999994</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.43628400000000001</c:v>
+                  <c:v>93.124747999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.415155</c:v>
+                  <c:v>89.096374999999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.46515499999999999</c:v>
+                  <c:v>90.394820999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.44113999999999998</c:v>
+                  <c:v>85.967026000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.49114000000000002</c:v>
+                  <c:v>95.666274999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.46452599999999999</c:v>
+                  <c:v>82.659606999999994</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.51452600000000004</c:v>
+                  <c:v>88.758774000000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.48557299999999998</c:v>
+                  <c:v>93.436981000000003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.53557299999999997</c:v>
+                  <c:v>88.486075999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.50451599999999996</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.55451600000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.52156400000000003</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.57156399999999996</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.53690800000000005</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.58690799999999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.55071700000000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.60071699999999995</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.56314500000000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.61314500000000005</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.57433100000000004</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.62433099999999997</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.58439799999999997</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.63439800000000002</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.59345800000000004</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.64345799999999997</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.60161200000000004</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.65161199999999997</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.60895100000000002</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.65895099999999995</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.61555599999999999</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.66555600000000004</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.62150000000000005</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.67149999999999999</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.62685000000000002</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.67684999999999995</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.63166500000000003</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.68166499999999997</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.63599899999999998</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.68599900000000003</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.639899</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.68989900000000004</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.64340900000000001</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.69340900000000005</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.64656800000000003</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.69656799999999996</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.64941099999999996</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.699411</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.65197000000000005</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.70196999999999998</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.65427299999999999</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.70427300000000004</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.65634599999999998</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.70634600000000003</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.65821099999999999</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.70821100000000003</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.65988999999999998</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.70989000000000002</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.66140100000000002</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.71140099999999995</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.66276100000000004</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.71276099999999998</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.66398500000000005</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.71398499999999998</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.66508599999999996</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.715086</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.66607799999999995</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.71607799999999999</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.66696999999999995</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.71697</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.66777299999999995</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.71777299999999999</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.66849599999999998</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.71849600000000002</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.66914600000000002</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.71914599999999995</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.66973199999999999</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.71973200000000004</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.67025800000000002</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.72025799999999995</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.67073300000000002</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.72073299999999996</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.67115899999999995</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.72115899999999999</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.671543</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.72154300000000005</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.67188899999999996</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.721889</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.67220000000000002</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.72219999999999995</c:v>
+                  <c:v>93.693961999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2213,7 +1976,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2221,6 +1983,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2270,7 +2033,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2765,7 +2527,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2773,6 +2534,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2822,7 +2584,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3317,7 +3078,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3325,6 +3085,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3568,7 +3329,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3576,6 +3336,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3858,7 +3619,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3866,6 +3626,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3915,7 +3676,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4164,7 +3924,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4172,6 +3931,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4221,7 +3981,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4512,7 +4271,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4520,6 +4278,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4569,7 +4328,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4830,7 +4588,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4838,6 +4595,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -10774,18 +10532,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="차트 2"/>
+        <xdr:cNvPr id="3" name="차트 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -11099,16 +10863,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:AC204"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
       <selection activeCell="AG22" sqref="AG22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="3" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -11128,7 +10892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>0</v>
       </c>
@@ -11142,7 +10906,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>0.5</v>
       </c>
@@ -11156,7 +10920,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>0.97499999999999998</v>
       </c>
@@ -11170,7 +10934,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>1.42625</v>
       </c>
@@ -11184,7 +10948,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>1.85494</v>
       </c>
@@ -11198,7 +10962,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>2.2621899999999999</v>
       </c>
@@ -11212,7 +10976,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>2.6490800000000001</v>
       </c>
@@ -11226,7 +10990,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>3.0166300000000001</v>
       </c>
@@ -11240,7 +11004,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>3.3658000000000001</v>
       </c>
@@ -11254,7 +11018,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>3.6975099999999999</v>
       </c>
@@ -11268,7 +11032,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B15">
         <v>4.0126299999999997</v>
       </c>
@@ -11282,7 +11046,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B16">
         <v>4.3120000000000003</v>
       </c>
@@ -11296,7 +11060,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B17">
         <v>4.5964</v>
       </c>
@@ -11310,7 +11074,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B18">
         <v>4.8665799999999999</v>
       </c>
@@ -11324,7 +11088,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B19">
         <v>5.1232499999999996</v>
       </c>
@@ -11338,7 +11102,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B20">
         <v>5.3670900000000001</v>
       </c>
@@ -11352,7 +11116,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B21">
         <v>5.5987299999999998</v>
       </c>
@@ -11366,7 +11130,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B22">
         <v>5.8188000000000004</v>
       </c>
@@ -11380,7 +11144,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B23">
         <v>6.0278600000000004</v>
       </c>
@@ -11394,7 +11158,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B24">
         <v>6.2264600000000003</v>
       </c>
@@ -11408,7 +11172,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B25">
         <v>6.4151400000000001</v>
       </c>
@@ -11422,7 +11186,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B26">
         <v>6.5943800000000001</v>
       </c>
@@ -11436,7 +11200,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B27">
         <v>6.7646600000000001</v>
       </c>
@@ -11450,7 +11214,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B28">
         <v>6.9264299999999999</v>
       </c>
@@ -11464,7 +11228,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B29">
         <v>7.0801100000000003</v>
       </c>
@@ -11478,7 +11242,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B30">
         <v>7.2260999999999997</v>
       </c>
@@ -11492,7 +11256,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B31">
         <v>7.3647999999999998</v>
       </c>
@@ -11506,7 +11270,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B32">
         <v>7.4965599999999997</v>
       </c>
@@ -11520,7 +11284,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B33">
         <v>7.6217300000000003</v>
       </c>
@@ -11534,7 +11298,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B34">
         <v>7.74064</v>
       </c>
@@ -11548,7 +11312,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B35">
         <v>7.8536099999999998</v>
       </c>
@@ -11562,7 +11326,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="36" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B36">
         <v>7.9609300000000003</v>
       </c>
@@ -11576,7 +11340,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B37">
         <v>8.0628899999999994</v>
       </c>
@@ -11590,7 +11354,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B38">
         <v>8.1597399999999993</v>
       </c>
@@ -11604,7 +11368,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B39">
         <v>8.2517499999999995</v>
       </c>
@@ -11618,7 +11382,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B40">
         <v>8.3391699999999993</v>
       </c>
@@ -11632,7 +11396,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B41">
         <v>8.4222099999999998</v>
       </c>
@@ -11646,7 +11410,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B42">
         <v>8.5010999999999992</v>
       </c>
@@ -11660,7 +11424,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B43">
         <v>8.5760400000000008</v>
       </c>
@@ -11674,7 +11438,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B44">
         <v>8.64724</v>
       </c>
@@ -11688,7 +11452,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B45">
         <v>8.7148800000000008</v>
       </c>
@@ -11702,7 +11466,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B46">
         <v>8.7791300000000003</v>
       </c>
@@ -11716,7 +11480,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B47">
         <v>8.8401800000000001</v>
       </c>
@@ -11730,7 +11494,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B48">
         <v>8.8981700000000004</v>
       </c>
@@ -11744,7 +11508,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="49" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B49">
         <v>8.9532600000000002</v>
       </c>
@@ -11758,7 +11522,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="50" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B50">
         <v>9.0055999999999994</v>
       </c>
@@ -11772,7 +11536,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="51" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B51">
         <v>9.05532</v>
       </c>
@@ -11786,7 +11550,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="52" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B52">
         <v>9.1025500000000008</v>
       </c>
@@ -11800,7 +11564,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="53" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B53">
         <v>9.1474200000000003</v>
       </c>
@@ -11814,7 +11578,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="54" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B54">
         <v>9.1900499999999994</v>
       </c>
@@ -11828,7 +11592,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="55" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B55">
         <v>9.2305499999999991</v>
       </c>
@@ -11842,7 +11606,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="56" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B56">
         <v>9.0190199999999994</v>
       </c>
@@ -11856,7 +11620,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="57" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B57">
         <v>8.8180700000000005</v>
       </c>
@@ -11870,7 +11634,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="58" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B58">
         <v>8.6271699999999996</v>
       </c>
@@ -11884,7 +11648,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="59" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B59">
         <v>8.4458099999999998</v>
       </c>
@@ -11898,7 +11662,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="60" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B60">
         <v>8.2735199999999995</v>
       </c>
@@ -11912,7 +11676,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="61" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B61">
         <v>8.1098400000000002</v>
       </c>
@@ -11926,7 +11690,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="62" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B62">
         <v>7.9543499999999998</v>
       </c>
@@ -11940,7 +11704,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="63" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B63">
         <v>7.8066300000000002</v>
       </c>
@@ -11954,7 +11718,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="64" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B64">
         <v>7.6662999999999997</v>
       </c>
@@ -11968,7 +11732,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B65">
         <v>7.5329899999999999</v>
       </c>
@@ -11982,7 +11746,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B66">
         <v>7.4063400000000001</v>
       </c>
@@ -11996,7 +11760,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B67">
         <v>7.2860199999999997</v>
       </c>
@@ -12010,7 +11774,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B68">
         <v>7.1717199999999997</v>
       </c>
@@ -12024,7 +11788,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B69">
         <v>7.0631300000000001</v>
       </c>
@@ -12038,7 +11802,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B70">
         <v>6.9599799999999998</v>
       </c>
@@ -12052,7 +11816,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B71">
         <v>6.86198</v>
       </c>
@@ -12066,7 +11830,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B72">
         <v>6.7688800000000002</v>
       </c>
@@ -12080,7 +11844,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B73">
         <v>6.6804399999999999</v>
       </c>
@@ -12094,7 +11858,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B74">
         <v>6.5964099999999997</v>
       </c>
@@ -12108,7 +11872,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B75">
         <v>6.5165899999999999</v>
       </c>
@@ -12122,7 +11886,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B76">
         <v>6.44076</v>
       </c>
@@ -12136,7 +11900,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B77">
         <v>6.3687199999999997</v>
       </c>
@@ -12150,7 +11914,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="78" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B78">
         <v>6.3002900000000004</v>
       </c>
@@ -12164,7 +11928,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B79">
         <v>6.2352699999999999</v>
       </c>
@@ -12178,7 +11942,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B80">
         <v>6.1735100000000003</v>
       </c>
@@ -12192,7 +11956,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="81" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B81">
         <v>6.1148400000000001</v>
       </c>
@@ -12206,7 +11970,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="82" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B82">
         <v>6.0590900000000003</v>
       </c>
@@ -12220,7 +11984,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="83" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B83">
         <v>6.0061400000000003</v>
       </c>
@@ -12234,7 +11998,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="84" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B84">
         <v>5.9558299999999997</v>
       </c>
@@ -12248,7 +12012,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="85" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B85">
         <v>5.9080399999999997</v>
       </c>
@@ -12262,7 +12026,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="86" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B86">
         <v>5.8626399999999999</v>
       </c>
@@ -12276,7 +12040,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="87" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B87">
         <v>5.8195100000000002</v>
       </c>
@@ -12290,7 +12054,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="88" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B88">
         <v>5.7785299999999999</v>
       </c>
@@ -12304,7 +12068,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="89" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B89">
         <v>5.7396000000000003</v>
       </c>
@@ -12318,7 +12082,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="90" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B90">
         <v>5.7026199999999996</v>
       </c>
@@ -12332,7 +12096,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="91" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B91">
         <v>5.6674899999999999</v>
       </c>
@@ -12346,7 +12110,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="92" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B92">
         <v>5.6341200000000002</v>
       </c>
@@ -12360,7 +12124,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="93" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B93">
         <v>5.6024099999999999</v>
       </c>
@@ -12374,7 +12138,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="94" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B94">
         <v>5.5722899999999997</v>
       </c>
@@ -12388,7 +12152,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="95" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B95">
         <v>5.5436800000000002</v>
       </c>
@@ -12402,7 +12166,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="96" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B96">
         <v>5.5164900000000001</v>
       </c>
@@ -12416,7 +12180,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="97" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B97">
         <v>5.4906699999999997</v>
       </c>
@@ -12430,7 +12194,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="98" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B98">
         <v>5.4661400000000002</v>
       </c>
@@ -12444,7 +12208,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="99" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B99">
         <v>5.4428299999999998</v>
       </c>
@@ -12458,7 +12222,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="100" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B100">
         <v>5.4206899999999996</v>
       </c>
@@ -12472,7 +12236,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="101" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B101">
         <v>5.3996500000000003</v>
       </c>
@@ -12486,7 +12250,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="102" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B102">
         <v>5.37967</v>
       </c>
@@ -12500,7 +12264,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="103" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B103">
         <v>5.36069</v>
       </c>
@@ -12514,7 +12278,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="104" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B104">
         <v>5.3426499999999999</v>
       </c>
@@ -12528,502 +12292,502 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="105" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:29" x14ac:dyDescent="0.4">
       <c r="K105">
         <v>0.30326799999999998</v>
       </c>
     </row>
-    <row r="106" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:29" x14ac:dyDescent="0.4">
       <c r="K106">
         <v>0.30174800000000002</v>
       </c>
     </row>
-    <row r="107" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:29" x14ac:dyDescent="0.4">
       <c r="K107">
         <v>0.30023499999999997</v>
       </c>
     </row>
-    <row r="108" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:29" x14ac:dyDescent="0.4">
       <c r="K108">
         <v>0.29873</v>
       </c>
     </row>
-    <row r="109" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:29" x14ac:dyDescent="0.4">
       <c r="K109">
         <v>0.29723300000000002</v>
       </c>
     </row>
-    <row r="110" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:29" x14ac:dyDescent="0.4">
       <c r="K110">
         <v>0.29574299999999998</v>
       </c>
     </row>
-    <row r="111" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:29" x14ac:dyDescent="0.4">
       <c r="K111">
         <v>0.29426099999999999</v>
       </c>
     </row>
-    <row r="112" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:29" x14ac:dyDescent="0.4">
       <c r="K112">
         <v>0.29278500000000002</v>
       </c>
     </row>
-    <row r="113" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K113">
         <v>0.29131800000000002</v>
       </c>
     </row>
-    <row r="114" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K114">
         <v>0.289858</v>
       </c>
     </row>
-    <row r="115" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K115">
         <v>0.28840500000000002</v>
       </c>
     </row>
-    <row r="116" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K116">
         <v>0.28695900000000002</v>
       </c>
     </row>
-    <row r="117" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K117">
         <v>0.28552100000000002</v>
       </c>
     </row>
-    <row r="118" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K118">
         <v>0.28408899999999998</v>
       </c>
     </row>
-    <row r="119" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K119">
         <v>0.282665</v>
       </c>
     </row>
-    <row r="120" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K120">
         <v>0.28124900000000003</v>
       </c>
     </row>
-    <row r="121" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K121">
         <v>0.279839</v>
       </c>
     </row>
-    <row r="122" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K122">
         <v>0.27843600000000002</v>
       </c>
     </row>
-    <row r="123" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K123">
         <v>0.27704000000000001</v>
       </c>
     </row>
-    <row r="124" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K124">
         <v>0.27565200000000001</v>
       </c>
     </row>
-    <row r="125" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K125">
         <v>0.27427000000000001</v>
       </c>
     </row>
-    <row r="126" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K126">
         <v>0.272895</v>
       </c>
     </row>
-    <row r="127" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K127">
         <v>0.27152700000000002</v>
       </c>
     </row>
-    <row r="128" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K128">
         <v>0.27016600000000002</v>
       </c>
     </row>
-    <row r="129" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K129">
         <v>0.268812</v>
       </c>
     </row>
-    <row r="130" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K130">
         <v>0.26746399999999998</v>
       </c>
     </row>
-    <row r="131" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K131">
         <v>0.26612400000000003</v>
       </c>
     </row>
-    <row r="132" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K132">
         <v>0.26479000000000003</v>
       </c>
     </row>
-    <row r="133" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K133">
         <v>0.26346199999999997</v>
       </c>
     </row>
-    <row r="134" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K134">
         <v>0.26214199999999999</v>
       </c>
     </row>
-    <row r="135" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K135">
         <v>0.260828</v>
       </c>
     </row>
-    <row r="136" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K136">
         <v>0.25951999999999997</v>
       </c>
     </row>
-    <row r="137" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K137">
         <v>0.25822000000000001</v>
       </c>
     </row>
-    <row r="138" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K138">
         <v>0.25692500000000001</v>
       </c>
     </row>
-    <row r="139" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K139">
         <v>0.255637</v>
       </c>
     </row>
-    <row r="140" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K140">
         <v>0.25435600000000003</v>
       </c>
     </row>
-    <row r="141" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K141">
         <v>0.253081</v>
       </c>
     </row>
-    <row r="142" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K142">
         <v>0.25181199999999998</v>
       </c>
     </row>
-    <row r="143" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K143">
         <v>0.25054999999999999</v>
       </c>
     </row>
-    <row r="144" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K144">
         <v>0.24929399999999999</v>
       </c>
     </row>
-    <row r="145" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K145">
         <v>0.24804499999999999</v>
       </c>
     </row>
-    <row r="146" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K146">
         <v>0.24680099999999999</v>
       </c>
     </row>
-    <row r="147" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K147">
         <v>0.245564</v>
       </c>
     </row>
-    <row r="148" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K148">
         <v>0.24433299999999999</v>
       </c>
     </row>
-    <row r="149" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K149">
         <v>0.24310799999999999</v>
       </c>
     </row>
-    <row r="150" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K150">
         <v>0.24188999999999999</v>
       </c>
     </row>
-    <row r="151" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K151">
         <v>0.240677</v>
       </c>
     </row>
-    <row r="152" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K152">
         <v>0.23947099999999999</v>
       </c>
     </row>
-    <row r="153" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K153">
         <v>0.23827000000000001</v>
       </c>
     </row>
-    <row r="154" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K154">
         <v>0.23707600000000001</v>
       </c>
     </row>
-    <row r="155" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K155">
         <v>0.23588799999999999</v>
       </c>
     </row>
-    <row r="156" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K156">
         <v>0.234705</v>
       </c>
     </row>
-    <row r="157" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K157">
         <v>0.23352899999999999</v>
       </c>
     </row>
-    <row r="158" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K158">
         <v>0.23235800000000001</v>
       </c>
     </row>
-    <row r="159" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K159">
         <v>0.23119400000000001</v>
       </c>
     </row>
-    <row r="160" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K160">
         <v>0.23003499999999999</v>
       </c>
     </row>
-    <row r="161" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K161">
         <v>0.228882</v>
       </c>
     </row>
-    <row r="162" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K162">
         <v>0.22773399999999999</v>
       </c>
     </row>
-    <row r="163" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K163">
         <v>0.22659299999999999</v>
       </c>
     </row>
-    <row r="164" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K164">
         <v>0.22545699999999999</v>
       </c>
     </row>
-    <row r="165" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K165">
         <v>0.224327</v>
       </c>
     </row>
-    <row r="166" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K166">
         <v>0.22320200000000001</v>
       </c>
     </row>
-    <row r="167" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K167">
         <v>0.222084</v>
       </c>
     </row>
-    <row r="168" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K168">
         <v>0.22097</v>
       </c>
     </row>
-    <row r="169" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K169">
         <v>0.219863</v>
       </c>
     </row>
-    <row r="170" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K170">
         <v>0.21876100000000001</v>
       </c>
     </row>
-    <row r="171" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K171">
         <v>0.217664</v>
       </c>
     </row>
-    <row r="172" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K172">
         <v>0.21657299999999999</v>
       </c>
     </row>
-    <row r="173" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K173">
         <v>0.21548700000000001</v>
       </c>
     </row>
-    <row r="174" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K174">
         <v>0.21440699999999999</v>
       </c>
     </row>
-    <row r="175" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K175">
         <v>0.21333299999999999</v>
       </c>
     </row>
-    <row r="176" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K176">
         <v>0.21226300000000001</v>
       </c>
     </row>
-    <row r="177" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K177">
         <v>0.211199</v>
       </c>
     </row>
-    <row r="178" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K178">
         <v>0.21014099999999999</v>
       </c>
     </row>
-    <row r="179" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K179">
         <v>0.209087</v>
       </c>
     </row>
-    <row r="180" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K180">
         <v>0.208039</v>
       </c>
     </row>
-    <row r="181" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K181">
         <v>0.20699600000000001</v>
       </c>
     </row>
-    <row r="182" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K182">
         <v>0.205959</v>
       </c>
     </row>
-    <row r="183" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K183">
         <v>0.204926</v>
       </c>
     </row>
-    <row r="184" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K184">
         <v>0.203899</v>
       </c>
     </row>
-    <row r="185" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K185">
         <v>0.202877</v>
       </c>
     </row>
-    <row r="186" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K186">
         <v>0.20186000000000001</v>
       </c>
     </row>
-    <row r="187" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K187">
         <v>0.200848</v>
       </c>
     </row>
-    <row r="188" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K188">
         <v>0.19984099999999999</v>
       </c>
     </row>
-    <row r="189" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K189">
         <v>0.19883999999999999</v>
       </c>
     </row>
-    <row r="190" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K190">
         <v>0.19784299999999999</v>
       </c>
     </row>
-    <row r="191" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K191">
         <v>0.196851</v>
       </c>
     </row>
-    <row r="192" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K192">
         <v>0.19586500000000001</v>
       </c>
     </row>
-    <row r="193" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K193">
         <v>0.194883</v>
       </c>
     </row>
-    <row r="194" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K194">
         <v>0.193906</v>
       </c>
     </row>
-    <row r="195" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K195">
         <v>0.19293399999999999</v>
       </c>
     </row>
-    <row r="196" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K196">
         <v>0.191967</v>
       </c>
     </row>
-    <row r="197" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K197">
         <v>0.19100500000000001</v>
       </c>
     </row>
-    <row r="198" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K198">
         <v>0.19004699999999999</v>
       </c>
     </row>
-    <row r="199" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K199">
         <v>0.18909500000000001</v>
       </c>
     </row>
-    <row r="200" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K200">
         <v>0.18814700000000001</v>
       </c>
     </row>
-    <row r="201" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K201">
         <v>0.18720400000000001</v>
       </c>
     </row>
-    <row r="202" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K202">
         <v>0.18626500000000001</v>
       </c>
     </row>
-    <row r="203" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K203">
         <v>0.185332</v>
       </c>
     </row>
-    <row r="204" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="11:11" x14ac:dyDescent="0.4">
       <c r="K204">
         <v>0.18440300000000001</v>
       </c>
@@ -13037,20 +12801,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:Z155"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.25" customWidth="1"/>
-    <col min="15" max="15" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="16.19921875" customWidth="1"/>
+    <col min="15" max="15" width="16.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:26" x14ac:dyDescent="0.4">
       <c r="O4" t="s">
         <v>13</v>
       </c>
@@ -13061,7 +12825,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>-0.7</v>
       </c>
@@ -13078,7 +12842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.4">
       <c r="O6">
         <v>0.32688400000000001</v>
       </c>
@@ -13089,7 +12853,7 @@
         <v>0.11688800000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>0.278804</v>
       </c>
@@ -13109,7 +12873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>0.27879100000000001</v>
       </c>
@@ -13129,7 +12893,7 @@
         <v>0.54322400000000004</v>
       </c>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.4">
       <c r="C9">
         <v>0.32550200000000001</v>
       </c>
@@ -13146,7 +12910,7 @@
         <v>0.60243500000000005</v>
       </c>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>0.27932899999999999</v>
       </c>
@@ -13166,7 +12930,7 @@
         <v>8.2789999999999999E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>0.27950399999999997</v>
       </c>
@@ -13186,7 +12950,7 @@
         <v>0.121323</v>
       </c>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>0.27900900000000001</v>
       </c>
@@ -13206,7 +12970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.4">
       <c r="E13">
         <v>0.27871699999999999</v>
       </c>
@@ -13220,7 +12984,7 @@
         <v>0.55318000000000001</v>
       </c>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>0.28003</v>
       </c>
@@ -13241,7 +13005,7 @@
         <v>0.65195899999999996</v>
       </c>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.4">
       <c r="E15">
         <v>0.27891700000000003</v>
       </c>
@@ -13255,7 +13019,7 @@
         <v>1.9032E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.4">
       <c r="E16">
         <v>2.0565E-2</v>
       </c>
@@ -13269,7 +13033,7 @@
         <v>0.116871</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B17">
         <f>AVERAGE(B7:B15)</f>
         <v>0.27924450000000001</v>
@@ -13291,7 +13055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -13312,7 +13076,7 @@
         <v>0.55360900000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -13337,7 +13101,7 @@
         <v>0.17749799999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -13358,7 +13122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -13375,7 +13139,7 @@
         <v>0.55372299999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -13392,7 +13156,7 @@
         <v>0.60713399999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -13409,7 +13173,7 @@
         <v>1.2699999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.4">
       <c r="E24">
         <v>0.28035900000000002</v>
       </c>
@@ -13423,7 +13187,7 @@
         <v>0.121031</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.4">
       <c r="E25">
         <v>1.8803E-2</v>
       </c>
@@ -13437,7 +13201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.4">
       <c r="E26">
         <v>0.30532999999999999</v>
       </c>
@@ -13451,7 +13215,7 @@
         <v>0.55333100000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.4">
       <c r="E27">
         <v>2.1267999999999999E-2</v>
       </c>
@@ -13462,7 +13226,7 @@
         <v>0.33357100000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.4">
       <c r="E28">
         <v>0.28010299999999999</v>
       </c>
@@ -13473,7 +13237,7 @@
         <v>0.332347</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
@@ -13495,7 +13259,7 @@
         <v>0.32788400000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.4">
       <c r="E30">
         <v>6.5574999999999994E-2</v>
       </c>
@@ -13506,7 +13270,7 @@
         <v>0.33207199999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.4">
       <c r="O31">
         <v>3.1989990000000001</v>
       </c>
@@ -13514,7 +13278,7 @@
         <v>0.33272499999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -13540,7 +13304,7 @@
         <v>0.33099600000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -13566,7 +13330,7 @@
         <v>0.33224900000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="O34">
         <v>2.8210899999999999</v>
       </c>
@@ -13574,7 +13338,7 @@
         <v>0.332202</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
       <c r="O35">
         <v>3.0457390000000002</v>
       </c>
@@ -13582,7 +13346,7 @@
         <v>0.32946300000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
       <c r="O36">
         <v>0.72003300000000003</v>
       </c>
@@ -13590,7 +13354,7 @@
         <v>0.33205299999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
       <c r="O37">
         <v>0.34073500000000001</v>
       </c>
@@ -13598,30 +13362,30 @@
         <v>0.33305299999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
       <c r="O38">
         <v>0.81532700000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
       <c r="O39">
         <v>3.0353720000000002</v>
       </c>
     </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C154" t="e">
         <f>AVERAGE(B154:B158)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C155" t="e">
         <f>AVERAGE(B154:B163)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B4:C155"/>
+  <autoFilter ref="B4:C155" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -13630,16 +13394,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:M141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>-0.7</v>
       </c>
@@ -13674,7 +13438,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
       <c r="H4">
         <f>AVERAGE(H6:H61)</f>
         <v>0.54178380357142852</v>
@@ -13699,7 +13463,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>1.92E-4</v>
       </c>
@@ -13716,7 +13480,7 @@
         <v>0.493118</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>5.2542999999999999E-2</v>
       </c>
@@ -13748,7 +13512,7 @@
         <v>1.0657760000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>2.5368999999999999E-2</v>
       </c>
@@ -13780,7 +13544,7 @@
         <v>1.043463</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>0.52600800000000003</v>
       </c>
@@ -13812,7 +13576,7 @@
         <v>1.0909679999999999</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>3.8671999999999998E-2</v>
       </c>
@@ -13844,7 +13608,7 @@
         <v>1.0754410000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>3.8446000000000001E-2</v>
       </c>
@@ -13876,7 +13640,7 @@
         <v>1.0446150000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>4.3742000000000003E-2</v>
       </c>
@@ -13908,7 +13672,7 @@
         <v>1.0888640000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>4.4444999999999998E-2</v>
       </c>
@@ -13940,7 +13704,7 @@
         <v>1.610719</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>0.50334100000000004</v>
       </c>
@@ -13972,7 +13736,7 @@
         <v>1.63344</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>2.776E-2</v>
       </c>
@@ -14004,7 +13768,7 @@
         <v>1.6433120000000001</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B15">
         <v>1.3127E-2</v>
       </c>
@@ -14036,7 +13800,7 @@
         <v>1.5890329999999999</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B16">
         <v>4.8806000000000002E-2</v>
       </c>
@@ -14068,7 +13832,7 @@
         <v>1.6342730000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B17">
         <v>0.51756000000000002</v>
       </c>
@@ -14100,7 +13864,7 @@
         <v>1.658334</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B18">
         <v>5.8326000000000003E-2</v>
       </c>
@@ -14132,7 +13896,7 @@
         <v>1.6004830000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B19">
         <v>1.4607999999999999E-2</v>
       </c>
@@ -14164,7 +13928,7 @@
         <v>1.6565129999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B20">
         <v>0.50310999999999995</v>
       </c>
@@ -14196,7 +13960,7 @@
         <v>1.6859789999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B21">
         <v>1.2501999999999999E-2</v>
       </c>
@@ -14228,7 +13992,7 @@
         <v>1.642984</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B22">
         <v>3.7962999999999997E-2</v>
       </c>
@@ -14260,7 +14024,7 @@
         <v>1.6740930000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B23">
         <v>0.52444199999999996</v>
       </c>
@@ -14292,7 +14056,7 @@
         <v>1.4498500000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B24">
         <v>1.4408000000000001E-2</v>
       </c>
@@ -14324,7 +14088,7 @@
         <v>1.4762439999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B25">
         <v>1.9889E-2</v>
       </c>
@@ -14356,7 +14120,7 @@
         <v>1.6284449999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B26">
         <v>8.5411000000000001E-2</v>
       </c>
@@ -14388,7 +14152,7 @@
         <v>1.615537</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B27">
         <v>5.2664000000000002E-2</v>
       </c>
@@ -14420,7 +14184,7 @@
         <v>1.634125</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B28">
         <v>9.6876000000000004E-2</v>
       </c>
@@ -14452,7 +14216,7 @@
         <v>1.1500840000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B29">
         <v>6.2010999999999997E-2</v>
       </c>
@@ -14484,7 +14248,7 @@
         <v>1.6287929999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B30">
         <v>0.10913299999999999</v>
       </c>
@@ -14516,7 +14280,7 @@
         <v>1.1039909999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B31">
         <v>5.4843000000000003E-2</v>
       </c>
@@ -14548,7 +14312,7 @@
         <v>1.0589930000000001</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B32">
         <v>0.53924499999999997</v>
       </c>
@@ -14580,7 +14344,7 @@
         <v>1.041955</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B33">
         <v>5.0036999999999998E-2</v>
       </c>
@@ -14612,7 +14376,7 @@
         <v>1.0521480000000001</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B34">
         <v>0.48603800000000003</v>
       </c>
@@ -14641,7 +14405,7 @@
         <v>1.0882000000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B35">
         <v>2.4603E-2</v>
       </c>
@@ -14667,7 +14431,7 @@
         <v>1.624682</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B36">
         <v>0.53198900000000005</v>
       </c>
@@ -14693,7 +14457,7 @@
         <v>1.680094</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B37">
         <v>1.8075999999999998E-2</v>
       </c>
@@ -14719,7 +14483,7 @@
         <v>1.627667</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B38">
         <v>0.51737999999999995</v>
       </c>
@@ -14745,7 +14509,7 @@
         <v>1.633251</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B39">
         <v>2.8724E-2</v>
       </c>
@@ -14771,7 +14535,7 @@
         <v>1.5939289999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B40">
         <v>0.52753399999999995</v>
       </c>
@@ -14797,7 +14561,7 @@
         <v>1.6397219999999999</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B41">
         <v>3.4333000000000002E-2</v>
       </c>
@@ -14823,7 +14587,7 @@
         <v>1.1612020000000001</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B42">
         <v>0.109416</v>
       </c>
@@ -14849,7 +14613,7 @@
         <v>1.6288149999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B43">
         <v>5.2970000000000003E-2</v>
       </c>
@@ -14875,7 +14639,7 @@
         <v>1.1689309999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B44">
         <v>9.7546999999999995E-2</v>
       </c>
@@ -14901,7 +14665,7 @@
         <v>1.159978</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B45">
         <v>1.6773E-2</v>
       </c>
@@ -14927,7 +14691,7 @@
         <v>1.042969</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B46">
         <v>0.100202</v>
       </c>
@@ -14953,7 +14717,7 @@
         <v>1.0590310000000001</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B47">
         <v>0.53970499999999999</v>
       </c>
@@ -14979,7 +14743,7 @@
         <v>1.094144</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B48">
         <v>1.7749999999999998E-2</v>
       </c>
@@ -15005,7 +14769,7 @@
         <v>1.0312939999999999</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B49">
         <v>0.53356700000000001</v>
       </c>
@@ -15028,7 +14792,7 @@
         <v>1.0362229999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B50">
         <v>3.3288999999999999E-2</v>
       </c>
@@ -15051,7 +14815,7 @@
         <v>1.0401499999999999</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B51">
         <v>6.5395999999999996E-2</v>
       </c>
@@ -15074,7 +14838,7 @@
         <v>1.0503990000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B52">
         <v>4.1723999999999997E-2</v>
       </c>
@@ -15097,7 +14861,7 @@
         <v>1.082822</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B53">
         <v>7.1345000000000006E-2</v>
       </c>
@@ -15117,7 +14881,7 @@
         <v>1.064683</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B54">
         <v>0.51321600000000001</v>
       </c>
@@ -15137,7 +14901,7 @@
         <v>1.065512</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B55">
         <v>4.1021000000000002E-2</v>
       </c>
@@ -15157,7 +14921,7 @@
         <v>1.062648</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B56">
         <v>5.6474000000000003E-2</v>
       </c>
@@ -15177,7 +14941,7 @@
         <v>1.0367029999999999</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B57">
         <v>3.8100000000000002E-2</v>
       </c>
@@ -15197,7 +14961,7 @@
         <v>1.0666690000000001</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B58">
         <v>5.9766E-2</v>
       </c>
@@ -15217,7 +14981,7 @@
         <v>1.0594840000000001</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B59">
         <v>0.53077300000000005</v>
       </c>
@@ -15237,7 +15001,7 @@
         <v>1.0554269999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B60">
         <v>2.2055999999999999E-2</v>
       </c>
@@ -15257,7 +15021,7 @@
         <v>0.589588</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B61">
         <v>0.50426499999999996</v>
       </c>
@@ -15277,7 +15041,7 @@
         <v>0.65364100000000003</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B62">
         <v>0.49837100000000001</v>
       </c>
@@ -15294,7 +15058,7 @@
         <v>0.60582000000000003</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B63">
         <v>9.5298999999999995E-2</v>
       </c>
@@ -15311,7 +15075,7 @@
         <v>0.59891399999999995</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B64">
         <v>0.542578</v>
       </c>
@@ -15328,7 +15092,7 @@
         <v>0.65621099999999999</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B65">
         <v>3.8034999999999999E-2</v>
       </c>
@@ -15342,7 +15106,7 @@
         <v>0.64982899999999999</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B66">
         <v>9.9445000000000006E-2</v>
       </c>
@@ -15356,7 +15120,7 @@
         <v>0.65410500000000005</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B67">
         <v>4.1764999999999997E-2</v>
       </c>
@@ -15370,7 +15134,7 @@
         <v>0.62901099999999999</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B68">
         <v>0.11199199999999999</v>
       </c>
@@ -15384,7 +15148,7 @@
         <v>0.61658400000000002</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B69">
         <v>0.51149599999999995</v>
       </c>
@@ -15398,7 +15162,7 @@
         <v>0.61185599999999996</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B70">
         <v>0.50575800000000004</v>
       </c>
@@ -15412,7 +15176,7 @@
         <v>0.65528500000000001</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B71">
         <v>0.542354</v>
       </c>
@@ -15426,7 +15190,7 @@
         <v>0.62254900000000002</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B72">
         <v>0.54636200000000001</v>
       </c>
@@ -15440,7 +15204,7 @@
         <v>0.57283799999999996</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B73">
         <v>0.11564199999999999</v>
       </c>
@@ -15454,7 +15218,7 @@
         <v>0.622363</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B74">
         <v>0.55051300000000003</v>
       </c>
@@ -15468,7 +15232,7 @@
         <v>0.60270900000000005</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B75">
         <v>0.54732599999999998</v>
       </c>
@@ -15479,7 +15243,7 @@
         <v>0.59953699999999999</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B76">
         <v>5.8587E-2</v>
       </c>
@@ -15490,7 +15254,7 @@
         <v>0.56506999999999996</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B77">
         <v>0.57917200000000002</v>
       </c>
@@ -15501,7 +15265,7 @@
         <v>2.7730000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B78">
         <v>6.6499000000000003E-2</v>
       </c>
@@ -15512,7 +15276,7 @@
         <v>0.53187899999999999</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B79">
         <v>9.9533999999999997E-2</v>
       </c>
@@ -15523,7 +15287,7 @@
         <v>2.2282E-2</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B80">
         <v>0.58844099999999999</v>
       </c>
@@ -15534,7 +15298,7 @@
         <v>0.505054</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B81">
         <v>0.116603</v>
       </c>
@@ -15545,7 +15309,7 @@
         <v>3.8766000000000002E-2</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B82">
         <v>0.54549999999999998</v>
       </c>
@@ -15556,7 +15320,7 @@
         <v>3.2499999999999999E-3</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B83">
         <v>0.55787200000000003</v>
       </c>
@@ -15567,7 +15331,7 @@
         <v>7.7299999999999994E-2</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B84">
         <v>0.494062</v>
       </c>
@@ -15578,7 +15342,7 @@
         <v>5.9885000000000001E-2</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B85">
         <v>0.11564199999999999</v>
       </c>
@@ -15589,7 +15353,7 @@
         <v>2.6641999999999999E-2</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B86">
         <v>0.53819399999999995</v>
       </c>
@@ -15597,7 +15361,7 @@
         <v>0.62901099999999999</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B87">
         <v>0.115357</v>
       </c>
@@ -15605,7 +15369,7 @@
         <v>0.61658400000000002</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B88">
         <v>0.106696</v>
       </c>
@@ -15613,7 +15377,7 @@
         <v>0.61185599999999996</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B89">
         <v>0.55415099999999995</v>
       </c>
@@ -15621,7 +15385,7 @@
         <v>0.65528500000000001</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B90">
         <v>0.116378</v>
       </c>
@@ -15629,7 +15393,7 @@
         <v>0.62254900000000002</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B91">
         <v>0.57434200000000002</v>
       </c>
@@ -15637,7 +15401,7 @@
         <v>0.57283799999999996</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B92">
         <v>0.555728</v>
       </c>
@@ -15645,7 +15409,7 @@
         <v>0.52927000000000002</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B93">
         <v>0.58264000000000005</v>
       </c>
@@ -15653,7 +15417,7 @@
         <v>0.622363</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B94">
         <v>0.54375799999999996</v>
       </c>
@@ -15661,7 +15425,7 @@
         <v>0.60270900000000005</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B95">
         <v>0.51264600000000005</v>
       </c>
@@ -15669,7 +15433,7 @@
         <v>9.8080000000000007E-3</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B96">
         <v>0.104015</v>
       </c>
@@ -15677,7 +15441,7 @@
         <v>6.9696999999999995E-2</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B97">
         <v>0.54724700000000004</v>
       </c>
@@ -15685,7 +15449,7 @@
         <v>5.6427999999999999E-2</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B98">
         <v>5.1472999999999998E-2</v>
       </c>
@@ -15693,7 +15457,7 @@
         <v>0.526223</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B99">
         <v>9.3713000000000005E-2</v>
       </c>
@@ -15701,7 +15465,7 @@
         <v>3.1380999999999999E-2</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B100">
         <v>0.58755000000000002</v>
       </c>
@@ -15709,7 +15473,7 @@
         <v>3.8989000000000003E-2</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B101">
         <v>0.55338399999999999</v>
       </c>
@@ -15717,7 +15481,7 @@
         <v>0.48383999999999999</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B102">
         <v>9.0190000000000006E-2</v>
       </c>
@@ -15725,7 +15489,7 @@
         <v>3.8345999999999998E-2</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B103">
         <v>0.54605400000000004</v>
       </c>
@@ -15733,7 +15497,7 @@
         <v>2.5519E-2</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B104">
         <v>3.3117000000000001E-2</v>
       </c>
@@ -15741,7 +15505,7 @@
         <v>3.6706999999999997E-2</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B105">
         <v>0.52298999999999995</v>
       </c>
@@ -15749,7 +15513,7 @@
         <v>4.8259000000000003E-2</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B106">
         <v>4.4928999999999997E-2</v>
       </c>
@@ -15757,172 +15521,172 @@
         <v>4.5893999999999997E-2</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B107">
         <v>7.8437000000000007E-2</v>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B108">
         <v>0.52547500000000003</v>
       </c>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B109">
         <v>5.3858000000000003E-2</v>
       </c>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B110">
         <v>0.55683700000000003</v>
       </c>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B111">
         <v>6.8484000000000003E-2</v>
       </c>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B112">
         <v>0.58269000000000004</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B113">
         <v>0.55002399999999996</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B114">
         <v>0.58174999999999999</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B115">
         <v>0.54498800000000003</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B116">
         <v>0.58104999999999996</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B117">
         <v>0.56649899999999997</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B118">
         <v>0.56443600000000005</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B119">
         <v>0.56480300000000006</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B120">
         <v>0.59755499999999995</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B121">
         <v>0.55187799999999998</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B122">
         <v>0.58053299999999997</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B123">
         <v>0.55045100000000002</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B124">
         <v>4.7973000000000002E-2</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B125">
         <v>0.50580499999999995</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B126">
         <v>2.3220999999999999E-2</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B127">
         <v>0.50845700000000005</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B128">
         <v>2.3585999999999999E-2</v>
       </c>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B129">
         <v>8.7469999999999996E-3</v>
       </c>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B130">
         <v>8.0093999999999999E-2</v>
       </c>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B131">
         <v>3.4617000000000002E-2</v>
       </c>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B132">
         <v>1.9480000000000001E-2</v>
       </c>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B133">
         <v>9.4121999999999997E-2</v>
       </c>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B134">
         <v>1.0402E-2</v>
       </c>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B135">
         <v>4.3321999999999999E-2</v>
       </c>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B136">
         <v>3.0033000000000001E-2</v>
       </c>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B137">
         <v>3.1890000000000002E-2</v>
       </c>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B138">
         <v>3.7543E-2</v>
       </c>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B139">
         <v>3.0533000000000001E-2</v>
       </c>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B141">
         <f>AVERAGE(B5:B139)</f>
         <v>0.25705543703703726</v>
@@ -15945,7 +15709,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B5:F139"/>
+  <autoFilter ref="B5:F139" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B140:B141 C141:F141">
     <cfRule type="colorScale" priority="12">
@@ -15998,821 +15762,183 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B1">
+        <v>-0.7</v>
+      </c>
+      <c r="C1">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2">
-        <v>0</v>
+        <f>AVERAGE(B3:B24)</f>
+        <v>89.937868636363646</v>
       </c>
       <c r="C2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+        <f>AVERAGE(C3:C16)</f>
+        <v>171.91263035714289</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3">
-        <v>0.27979999999999999</v>
+        <v>90.821617000000003</v>
       </c>
       <c r="C3">
-        <v>-0.7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+        <v>174.77229299999999</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4">
-        <v>0.32979999999999998</v>
+        <v>85.834755000000001</v>
       </c>
       <c r="C4">
-        <v>-0.53660099999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+        <v>176.09999099999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5">
-        <v>0.27979999999999999</v>
+        <v>91.245307999999994</v>
       </c>
       <c r="C5">
-        <v>-0.7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+        <v>172.07475299999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6">
-        <v>0.32979999999999998</v>
+        <v>85.744620999999995</v>
       </c>
       <c r="C6">
-        <v>-0.53660099999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+        <v>171.79660000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7">
-        <v>0.27979999999999999</v>
+        <v>102.555832</v>
       </c>
       <c r="C7">
-        <v>-0.7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+        <v>172.44537399999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8">
-        <v>0.32979999999999998</v>
+        <v>85.762146000000001</v>
       </c>
       <c r="C8">
-        <v>-0.53660099999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+        <v>175.701706</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9">
-        <v>0.31856000000000001</v>
+        <v>93.140113999999997</v>
       </c>
       <c r="C9">
-        <v>-0.57333299999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+        <v>179.026352</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10">
-        <v>0.36856</v>
+        <v>88.760422000000005</v>
       </c>
       <c r="C10">
-        <v>-0.40993499999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+        <v>172.76518200000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B11">
-        <v>0.35420400000000002</v>
+        <v>89.089072999999999</v>
       </c>
       <c r="C11">
-        <v>-0.45684999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+        <v>165.40223700000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B12">
-        <v>0.40420400000000001</v>
+        <v>88.242690999999994</v>
       </c>
       <c r="C12">
-        <v>-0.29345100000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+        <v>164.66583299999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B13">
-        <v>0.38628400000000002</v>
+        <v>91.270995999999997</v>
       </c>
       <c r="C13">
-        <v>-0.35201399999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+        <v>168.28656000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B14">
-        <v>0.43628400000000001</v>
+        <v>84.880889999999994</v>
       </c>
       <c r="C14">
-        <v>-0.18861600000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+        <v>172.020477</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B15">
-        <v>0.415155</v>
+        <v>93.124747999999997</v>
       </c>
       <c r="C15">
-        <v>-0.25766299999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+        <v>169.94605999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B16">
-        <v>0.46515499999999999</v>
+        <v>89.096374999999995</v>
       </c>
       <c r="C16">
-        <v>-9.4263899999999998E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+        <v>171.77340699999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17">
-        <v>0.44113999999999998</v>
-      </c>
-      <c r="C17">
-        <v>-0.17274600000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+        <v>90.394820999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B18">
-        <v>0.49114000000000002</v>
-      </c>
-      <c r="C18">
-        <v>-9.3473299999999992E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+        <v>85.967026000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19">
-        <v>0.46452599999999999</v>
-      </c>
-      <c r="C19">
-        <v>-9.6321100000000007E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+        <v>95.666274999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20">
-        <v>0.51452600000000004</v>
-      </c>
-      <c r="C20">
-        <v>6.7077600000000001E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+        <v>82.659606999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B21">
-        <v>0.48557299999999998</v>
-      </c>
-      <c r="C21">
-        <v>-2.7538699999999999E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+        <v>88.758774000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22">
-        <v>0.53557299999999997</v>
-      </c>
-      <c r="C22">
-        <v>0.13586000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+        <v>93.436981000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23">
-        <v>0.50451599999999996</v>
-      </c>
-      <c r="C23">
-        <v>3.43655E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+        <v>88.486075999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24">
-        <v>0.55451600000000001</v>
-      </c>
-      <c r="C24">
-        <v>0.197764</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25">
-        <v>0.52156400000000003</v>
-      </c>
-      <c r="C25">
-        <v>9.0079300000000001E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26">
-        <v>0.57156399999999996</v>
-      </c>
-      <c r="C26">
-        <v>0.25347799999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27">
-        <v>0.53690800000000005</v>
-      </c>
-      <c r="C27">
-        <v>0.14022200000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28">
-        <v>0.58690799999999999</v>
-      </c>
-      <c r="C28">
-        <v>0.30362</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29">
-        <v>0.55071700000000001</v>
-      </c>
-      <c r="C29">
-        <v>0.18534999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30">
-        <v>0.60071699999999995</v>
-      </c>
-      <c r="C30">
-        <v>0.34874899999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31">
-        <v>0.56314500000000001</v>
-      </c>
-      <c r="C31">
-        <v>0.225965</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32">
-        <v>0.61314500000000005</v>
-      </c>
-      <c r="C32">
-        <v>0.38936399999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33">
-        <v>0.57433100000000004</v>
-      </c>
-      <c r="C33">
-        <v>0.262519</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34">
-        <v>0.62433099999999997</v>
-      </c>
-      <c r="C34">
-        <v>0.42591800000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35">
-        <v>0.58439799999999997</v>
-      </c>
-      <c r="C35">
-        <v>0.29541699999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36">
-        <v>0.63439800000000002</v>
-      </c>
-      <c r="C36">
-        <v>0.458816</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37">
-        <v>0.59345800000000004</v>
-      </c>
-      <c r="C37">
-        <v>0.32502599999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38">
-        <v>0.64345799999999997</v>
-      </c>
-      <c r="C38">
-        <v>0.488425</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39">
-        <v>0.60161200000000004</v>
-      </c>
-      <c r="C39">
-        <v>0.35167399999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40">
-        <v>0.65161199999999997</v>
-      </c>
-      <c r="C40">
-        <v>0.51507199999999997</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B41">
-        <v>0.60895100000000002</v>
-      </c>
-      <c r="C41">
-        <v>0.37565700000000002</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B42">
-        <v>0.65895099999999995</v>
-      </c>
-      <c r="C42">
-        <v>0.53905499999999995</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B43">
-        <v>0.61555599999999999</v>
-      </c>
-      <c r="C43">
-        <v>0.39724100000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B44">
-        <v>0.66555600000000004</v>
-      </c>
-      <c r="C44">
-        <v>0.56064000000000003</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B45">
-        <v>0.62150000000000005</v>
-      </c>
-      <c r="C45">
-        <v>0.41666799999999998</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B46">
-        <v>0.67149999999999999</v>
-      </c>
-      <c r="C46">
-        <v>0.58006599999999997</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B47">
-        <v>0.62685000000000002</v>
-      </c>
-      <c r="C47">
-        <v>0.43415100000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B48">
-        <v>0.67684999999999995</v>
-      </c>
-      <c r="C48">
-        <v>0.59755000000000003</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B49">
-        <v>0.63166500000000003</v>
-      </c>
-      <c r="C49">
-        <v>0.44988600000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B50">
-        <v>0.68166499999999997</v>
-      </c>
-      <c r="C50">
-        <v>0.61328499999999997</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B51">
-        <v>0.63599899999999998</v>
-      </c>
-      <c r="C51">
-        <v>0.46404800000000002</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B52">
-        <v>0.68599900000000003</v>
-      </c>
-      <c r="C52">
-        <v>0.62744699999999998</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53">
-        <v>0.639899</v>
-      </c>
-      <c r="C53">
-        <v>0.476794</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B54">
-        <v>0.68989900000000004</v>
-      </c>
-      <c r="C54">
-        <v>0.64019199999999998</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B55">
-        <v>0.64340900000000001</v>
-      </c>
-      <c r="C55">
-        <v>0.488265</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B56">
-        <v>0.69340900000000005</v>
-      </c>
-      <c r="C56">
-        <v>0.65166299999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B57">
-        <v>0.64656800000000003</v>
-      </c>
-      <c r="C57">
-        <v>0.49858799999999998</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B58">
-        <v>0.69656799999999996</v>
-      </c>
-      <c r="C58">
-        <v>0.66198699999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B59">
-        <v>0.64941099999999996</v>
-      </c>
-      <c r="C59">
-        <v>0.50788</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B60">
-        <v>0.699411</v>
-      </c>
-      <c r="C60">
-        <v>0.67127899999999996</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B61">
-        <v>0.65197000000000005</v>
-      </c>
-      <c r="C61">
-        <v>0.51624199999999998</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B62">
-        <v>0.70196999999999998</v>
-      </c>
-      <c r="C62">
-        <v>0.67964100000000005</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B63">
-        <v>0.65427299999999999</v>
-      </c>
-      <c r="C63">
-        <v>0.52376800000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B64">
-        <v>0.70427300000000004</v>
-      </c>
-      <c r="C64">
-        <v>0.68716699999999997</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B65">
-        <v>0.65634599999999998</v>
-      </c>
-      <c r="C65">
-        <v>0.53054199999999996</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B66">
-        <v>0.70634600000000003</v>
-      </c>
-      <c r="C66">
-        <v>0.69394100000000003</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B67">
-        <v>0.65821099999999999</v>
-      </c>
-      <c r="C67">
-        <v>0.53663799999999995</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B68">
-        <v>0.70821100000000003</v>
-      </c>
-      <c r="C68">
-        <v>0.70003700000000002</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B69">
-        <v>0.65988999999999998</v>
-      </c>
-      <c r="C69">
-        <v>0.54212400000000005</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B70">
-        <v>0.70989000000000002</v>
-      </c>
-      <c r="C70">
-        <v>0.70552300000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B71">
-        <v>0.66140100000000002</v>
-      </c>
-      <c r="C71">
-        <v>0.54706200000000005</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B72">
-        <v>0.71140099999999995</v>
-      </c>
-      <c r="C72">
-        <v>0.71046100000000001</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B73">
-        <v>0.66276100000000004</v>
-      </c>
-      <c r="C73">
-        <v>0.55150600000000005</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B74">
-        <v>0.71276099999999998</v>
-      </c>
-      <c r="C74">
-        <v>0.71490500000000001</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B75">
-        <v>0.66398500000000005</v>
-      </c>
-      <c r="C75">
-        <v>0.55550600000000006</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B76">
-        <v>0.71398499999999998</v>
-      </c>
-      <c r="C76">
-        <v>0.71890500000000002</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B77">
-        <v>0.66508599999999996</v>
-      </c>
-      <c r="C77">
-        <v>0.55910599999999999</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B78">
-        <v>0.715086</v>
-      </c>
-      <c r="C78">
-        <v>0.72250499999999995</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B79">
-        <v>0.66607799999999995</v>
-      </c>
-      <c r="C79">
-        <v>0.56234600000000001</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B80">
-        <v>0.71607799999999999</v>
-      </c>
-      <c r="C80">
-        <v>0.72574399999999994</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B81">
-        <v>0.66696999999999995</v>
-      </c>
-      <c r="C81">
-        <v>0.56526100000000001</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B82">
-        <v>0.71697</v>
-      </c>
-      <c r="C82">
-        <v>0.72865999999999997</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B83">
-        <v>0.66777299999999995</v>
-      </c>
-      <c r="C83">
-        <v>0.567886</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B84">
-        <v>0.71777299999999999</v>
-      </c>
-      <c r="C84">
-        <v>0.73128400000000005</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B85">
-        <v>0.66849599999999998</v>
-      </c>
-      <c r="C85">
-        <v>0.57024699999999995</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B86">
-        <v>0.71849600000000002</v>
-      </c>
-      <c r="C86">
-        <v>0.73364600000000002</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B87">
-        <v>0.66914600000000002</v>
-      </c>
-      <c r="C87">
-        <v>0.57237300000000002</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B88">
-        <v>0.71914599999999995</v>
-      </c>
-      <c r="C88">
-        <v>0.73577199999999998</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B89">
-        <v>0.66973199999999999</v>
-      </c>
-      <c r="C89">
-        <v>0.57428599999999996</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B90">
-        <v>0.71973200000000004</v>
-      </c>
-      <c r="C90">
-        <v>0.73768500000000004</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B91">
-        <v>0.67025800000000002</v>
-      </c>
-      <c r="C91">
-        <v>0.57600799999999996</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B92">
-        <v>0.72025799999999995</v>
-      </c>
-      <c r="C92">
-        <v>0.73940600000000001</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B93">
-        <v>0.67073300000000002</v>
-      </c>
-      <c r="C93">
-        <v>0.57755699999999999</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B94">
-        <v>0.72073299999999996</v>
-      </c>
-      <c r="C94">
-        <v>0.74095599999999995</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B95">
-        <v>0.67115899999999995</v>
-      </c>
-      <c r="C95">
-        <v>0.57895200000000002</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B96">
-        <v>0.72115899999999999</v>
-      </c>
-      <c r="C96">
-        <v>0.74235099999999998</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B97">
-        <v>0.671543</v>
-      </c>
-      <c r="C97">
-        <v>0.58020700000000003</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B98">
-        <v>0.72154300000000005</v>
-      </c>
-      <c r="C98">
-        <v>0.74360599999999999</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B99">
-        <v>0.67188899999999996</v>
-      </c>
-      <c r="C99">
-        <v>0.58133699999999999</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B100">
-        <v>0.721889</v>
-      </c>
-      <c r="C100">
-        <v>0.74473500000000004</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B101">
-        <v>0.67220000000000002</v>
-      </c>
-      <c r="C101">
-        <v>0.58235300000000001</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B102">
-        <v>0.72219999999999995</v>
-      </c>
-      <c r="C102">
-        <v>0.74575199999999997</v>
+        <v>93.693961999999999</v>
       </c>
     </row>
   </sheetData>

--- a/PID test.xlsx
+++ b/PID test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boldasl\SEUNGHO\Workspace\GitHub\testbench\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EFCE4B-AEE5-4158-9944-663D842822B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7ACB417-B682-47A2-B35C-C1B3F3557EF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>P control</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +125,18 @@
   </si>
   <si>
     <t>y = 0.306x + 0.494</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은 엔코더 기어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>큰 엔코더 기어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voltage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -872,6 +884,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>voltage</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:t> -0.7</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -924,7 +965,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'detail condition'!$B$3:$B$24</c:f>
+              <c:f>'detail condition'!$B$6:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -1001,6 +1042,196 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4C3C-4A9C-9CA4-539D3F7472A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'detail condition'!$E$5:$E$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>119.08712800000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84.623290999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105.631348</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>106.626099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>106.115494</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97.423759000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>106.753433</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97.290526999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96.024604999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96.868874000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>124.594307</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>123.55811300000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>104.211411</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>110.746971</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>111.495071</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>111.524902</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>97.197768999999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>106.017303</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>151.60510300000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>106.341362</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>97.646248</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>96.682288999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>111.94825</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>107.10393500000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>104.718079</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>114.40004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>106.78641500000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>107.545067</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>119.802933</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>94.380218999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>126.73844099999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>104.01461</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>107.05094099999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>121.809044</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>112.44615899999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>121.197655</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>96.411841999999993</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>97.355141000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>106.70594800000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>94.548241000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>92.493735999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>121.681084</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>113.69986</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>84.882210000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>108.481415</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>106.41316999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>141.97846999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>96.776093000000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>123.220848</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>133.64166299999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>104.939171</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>154.575287</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>113.836586</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C6C2-491D-85F3-D07AF29B82FC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1132,6 +1363,743 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>voltage</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:t> -0.5</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'detail condition'!$F$5:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>217.401703</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>198.161697</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>213.196686</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>162.07513399999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>186.71443199999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>213.398056</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>213.83090200000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>202.28010599999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>225.21765099999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>204.41482500000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>188.924408</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>212.58921799999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>195.66369599999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>185.62591599999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>200.794861</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>188.54278600000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>217.57936100000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>195.09286499999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190.06950399999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>202.086975</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>230.57986500000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>188.24733000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>195.49226400000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE32-4849-B701-92E152FF58DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'detail condition'!$C$5:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>171.91263035714289</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>174.77229299999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>176.09999099999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>172.07475299999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>171.79660000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>172.44537399999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>175.701706</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>179.026352</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>172.76518200000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>165.40223700000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>164.66583299999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>168.28656000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>172.020477</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>169.94605999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>171.77340699999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AE32-4849-B701-92E152FF58DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="440978968"/>
+        <c:axId val="440977984"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="440978968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="440977984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="440977984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="440978968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>voltage -0.25</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'detail condition'!$G$5:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>322.41006499999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>311.80337500000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>289.98724399999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>339.79699699999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>325.40612800000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>291.63931300000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>323.36673000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>325.35296599999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>310.16781600000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>325.85665899999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>390.40902699999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>311.47479199999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B9FF-4B51-9BA8-91939B0917FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="444270136"/>
+        <c:axId val="444270464"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="444270136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444270464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="444270464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444270136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -4710,6 +5678,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5547,6 +6595,1038 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10530,16 +12610,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>36195</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>55245</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10559,6 +12639,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>483870</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53492080-A750-400E-BD27-55CC425D66C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>468630</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>346710</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="차트 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A35709-0B2E-42D4-9E2D-2B24A9AFFA38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -15763,187 +17915,554 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:C24"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
         <v>-0.7</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2">
-        <f>AVERAGE(B3:B24)</f>
+      <c r="E2">
+        <v>-0.7</v>
+      </c>
+      <c r="F2">
+        <v>-0.5</v>
+      </c>
+      <c r="G2">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B3">
+        <f>AVERAGE(B5:B27)</f>
+        <v>89.937868636363632</v>
+      </c>
+      <c r="C3">
+        <f>AVERAGE(C5:C19)</f>
+        <v>171.91263035714289</v>
+      </c>
+      <c r="E3">
+        <f>AVERAGE(E5:E57)</f>
+        <v>109.61599924528304</v>
+      </c>
+      <c r="F3">
+        <f>AVERAGE(F5:F27)</f>
+        <v>201.21653221739132</v>
+      </c>
+      <c r="G3">
+        <f>AVERAGE(G5:G16)</f>
+        <v>322.30592600000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B5">
+        <f>AVERAGE(B6:B27)</f>
         <v>89.937868636363646</v>
       </c>
-      <c r="C2">
-        <f>AVERAGE(C3:C16)</f>
+      <c r="C5">
+        <f>AVERAGE(C6:C19)</f>
         <v>171.91263035714289</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3">
+      <c r="E5">
+        <v>119.08712800000001</v>
+      </c>
+      <c r="F5">
+        <v>217.401703</v>
+      </c>
+      <c r="G5">
+        <v>322.41006499999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B6">
         <v>90.821617000000003</v>
       </c>
-      <c r="C3">
+      <c r="C6">
         <v>174.77229299999999</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B4">
+      <c r="E6">
+        <v>84.623290999999995</v>
+      </c>
+      <c r="F6">
+        <v>198.161697</v>
+      </c>
+      <c r="G6">
+        <v>311.80337500000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B7">
         <v>85.834755000000001</v>
       </c>
-      <c r="C4">
+      <c r="C7">
         <v>176.09999099999999</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B5">
+      <c r="E7">
+        <v>105.631348</v>
+      </c>
+      <c r="F7">
+        <v>213.196686</v>
+      </c>
+      <c r="G7">
+        <v>289.98724399999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B8">
         <v>91.245307999999994</v>
       </c>
-      <c r="C5">
+      <c r="C8">
         <v>172.07475299999999</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6">
+      <c r="E8">
+        <v>106.626099</v>
+      </c>
+      <c r="F8">
+        <v>162.07513399999999</v>
+      </c>
+      <c r="G8">
+        <v>339.79699699999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B9">
         <v>85.744620999999995</v>
       </c>
-      <c r="C6">
+      <c r="C9">
         <v>171.79660000000001</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B7">
+      <c r="E9">
+        <v>106.115494</v>
+      </c>
+      <c r="F9">
+        <v>186.71443199999999</v>
+      </c>
+      <c r="G9">
+        <v>325.40612800000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B10">
         <v>102.555832</v>
       </c>
-      <c r="C7">
+      <c r="C10">
         <v>172.44537399999999</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B8">
+      <c r="E10">
+        <v>97.423759000000004</v>
+      </c>
+      <c r="F10">
+        <v>213.398056</v>
+      </c>
+      <c r="G10">
+        <v>291.63931300000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B11">
         <v>85.762146000000001</v>
       </c>
-      <c r="C8">
+      <c r="C11">
         <v>175.701706</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B9">
+      <c r="E11">
+        <v>106.753433</v>
+      </c>
+      <c r="F11">
+        <v>213.83090200000001</v>
+      </c>
+      <c r="G11">
+        <v>323.36673000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B12">
         <v>93.140113999999997</v>
       </c>
-      <c r="C9">
+      <c r="C12">
         <v>179.026352</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B10">
+      <c r="E12">
+        <v>97.290526999999997</v>
+      </c>
+      <c r="F12">
+        <v>202.28010599999999</v>
+      </c>
+      <c r="G12">
+        <v>325.35296599999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B13">
         <v>88.760422000000005</v>
       </c>
-      <c r="C10">
+      <c r="C13">
         <v>172.76518200000001</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B11">
+      <c r="E13">
+        <v>96.024604999999994</v>
+      </c>
+      <c r="F13">
+        <v>225.21765099999999</v>
+      </c>
+      <c r="G13">
+        <v>310.16781600000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B14">
         <v>89.089072999999999</v>
       </c>
-      <c r="C11">
+      <c r="C14">
         <v>165.40223700000001</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B12">
+      <c r="E14">
+        <v>96.868874000000005</v>
+      </c>
+      <c r="F14">
+        <v>204.41482500000001</v>
+      </c>
+      <c r="G14">
+        <v>325.85665899999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B15">
         <v>88.242690999999994</v>
       </c>
-      <c r="C12">
+      <c r="C15">
         <v>164.66583299999999</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B13">
+      <c r="E15">
+        <v>124.594307</v>
+      </c>
+      <c r="F15">
+        <v>188.924408</v>
+      </c>
+      <c r="G15">
+        <v>390.40902699999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B16">
         <v>91.270995999999997</v>
       </c>
-      <c r="C13">
+      <c r="C16">
         <v>168.28656000000001</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B14">
+      <c r="E16">
+        <v>123.55811300000001</v>
+      </c>
+      <c r="F16">
+        <v>212.58921799999999</v>
+      </c>
+      <c r="G16">
+        <v>311.47479199999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B17">
         <v>84.880889999999994</v>
       </c>
-      <c r="C14">
+      <c r="C17">
         <v>172.020477</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B15">
+      <c r="E17">
+        <v>104.211411</v>
+      </c>
+      <c r="F17">
+        <v>195.66369599999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B18">
         <v>93.124747999999997</v>
       </c>
-      <c r="C15">
+      <c r="C18">
         <v>169.94605999999999</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B16">
+      <c r="E18">
+        <v>110.746971</v>
+      </c>
+      <c r="F18">
+        <v>185.62591599999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B19">
         <v>89.096374999999995</v>
       </c>
-      <c r="C16">
+      <c r="C19">
         <v>171.77340699999999</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B17">
+      <c r="E19">
+        <v>111.495071</v>
+      </c>
+      <c r="F19">
+        <v>200.794861</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B20">
         <v>90.394820999999993</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B18">
+      <c r="E20">
+        <v>111.524902</v>
+      </c>
+      <c r="F20">
+        <v>188.54278600000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B21">
         <v>85.967026000000004</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B19">
+      <c r="E21">
+        <v>97.197768999999994</v>
+      </c>
+      <c r="F21">
+        <v>217.57936100000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B22">
         <v>95.666274999999999</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B20">
+      <c r="E22">
+        <v>106.017303</v>
+      </c>
+      <c r="F22">
+        <v>195.09286499999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B23">
         <v>82.659606999999994</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B21">
+      <c r="E23">
+        <v>151.60510300000001</v>
+      </c>
+      <c r="F23">
+        <v>190.06950399999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B24">
         <v>88.758774000000003</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B22">
+      <c r="E24">
+        <v>106.341362</v>
+      </c>
+      <c r="F24">
+        <v>202.086975</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B25">
         <v>93.436981000000003</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B23">
+      <c r="E25">
+        <v>97.646248</v>
+      </c>
+      <c r="F25">
+        <v>230.57986500000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B26">
         <v>88.486075999999997</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B24">
+      <c r="E26">
+        <v>96.682288999999997</v>
+      </c>
+      <c r="F26">
+        <v>188.24733000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B27">
         <v>93.693961999999999</v>
+      </c>
+      <c r="E27">
+        <v>111.94825</v>
+      </c>
+      <c r="F27">
+        <v>195.49226400000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E28">
+        <v>107.10393500000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E29">
+        <v>104.718079</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E30">
+        <v>114.40004</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E31">
+        <v>106.78641500000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E32">
+        <v>107.545067</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E33">
+        <v>119.802933</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E34">
+        <v>94.380218999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E35">
+        <v>126.73844099999999</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E36">
+        <v>104.01461</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E37">
+        <v>107.05094099999999</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E38">
+        <v>121.809044</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E39">
+        <v>112.44615899999999</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E40">
+        <v>121.197655</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E41">
+        <v>96.411841999999993</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E42">
+        <v>97.355141000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E43">
+        <v>106.70594800000001</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E44">
+        <v>94.548241000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E45">
+        <v>92.493735999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E46">
+        <v>121.681084</v>
+      </c>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E47">
+        <v>113.69986</v>
+      </c>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E48">
+        <v>84.882210000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E49">
+        <v>108.481415</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E50">
+        <v>106.41316999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E51">
+        <v>141.97846999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E52">
+        <v>96.776093000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E53">
+        <v>123.220848</v>
+      </c>
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E54">
+        <v>133.64166299999999</v>
+      </c>
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E55">
+        <v>104.939171</v>
+      </c>
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E56">
+        <v>154.575287</v>
+      </c>
+    </row>
+    <row r="57" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E57">
+        <v>113.836586</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>